--- a/app/data/Orders.xlsx
+++ b/app/data/Orders.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,16 +441,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>46.2</v>
+        <v>47.1</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -463,19 +463,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2" t="n">
-        <v>46.4</v>
+        <v>47.3</v>
       </c>
       <c r="K2" t="n">
         <v>0.6</v>
       </c>
       <c r="L2" t="n">
-        <v>47.3</v>
+        <v>48.3</v>
       </c>
       <c r="M2" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -488,19 +488,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>46.5</v>
+        <v>114.5</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -509,23 +509,23 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ARVN</t>
+          <t>ALL</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="J3" t="n">
-        <v>47</v>
+        <v>114.7</v>
       </c>
       <c r="K3" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="L3" t="n">
-        <v>49.5</v>
+        <v>115.9</v>
       </c>
       <c r="M3" t="n">
-        <v>48.7</v>
+        <v>115.5</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -538,19 +538,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2</v>
+        <v>3.6</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>7.3</v>
+        <v>113.9</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -559,23 +559,23 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ASYS</t>
+          <t>ALXN</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>410</v>
+        <v>26</v>
       </c>
       <c r="J4" t="n">
-        <v>7.4</v>
+        <v>114.6</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>7.5</v>
+        <v>118.2</v>
       </c>
       <c r="M4" t="n">
-        <v>7.5</v>
+        <v>117.1</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -588,19 +588,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>19.2</v>
+        <v>26.6</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -609,23 +609,23 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>BKSC</t>
+          <t>AMH</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="J5" t="n">
-        <v>19.3</v>
+        <v>26.7</v>
       </c>
       <c r="K5" t="n">
         <v>0.2</v>
       </c>
       <c r="L5" t="n">
-        <v>19.6</v>
+        <v>27.1</v>
       </c>
       <c r="M5" t="n">
-        <v>19.5</v>
+        <v>27</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -641,16 +641,16 @@
         <v>0.6</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>45.6</v>
+        <v>34.3</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -659,23 +659,23 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CORR</t>
+          <t>APAM</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="J6" t="n">
-        <v>45.7</v>
+        <v>34.4</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="L6" t="n">
-        <v>46.3</v>
+        <v>35</v>
       </c>
       <c r="M6" t="n">
-        <v>46.1</v>
+        <v>34.8</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -688,19 +688,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>17.5</v>
+        <v>64</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -709,23 +709,23 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>DX</t>
+          <t>B</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c r="J7" t="n">
-        <v>17.5</v>
+        <v>64.2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="L7" t="n">
-        <v>17.7</v>
+        <v>65.2</v>
       </c>
       <c r="M7" t="n">
-        <v>17.7</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -738,19 +738,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2</v>
+        <v>3.4</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
         <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>276.2</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -759,23 +759,23 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>EIGI</t>
+          <t>BDX</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>596</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>5.1</v>
+        <v>276.9</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>5.2</v>
+        <v>280.3</v>
       </c>
       <c r="M8" t="n">
-        <v>5.2</v>
+        <v>279.3</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="C9" t="n">
         <v>6</v>
@@ -797,7 +797,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>8.800000000000001</v>
+        <v>26.8</v>
       </c>
       <c r="F9" t="n">
         <v>3</v>
@@ -809,23 +809,23 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>INFU</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>341</v>
+        <v>112</v>
       </c>
       <c r="J9" t="n">
-        <v>8.9</v>
+        <v>26.9</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="L9" t="n">
-        <v>9.1</v>
+        <v>27.4</v>
       </c>
       <c r="M9" t="n">
-        <v>9</v>
+        <v>27.3</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -838,19 +838,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>53.4</v>
+        <v>16.7</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -859,23 +859,23 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>NEP</t>
+          <t>BPMP</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>56</v>
+        <v>180</v>
       </c>
       <c r="J10" t="n">
-        <v>53.6</v>
+        <v>16.7</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="L10" t="n">
-        <v>54.3</v>
+        <v>17.1</v>
       </c>
       <c r="M10" t="n">
-        <v>54.1</v>
+        <v>17</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -888,19 +888,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>5.8</v>
+        <v>53</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -909,23 +909,23 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>OXSQ</t>
+          <t>BRKR</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>514</v>
+        <v>57</v>
       </c>
       <c r="J11" t="n">
-        <v>5.9</v>
+        <v>53.2</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>54.2</v>
       </c>
       <c r="M11" t="n">
-        <v>5.9</v>
+        <v>53.9</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -938,19 +938,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>45.9</v>
+        <v>58.4</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -959,23 +959,23 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>OXY</t>
+          <t>BX</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="J12" t="n">
-        <v>46.2</v>
+        <v>58.6</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="L12" t="n">
-        <v>47.5</v>
+        <v>59.7</v>
       </c>
       <c r="M12" t="n">
-        <v>47.1</v>
+        <v>59.4</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -988,19 +988,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
         <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>39.5</v>
+        <v>143.3</v>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1009,23 +1009,23 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>CCI</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="J13" t="n">
-        <v>39.6</v>
+        <v>143.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="L13" t="n">
-        <v>40.1</v>
+        <v>145.5</v>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1038,19 +1038,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
         <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>15.6</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1059,23 +1059,23 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>PRVB</t>
+          <t>CCOI</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="J14" t="n">
-        <v>15.8</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="L14" t="n">
-        <v>16.8</v>
+        <v>72.8</v>
       </c>
       <c r="M14" t="n">
-        <v>16.5</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1088,19 +1088,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>17.8</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1109,23 +1109,23 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>REPL</t>
+          <t>CDNS</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="J15" t="n">
-        <v>18</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="L15" t="n">
-        <v>19</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="M15" t="n">
-        <v>18.7</v>
+        <v>74.5</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1138,19 +1138,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>31.5</v>
+        <v>37</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1159,23 +1159,23 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>VALU</t>
+          <t>CMTL</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="J16" t="n">
-        <v>31.8</v>
+        <v>37.1</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L16" t="n">
-        <v>33.1</v>
+        <v>37.8</v>
       </c>
       <c r="M16" t="n">
-        <v>32.7</v>
+        <v>37.6</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1188,19 +1188,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>82.09999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1209,23 +1209,23 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>WPC</t>
+          <t>CPRT</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J17" t="n">
-        <v>82.3</v>
+        <v>96.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="L17" t="n">
-        <v>83.5</v>
+        <v>98</v>
       </c>
       <c r="M17" t="n">
-        <v>83.2</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1238,44 +1238,44 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>7.2</v>
+        <v>62.2</v>
       </c>
       <c r="F18" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>AMSC</t>
+          <t>CSOD</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>414</v>
+        <v>48</v>
       </c>
       <c r="J18" t="n">
-        <v>7.2</v>
+        <v>62.4</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="L18" t="n">
-        <v>6.9</v>
+        <v>63.7</v>
       </c>
       <c r="M18" t="n">
-        <v>7</v>
+        <v>63.3</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1288,44 +1288,44 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.9</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
+        <v>8</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E19" t="n">
+        <v>282.8</v>
+      </c>
+      <c r="F19" t="n">
         <v>2</v>
       </c>
-      <c r="D19" t="n">
-        <v>10</v>
-      </c>
-      <c r="E19" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
-      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ANIK</t>
+          <t>CTAS</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="J19" t="n">
-        <v>49.4</v>
+        <v>283.9</v>
       </c>
       <c r="K19" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="L19" t="n">
-        <v>47.5</v>
+        <v>288.9</v>
       </c>
       <c r="M19" t="n">
-        <v>48.1</v>
+        <v>287.4</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1338,44 +1338,44 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>5.4</v>
+        <v>115.1</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>APRN</t>
+          <t>CTXS</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>561</v>
+        <v>26</v>
       </c>
       <c r="J20" t="n">
-        <v>5.3</v>
+        <v>115.5</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>117.1</v>
       </c>
       <c r="M20" t="n">
-        <v>5.1</v>
+        <v>116.6</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1388,44 +1388,44 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="C21" t="n">
+        <v>7</v>
+      </c>
+      <c r="D21" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="F21" t="n">
         <v>3</v>
       </c>
-      <c r="D21" t="n">
-        <v>10</v>
-      </c>
-      <c r="E21" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
-      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>CMD</t>
+          <t>DOC</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="J21" t="n">
-        <v>64</v>
+        <v>19.2</v>
       </c>
       <c r="K21" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="L21" t="n">
-        <v>62.2</v>
+        <v>19.5</v>
       </c>
       <c r="M21" t="n">
-        <v>62.7</v>
+        <v>19.4</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1438,44 +1438,44 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="C22" t="n">
+        <v>6</v>
+      </c>
+      <c r="D22" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F22" t="n">
         <v>4</v>
       </c>
-      <c r="D22" t="n">
-        <v>10</v>
-      </c>
-      <c r="E22" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>EBIX</t>
+          <t>EHC</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="J22" t="n">
-        <v>31.4</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="L22" t="n">
-        <v>30.6</v>
+        <v>79.3</v>
       </c>
       <c r="M22" t="n">
-        <v>30.8</v>
+        <v>78.7</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1488,44 +1488,44 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23" t="n">
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>92.59999999999999</v>
+        <v>53.4</v>
       </c>
       <c r="F23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>EHTH</t>
+          <t>ENTG</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="J23" t="n">
-        <v>91.8</v>
+        <v>53.6</v>
       </c>
       <c r="K23" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="L23" t="n">
-        <v>87.90000000000001</v>
+        <v>54.6</v>
       </c>
       <c r="M23" t="n">
-        <v>89.09999999999999</v>
+        <v>54.3</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -1538,44 +1538,44 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D24" t="n">
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>58.8</v>
+        <v>26</v>
       </c>
       <c r="F24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>ENTA</t>
+          <t>EPRT</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="J24" t="n">
-        <v>58.5</v>
+        <v>26.1</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="L24" t="n">
-        <v>57</v>
+        <v>26.6</v>
       </c>
       <c r="M24" t="n">
-        <v>57.4</v>
+        <v>26.4</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -1588,44 +1588,44 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D25" t="n">
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>80.5</v>
+        <v>26.1</v>
       </c>
       <c r="F25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>GATX</t>
+          <t>EQH</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="J25" t="n">
-        <v>80.2</v>
+        <v>26.2</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="L25" t="n">
-        <v>78.90000000000001</v>
+        <v>26.7</v>
       </c>
       <c r="M25" t="n">
-        <v>79.3</v>
+        <v>26.6</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -1638,44 +1638,44 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" t="n">
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>13.8</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>HBI</t>
+          <t>ESE</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>217</v>
+        <v>31</v>
       </c>
       <c r="J26" t="n">
-        <v>13.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>13.4</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>13.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -1688,44 +1688,44 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="C27" t="n">
+        <v>7</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="F27" t="n">
         <v>3</v>
       </c>
-      <c r="D27" t="n">
-        <v>10</v>
-      </c>
-      <c r="E27" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F27" t="n">
-        <v>7</v>
-      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>MPAA</t>
+          <t>EXLS</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="J27" t="n">
-        <v>20.4</v>
+        <v>72</v>
       </c>
       <c r="K27" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="L27" t="n">
-        <v>19.8</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="M27" t="n">
-        <v>20</v>
+        <v>72.8</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -1738,44 +1738,44 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D28" t="n">
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>31.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>NYT</t>
+          <t>FBHS</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="J28" t="n">
-        <v>31.1</v>
+        <v>68.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="L28" t="n">
-        <v>30.5</v>
+        <v>69.3</v>
       </c>
       <c r="M28" t="n">
-        <v>30.7</v>
+        <v>69</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -1788,44 +1788,44 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.9</v>
+        <v>0.1</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>57.8</v>
+        <v>10.6</v>
       </c>
       <c r="F29" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>OLLI</t>
+          <t>FPAC</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>52</v>
+        <v>284</v>
       </c>
       <c r="J29" t="n">
-        <v>57.4</v>
+        <v>10.6</v>
       </c>
       <c r="K29" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>55.5</v>
+        <v>10.6</v>
       </c>
       <c r="M29" t="n">
-        <v>56.1</v>
+        <v>10.6</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -1838,44 +1838,44 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C30" t="n">
+        <v>7</v>
+      </c>
+      <c r="D30" t="n">
+        <v>10</v>
+      </c>
+      <c r="E30" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="F30" t="n">
         <v>3</v>
       </c>
-      <c r="C30" t="n">
-        <v>6</v>
-      </c>
-      <c r="D30" t="n">
-        <v>10</v>
-      </c>
-      <c r="E30" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F30" t="n">
-        <v>4</v>
-      </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>PTLA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>203</v>
+        <v>71</v>
       </c>
       <c r="J30" t="n">
-        <v>14.2</v>
+        <v>42.3</v>
       </c>
       <c r="K30" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="L30" t="n">
-        <v>11.1</v>
+        <v>42.9</v>
       </c>
       <c r="M30" t="n">
-        <v>12.1</v>
+        <v>42.7</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -1888,44 +1888,44 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="C31" t="n">
+        <v>6</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10</v>
+      </c>
+      <c r="E31" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="F31" t="n">
         <v>4</v>
       </c>
-      <c r="D31" t="n">
-        <v>10</v>
-      </c>
-      <c r="E31" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F31" t="n">
-        <v>6</v>
-      </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>TISI</t>
+          <t>GDDY</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="J31" t="n">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="K31" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="L31" t="n">
-        <v>14.7</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="M31" t="n">
-        <v>14.8</v>
+        <v>74</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -1938,44 +1938,44 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32" t="n">
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>31.2</v>
+        <v>53.2</v>
       </c>
       <c r="F32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>TRUP</t>
+          <t>GGG</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="J32" t="n">
-        <v>30.8</v>
+        <v>53.3</v>
       </c>
       <c r="K32" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="L32" t="n">
-        <v>28.8</v>
+        <v>54</v>
       </c>
       <c r="M32" t="n">
-        <v>29.4</v>
+        <v>53.8</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -1988,44 +1988,44 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.7</v>
+        <v>0.4</v>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D33" t="n">
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>184.2</v>
+        <v>30.4</v>
       </c>
       <c r="F33" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>UI</t>
+          <t>GLW</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="J33" t="n">
-        <v>183.5</v>
+        <v>30.5</v>
       </c>
       <c r="K33" t="n">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="L33" t="n">
-        <v>179.8</v>
+        <v>30.9</v>
       </c>
       <c r="M33" t="n">
-        <v>180.9</v>
+        <v>30.8</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2038,44 +2038,44 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5.4</v>
+        <v>0.5</v>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>185.5</v>
+        <v>30.2</v>
       </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>WDFC</t>
+          <t>GNTX</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="J34" t="n">
-        <v>184.5</v>
+        <v>30.3</v>
       </c>
       <c r="K34" t="n">
-        <v>3.2</v>
+        <v>0.3</v>
       </c>
       <c r="L34" t="n">
-        <v>179.1</v>
+        <v>30.8</v>
       </c>
       <c r="M34" t="n">
-        <v>180.7</v>
+        <v>30.6</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2088,46 +2088,4046 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="C35" t="n">
+        <v>7</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1439.2</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1443.2</v>
+      </c>
+      <c r="K35" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1462.9</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1456.9</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="C36" t="n">
+        <v>6</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1440</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1444</v>
+      </c>
+      <c r="K36" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1463.6</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1457.7</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>7</v>
+      </c>
+      <c r="D37" t="n">
+        <v>10</v>
+      </c>
+      <c r="E37" t="n">
+        <v>193.3</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>GPN</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>16</v>
+      </c>
+      <c r="J37" t="n">
+        <v>193.9</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L37" t="n">
+        <v>197</v>
+      </c>
+      <c r="M37" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C38" t="n">
+        <v>8</v>
+      </c>
+      <c r="D38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E38" t="n">
+        <v>25</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>HESM</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>120</v>
+      </c>
+      <c r="J38" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L38" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="M38" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>7</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10</v>
+      </c>
+      <c r="E39" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>89</v>
+      </c>
+      <c r="J39" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L39" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="M39" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4</v>
+      </c>
+      <c r="D40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E40" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="F40" t="n">
+        <v>6</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>HUBG</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>56</v>
+      </c>
+      <c r="J40" t="n">
+        <v>54</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L40" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="M40" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>8</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>552</v>
+      </c>
+      <c r="J41" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>9</v>
+      </c>
+      <c r="D42" t="n">
+        <v>10</v>
+      </c>
+      <c r="E42" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>KIN</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>288</v>
+      </c>
+      <c r="J42" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L42" t="n">
+        <v>11</v>
+      </c>
+      <c r="M42" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C43" t="n">
+        <v>8</v>
+      </c>
+      <c r="D43" t="n">
+        <v>10</v>
+      </c>
+      <c r="E43" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>53</v>
+      </c>
+      <c r="J43" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L43" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="M43" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>6</v>
+      </c>
+      <c r="D44" t="n">
+        <v>10</v>
+      </c>
+      <c r="E44" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>LADR</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>162</v>
+      </c>
+      <c r="J44" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="M44" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>7</v>
+      </c>
+      <c r="D45" t="n">
+        <v>10</v>
+      </c>
+      <c r="E45" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>LAMR</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>33</v>
+      </c>
+      <c r="J45" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L45" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="M45" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D46" t="n">
+        <v>10</v>
+      </c>
+      <c r="E46" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="F46" t="n">
+        <v>5</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>LEN</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>50</v>
+      </c>
+      <c r="J46" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="M46" t="n">
+        <v>62</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>9</v>
+      </c>
+      <c r="D47" t="n">
+        <v>10</v>
+      </c>
+      <c r="E47" t="n">
+        <v>138.9</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>22</v>
+      </c>
+      <c r="J47" t="n">
+        <v>139.4</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L47" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="M47" t="n">
+        <v>140.8</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C48" t="n">
+        <v>5</v>
+      </c>
+      <c r="D48" t="n">
+        <v>10</v>
+      </c>
+      <c r="E48" t="n">
+        <v>419</v>
+      </c>
+      <c r="F48" t="n">
+        <v>5</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>LMT</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>7</v>
+      </c>
+      <c r="J48" t="n">
+        <v>420.4</v>
+      </c>
+      <c r="K48" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>427.3</v>
+      </c>
+      <c r="M48" t="n">
+        <v>425.2</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C49" t="n">
+        <v>8</v>
+      </c>
+      <c r="D49" t="n">
+        <v>10</v>
+      </c>
+      <c r="E49" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>LNT</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>54</v>
+      </c>
+      <c r="J49" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L49" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="M49" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C50" t="n">
+        <v>7</v>
+      </c>
+      <c r="D50" t="n">
+        <v>10</v>
+      </c>
+      <c r="E50" t="n">
+        <v>8</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>LUNA</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>374</v>
+      </c>
+      <c r="J50" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L50" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="M50" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C51" t="n">
+        <v>7</v>
+      </c>
+      <c r="D51" t="n">
+        <v>10</v>
+      </c>
+      <c r="E51" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>LXP</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>279</v>
+      </c>
+      <c r="J51" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>11</v>
+      </c>
+      <c r="M51" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C52" t="n">
+        <v>7</v>
+      </c>
+      <c r="D52" t="n">
+        <v>10</v>
+      </c>
+      <c r="E52" t="n">
+        <v>44</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>68</v>
+      </c>
+      <c r="J52" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L52" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="M52" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C53" t="n">
+        <v>7</v>
+      </c>
+      <c r="D53" t="n">
+        <v>10</v>
+      </c>
+      <c r="E53" t="n">
+        <v>251.5</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>MCO</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>12</v>
+      </c>
+      <c r="J53" t="n">
+        <v>252.2</v>
+      </c>
+      <c r="K53" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L53" t="n">
+        <v>256</v>
+      </c>
+      <c r="M53" t="n">
+        <v>254.9</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C54" t="n">
+        <v>8</v>
+      </c>
+      <c r="D54" t="n">
+        <v>10</v>
+      </c>
+      <c r="E54" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>MIC</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>66</v>
+      </c>
+      <c r="J54" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L54" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="M54" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C55" t="n">
+        <v>8</v>
+      </c>
+      <c r="D55" t="n">
+        <v>10</v>
+      </c>
+      <c r="E55" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>MINI</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>77</v>
+      </c>
+      <c r="J55" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L55" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="M55" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
         <v>2.4</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C56" t="n">
         <v>5</v>
       </c>
-      <c r="D35" t="n">
-        <v>10</v>
-      </c>
-      <c r="E35" t="n">
-        <v>60.7</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="D56" t="n">
+        <v>10</v>
+      </c>
+      <c r="E56" t="n">
+        <v>180.9</v>
+      </c>
+      <c r="F56" t="n">
         <v>5</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>17</v>
+      </c>
+      <c r="J56" t="n">
+        <v>181.4</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L56" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="M56" t="n">
+        <v>183.1</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C57" t="n">
+        <v>8</v>
+      </c>
+      <c r="D57" t="n">
+        <v>10</v>
+      </c>
+      <c r="E57" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>MPW</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>138</v>
+      </c>
+      <c r="J57" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L57" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="M57" t="n">
+        <v>22</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="C58" t="n">
+        <v>6</v>
+      </c>
+      <c r="D58" t="n">
+        <v>10</v>
+      </c>
+      <c r="E58" t="n">
+        <v>254.8</v>
+      </c>
+      <c r="F58" t="n">
+        <v>4</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>MTN</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>12</v>
+      </c>
+      <c r="J58" t="n">
+        <v>255.8</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L58" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="M58" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C59" t="n">
+        <v>8</v>
+      </c>
+      <c r="D59" t="n">
+        <v>10</v>
+      </c>
+      <c r="E59" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>NEP</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>55</v>
+      </c>
+      <c r="J59" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L59" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="M59" t="n">
+        <v>55</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C60" t="n">
+        <v>6</v>
+      </c>
+      <c r="D60" t="n">
+        <v>10</v>
+      </c>
+      <c r="E60" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="F60" t="n">
+        <v>4</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>NOVT</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>31</v>
+      </c>
+      <c r="J60" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L60" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="M60" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C61" t="n">
+        <v>7</v>
+      </c>
+      <c r="D61" t="n">
+        <v>10</v>
+      </c>
+      <c r="E61" t="n">
+        <v>252</v>
+      </c>
+      <c r="F61" t="n">
+        <v>3</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>12</v>
+      </c>
+      <c r="J61" t="n">
+        <v>253.1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L61" t="n">
+        <v>259</v>
+      </c>
+      <c r="M61" t="n">
+        <v>257.2</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C62" t="n">
+        <v>8</v>
+      </c>
+      <c r="D62" t="n">
+        <v>10</v>
+      </c>
+      <c r="E62" t="n">
+        <v>200.6</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>ODFL</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>15</v>
+      </c>
+      <c r="J62" t="n">
+        <v>201.3</v>
+      </c>
+      <c r="K62" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L62" t="n">
+        <v>204.7</v>
+      </c>
+      <c r="M62" t="n">
+        <v>203.7</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>10</v>
+      </c>
+      <c r="E63" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>ORC</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>492</v>
+      </c>
+      <c r="J63" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L63" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="M63" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2</v>
+      </c>
+      <c r="D64" t="n">
+        <v>10</v>
+      </c>
+      <c r="E64" t="n">
+        <v>5</v>
+      </c>
+      <c r="F64" t="n">
+        <v>8</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>ORGO</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>600</v>
+      </c>
+      <c r="J64" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L64" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C65" t="n">
+        <v>7</v>
+      </c>
+      <c r="D65" t="n">
+        <v>10</v>
+      </c>
+      <c r="E65" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>ORN</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>535</v>
+      </c>
+      <c r="J65" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L65" t="n">
+        <v>6</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>5</v>
+      </c>
+      <c r="D66" t="n">
+        <v>10</v>
+      </c>
+      <c r="E66" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>OXSQ</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>510</v>
+      </c>
+      <c r="J66" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L66" t="n">
+        <v>6</v>
+      </c>
+      <c r="M66" t="n">
+        <v>6</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C67" t="n">
+        <v>8</v>
+      </c>
+      <c r="D67" t="n">
+        <v>10</v>
+      </c>
+      <c r="E67" t="n">
+        <v>295.4</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>PAYC</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>296.9</v>
+      </c>
+      <c r="K67" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L67" t="n">
+        <v>304</v>
+      </c>
+      <c r="M67" t="n">
+        <v>301.9</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C68" t="n">
+        <v>7</v>
+      </c>
+      <c r="D68" t="n">
+        <v>10</v>
+      </c>
+      <c r="E68" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="F68" t="n">
+        <v>3</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>PEGA</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>36</v>
+      </c>
+      <c r="J68" t="n">
+        <v>83</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L68" t="n">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="M68" t="n">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C69" t="n">
+        <v>5</v>
+      </c>
+      <c r="D69" t="n">
+        <v>10</v>
+      </c>
+      <c r="E69" t="n">
+        <v>14</v>
+      </c>
+      <c r="F69" t="n">
+        <v>4</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>PGRE</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>214</v>
+      </c>
+      <c r="J69" t="n">
+        <v>14</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L69" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="M69" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C70" t="n">
+        <v>6</v>
+      </c>
+      <c r="D70" t="n">
+        <v>10</v>
+      </c>
+      <c r="E70" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="F70" t="n">
+        <v>4</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>PLD</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>33</v>
+      </c>
+      <c r="J70" t="n">
+        <v>92.09999999999999</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L70" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="M70" t="n">
+        <v>93</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2</v>
+      </c>
+      <c r="C71" t="n">
+        <v>9</v>
+      </c>
+      <c r="D71" t="n">
+        <v>10</v>
+      </c>
+      <c r="E71" t="n">
+        <v>105.6</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>POWI</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>28</v>
+      </c>
+      <c r="J71" t="n">
+        <v>106</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L71" t="n">
+        <v>108</v>
+      </c>
+      <c r="M71" t="n">
+        <v>107.4</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C72" t="n">
+        <v>7</v>
+      </c>
+      <c r="D72" t="n">
+        <v>10</v>
+      </c>
+      <c r="E72" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>PRGS</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>68</v>
+      </c>
+      <c r="J72" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L72" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="M72" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C73" t="n">
+        <v>5</v>
+      </c>
+      <c r="D73" t="n">
+        <v>10</v>
+      </c>
+      <c r="E73" t="n">
+        <v>115.3</v>
+      </c>
+      <c r="F73" t="n">
+        <v>5</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>PYPL</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>26</v>
+      </c>
+      <c r="J73" t="n">
+        <v>115.7</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L73" t="n">
+        <v>117.9</v>
+      </c>
+      <c r="M73" t="n">
+        <v>117.3</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2</v>
+      </c>
+      <c r="C74" t="n">
+        <v>4</v>
+      </c>
+      <c r="D74" t="n">
+        <v>10</v>
+      </c>
+      <c r="E74" t="n">
+        <v>91</v>
+      </c>
+      <c r="F74" t="n">
+        <v>6</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>QCOM</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>33</v>
+      </c>
+      <c r="J74" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L74" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="M74" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>7</v>
+      </c>
+      <c r="D75" t="n">
+        <v>10</v>
+      </c>
+      <c r="E75" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>RGR</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>61</v>
+      </c>
+      <c r="J75" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L75" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="M75" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C76" t="n">
+        <v>7</v>
+      </c>
+      <c r="D76" t="n">
+        <v>10</v>
+      </c>
+      <c r="E76" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="F76" t="n">
+        <v>3</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>RJF</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>32</v>
+      </c>
+      <c r="J76" t="n">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L76" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="M76" t="n">
+        <v>95</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C77" t="n">
+        <v>6</v>
+      </c>
+      <c r="D77" t="n">
+        <v>10</v>
+      </c>
+      <c r="E77" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F77" t="n">
+        <v>4</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>RMBS</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>207</v>
+      </c>
+      <c r="J77" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L77" t="n">
+        <v>15</v>
+      </c>
+      <c r="M77" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C78" t="n">
+        <v>7</v>
+      </c>
+      <c r="D78" t="n">
+        <v>10</v>
+      </c>
+      <c r="E78" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="F78" t="n">
+        <v>3</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>47</v>
+      </c>
+      <c r="J78" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L78" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="M78" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>7</v>
+      </c>
+      <c r="D79" t="n">
+        <v>10</v>
+      </c>
+      <c r="E79" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>SKY</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>86</v>
+      </c>
+      <c r="J79" t="n">
+        <v>35</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L79" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="M79" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C80" t="n">
+        <v>8</v>
+      </c>
+      <c r="D80" t="n">
+        <v>10</v>
+      </c>
+      <c r="E80" t="n">
+        <v>23</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>SNDR</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>131</v>
+      </c>
+      <c r="J80" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L80" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="M80" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C81" t="n">
+        <v>8</v>
+      </c>
+      <c r="D81" t="n">
+        <v>10</v>
+      </c>
+      <c r="E81" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>46</v>
+      </c>
+      <c r="J81" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L81" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="M81" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C82" t="n">
+        <v>9</v>
+      </c>
+      <c r="D82" t="n">
+        <v>10</v>
+      </c>
+      <c r="E82" t="n">
+        <v>83</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>SSD</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>36</v>
+      </c>
+      <c r="J82" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L82" t="n">
+        <v>84.40000000000001</v>
+      </c>
+      <c r="M82" t="n">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C83" t="n">
+        <v>7</v>
+      </c>
+      <c r="D83" t="n">
+        <v>10</v>
+      </c>
+      <c r="E83" t="n">
+        <v>32</v>
+      </c>
+      <c r="F83" t="n">
+        <v>3</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>STAG</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>94</v>
+      </c>
+      <c r="J83" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L83" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="M83" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C84" t="n">
+        <v>6</v>
+      </c>
+      <c r="D84" t="n">
+        <v>10</v>
+      </c>
+      <c r="E84" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="F84" t="n">
+        <v>4</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>TDY</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>8</v>
+      </c>
+      <c r="J84" t="n">
+        <v>371</v>
+      </c>
+      <c r="K84" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L84" t="n">
+        <v>376.9</v>
+      </c>
+      <c r="M84" t="n">
+        <v>375.1</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="C85" t="n">
+        <v>8</v>
+      </c>
+      <c r="D85" t="n">
+        <v>10</v>
+      </c>
+      <c r="E85" t="n">
+        <v>332</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>9</v>
+      </c>
+      <c r="J85" t="n">
+        <v>332.9</v>
+      </c>
+      <c r="K85" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="L85" t="n">
+        <v>337.5</v>
+      </c>
+      <c r="M85" t="n">
+        <v>336.1</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>8</v>
+      </c>
+      <c r="D86" t="n">
+        <v>10</v>
+      </c>
+      <c r="E86" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>TRI</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>39</v>
+      </c>
+      <c r="J86" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L86" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="M86" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C87" t="n">
+        <v>7</v>
+      </c>
+      <c r="D87" t="n">
+        <v>10</v>
+      </c>
+      <c r="E87" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>TRMB</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>70</v>
+      </c>
+      <c r="J87" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L87" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="M87" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C88" t="n">
+        <v>8</v>
+      </c>
+      <c r="D88" t="n">
+        <v>10</v>
+      </c>
+      <c r="E88" t="n">
+        <v>131</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>TROW</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>23</v>
+      </c>
+      <c r="J88" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L88" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="M88" t="n">
+        <v>133</v>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C89" t="n">
+        <v>5</v>
+      </c>
+      <c r="D89" t="n">
+        <v>10</v>
+      </c>
+      <c r="E89" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F89" t="n">
+        <v>5</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>TSN</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>32</v>
+      </c>
+      <c r="J89" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L89" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="M89" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C90" t="n">
+        <v>6</v>
+      </c>
+      <c r="D90" t="n">
+        <v>10</v>
+      </c>
+      <c r="E90" t="n">
+        <v>67</v>
+      </c>
+      <c r="F90" t="n">
+        <v>4</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>VNO</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>45</v>
+      </c>
+      <c r="J90" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L90" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="M90" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>9</v>
+      </c>
+      <c r="D91" t="n">
+        <v>10</v>
+      </c>
+      <c r="E91" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>WCN</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>32</v>
+      </c>
+      <c r="J91" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L91" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="M91" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>8</v>
+      </c>
+      <c r="D92" t="n">
+        <v>10</v>
+      </c>
+      <c r="E92" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>43</v>
+      </c>
+      <c r="J92" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L92" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="M92" t="n">
+        <v>71</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C93" t="n">
+        <v>5</v>
+      </c>
+      <c r="D93" t="n">
+        <v>10</v>
+      </c>
+      <c r="E93" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="F93" t="n">
+        <v>4</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>WMS</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>74</v>
+      </c>
+      <c r="J93" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L93" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="M93" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C94" t="n">
+        <v>7</v>
+      </c>
+      <c r="D94" t="n">
+        <v>10</v>
+      </c>
+      <c r="E94" t="n">
+        <v>155.9</v>
+      </c>
+      <c r="F94" t="n">
+        <v>3</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>WST</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>19</v>
+      </c>
+      <c r="J94" t="n">
+        <v>156.4</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L94" t="n">
+        <v>159</v>
+      </c>
+      <c r="M94" t="n">
+        <v>158.2</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C95" t="n">
+        <v>9</v>
+      </c>
+      <c r="D95" t="n">
+        <v>10</v>
+      </c>
+      <c r="E95" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>XRAY</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>52</v>
+      </c>
+      <c r="J95" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L95" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="M95" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C96" t="n">
+        <v>5</v>
+      </c>
+      <c r="D96" t="n">
+        <v>10</v>
+      </c>
+      <c r="E96" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="F96" t="n">
+        <v>5</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>XYL</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>37</v>
+      </c>
+      <c r="J96" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L96" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="M96" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C97" t="n">
+        <v>6</v>
+      </c>
+      <c r="D97" t="n">
+        <v>10</v>
+      </c>
+      <c r="E97" t="n">
+        <v>168.1</v>
+      </c>
+      <c r="F97" t="n">
+        <v>4</v>
+      </c>
+      <c r="G97" t="inlineStr">
         <is>
           <t>SELL</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>WWE</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>49</v>
-      </c>
-      <c r="J35" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>ABMD</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>18</v>
+      </c>
+      <c r="J97" t="n">
+        <v>165.6</v>
+      </c>
+      <c r="K97" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L97" t="n">
+        <v>153</v>
+      </c>
+      <c r="M97" t="n">
+        <v>156.8</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>10</v>
+      </c>
+      <c r="E98" t="n">
+        <v>5</v>
+      </c>
+      <c r="F98" t="n">
+        <v>10</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>APRN</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>595</v>
+      </c>
+      <c r="J98" t="n">
+        <v>5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L98" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C99" t="n">
+        <v>6</v>
+      </c>
+      <c r="D99" t="n">
+        <v>10</v>
+      </c>
+      <c r="E99" t="n">
+        <v>18</v>
+      </c>
+      <c r="F99" t="n">
+        <v>4</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>AVRO</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>167</v>
+      </c>
+      <c r="J99" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L99" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="M99" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C100" t="n">
+        <v>3</v>
+      </c>
+      <c r="D100" t="n">
+        <v>10</v>
+      </c>
+      <c r="E100" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="F100" t="n">
+        <v>7</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>CRC</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>358</v>
+      </c>
+      <c r="J100" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L100" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M100" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C101" t="n">
+        <v>3</v>
+      </c>
+      <c r="D101" t="n">
+        <v>10</v>
+      </c>
+      <c r="E101" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F101" t="n">
+        <v>7</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>CTB</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>109</v>
+      </c>
+      <c r="J101" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L101" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="M101" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2</v>
+      </c>
+      <c r="D102" t="n">
+        <v>10</v>
+      </c>
+      <c r="E102" t="n">
+        <v>81</v>
+      </c>
+      <c r="F102" t="n">
+        <v>8</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>CVGW</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>37</v>
+      </c>
+      <c r="J102" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L102" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="M102" t="n">
+        <v>79</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
         <v>1.5</v>
       </c>
-      <c r="L35" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="M35" t="n">
-        <v>58.5</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="C103" t="n">
+        <v>4</v>
+      </c>
+      <c r="D103" t="n">
+        <v>10</v>
+      </c>
+      <c r="E103" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="F103" t="n">
+        <v>6</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>ENTA</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>52</v>
+      </c>
+      <c r="J103" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L103" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="M103" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C104" t="n">
+        <v>3</v>
+      </c>
+      <c r="D104" t="n">
+        <v>10</v>
+      </c>
+      <c r="E104" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F104" t="n">
+        <v>7</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>EOLS</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>281</v>
+      </c>
+      <c r="J104" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L104" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="M104" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C105" t="n">
+        <v>3</v>
+      </c>
+      <c r="D105" t="n">
+        <v>10</v>
+      </c>
+      <c r="E105" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="F105" t="n">
+        <v>7</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>EQT</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>358</v>
+      </c>
+      <c r="J105" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L105" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="M105" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>10</v>
+      </c>
+      <c r="E106" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F106" t="n">
+        <v>9</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>FIXX</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>173</v>
+      </c>
+      <c r="J106" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L106" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="M106" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>4</v>
+      </c>
+      <c r="D107" t="n">
+        <v>10</v>
+      </c>
+      <c r="E107" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F107" t="n">
+        <v>6</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>GVA</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>115</v>
+      </c>
+      <c r="J107" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L107" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="M107" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C108" t="n">
+        <v>3</v>
+      </c>
+      <c r="D108" t="n">
+        <v>10</v>
+      </c>
+      <c r="E108" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F108" t="n">
+        <v>7</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>KURA</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>229</v>
+      </c>
+      <c r="J108" t="n">
+        <v>13</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L108" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="M108" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C109" t="n">
+        <v>4</v>
+      </c>
+      <c r="D109" t="n">
+        <v>10</v>
+      </c>
+      <c r="E109" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="F109" t="n">
+        <v>5</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>MOV</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>155</v>
+      </c>
+      <c r="J109" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L109" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="M109" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2</v>
+      </c>
+      <c r="D110" t="n">
+        <v>10</v>
+      </c>
+      <c r="E110" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="F110" t="n">
+        <v>8</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>SIX</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>84</v>
+      </c>
+      <c r="J110" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L110" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="M110" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C111" t="n">
+        <v>5</v>
+      </c>
+      <c r="D111" t="n">
+        <v>10</v>
+      </c>
+      <c r="E111" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F111" t="n">
+        <v>4</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>TAST</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>509</v>
+      </c>
+      <c r="J111" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L111" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="M111" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C112" t="n">
+        <v>5</v>
+      </c>
+      <c r="D112" t="n">
+        <v>10</v>
+      </c>
+      <c r="E112" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="F112" t="n">
+        <v>5</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>TWNK</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>213</v>
+      </c>
+      <c r="J112" t="n">
+        <v>14</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L112" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="M112" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C113" t="n">
+        <v>3</v>
+      </c>
+      <c r="D113" t="n">
+        <v>10</v>
+      </c>
+      <c r="E113" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F113" t="n">
+        <v>7</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>VCEL</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>185</v>
+      </c>
+      <c r="J113" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L113" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="M113" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C114" t="n">
+        <v>5</v>
+      </c>
+      <c r="D114" t="n">
+        <v>10</v>
+      </c>
+      <c r="E114" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F114" t="n">
+        <v>5</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>WNC</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>218</v>
+      </c>
+      <c r="J114" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L114" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="M114" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>STP LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>10</v>
+      </c>
+      <c r="E115" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F115" t="n">
+        <v>10</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>XERS</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>541</v>
+      </c>
+      <c r="J115" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L115" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="M115" t="n">
+        <v>5</v>
+      </c>
+      <c r="N115" t="inlineStr">
         <is>
           <t>STP LMT</t>
         </is>

--- a/app/data/Orders.xlsx
+++ b/app/data/Orders.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N115"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,20 +438,20 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="F2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E2" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>BUY</t>
@@ -463,23 +463,23 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J2" t="n">
-        <v>47.3</v>
+        <v>50.6</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="L2" t="n">
-        <v>48.3</v>
+        <v>51.1</v>
       </c>
       <c r="M2" t="n">
-        <v>48</v>
+        <v>51.4</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -488,19 +488,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>114.5</v>
+        <v>16.2</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -509,27 +509,27 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ALL</t>
+          <t>ADX</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>26</v>
+        <v>186</v>
       </c>
       <c r="J3" t="n">
-        <v>114.7</v>
+        <v>16.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="L3" t="n">
-        <v>115.9</v>
+        <v>16.2</v>
       </c>
       <c r="M3" t="n">
-        <v>115.5</v>
+        <v>16.2</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -538,19 +538,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>113.9</v>
+        <v>79.8</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -559,27 +559,27 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ALXN</t>
+          <t>AEE</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J4" t="n">
-        <v>114.6</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="L4" t="n">
-        <v>118.2</v>
+        <v>80.3</v>
       </c>
       <c r="M4" t="n">
-        <v>117.1</v>
+        <v>80.5</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -588,19 +588,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>26.6</v>
+        <v>111.3</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -609,27 +609,27 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="J5" t="n">
-        <v>26.7</v>
+        <v>111.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="L5" t="n">
-        <v>27.1</v>
+        <v>112.1</v>
       </c>
       <c r="M5" t="n">
-        <v>27</v>
+        <v>112.3</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -638,19 +638,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>34.3</v>
+        <v>117.6</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -659,27 +659,27 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>APAM</t>
+          <t>ALL</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="J6" t="n">
-        <v>34.4</v>
+        <v>117.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="L6" t="n">
-        <v>35</v>
+        <v>118.6</v>
       </c>
       <c r="M6" t="n">
-        <v>34.8</v>
+        <v>118.9</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="C7" t="n">
         <v>7</v>
@@ -697,7 +697,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>64</v>
+        <v>270.3</v>
       </c>
       <c r="F7" t="n">
         <v>3</v>
@@ -709,27 +709,27 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>ANSS</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>64.2</v>
+        <v>271</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>65.2</v>
+        <v>272.7</v>
       </c>
       <c r="M7" t="n">
-        <v>64.90000000000001</v>
+        <v>273.4</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="C8" t="n">
         <v>7</v>
@@ -747,7 +747,7 @@
         <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>276.2</v>
+        <v>237</v>
       </c>
       <c r="F8" t="n">
         <v>3</v>
@@ -759,27 +759,27 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>BDX</t>
+          <t>APD</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
-        <v>276.9</v>
+        <v>237.6</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="L8" t="n">
-        <v>280.3</v>
+        <v>239.2</v>
       </c>
       <c r="M8" t="n">
-        <v>279.3</v>
+        <v>239.8</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="C9" t="n">
         <v>6</v>
@@ -797,10 +797,10 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>26.8</v>
+        <v>50.4</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -809,27 +809,27 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>APO</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="J9" t="n">
-        <v>26.9</v>
+        <v>50.6</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="L9" t="n">
-        <v>27.4</v>
+        <v>51.2</v>
       </c>
       <c r="M9" t="n">
-        <v>27.3</v>
+        <v>51.4</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="C10" t="n">
         <v>6</v>
@@ -847,7 +847,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>16.7</v>
+        <v>61.2</v>
       </c>
       <c r="F10" t="n">
         <v>4</v>
@@ -859,27 +859,27 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>BPMP</t>
+          <t>ATVI</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>180</v>
+        <v>49</v>
       </c>
       <c r="J10" t="n">
-        <v>16.7</v>
+        <v>61.5</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="L10" t="n">
-        <v>17.1</v>
+        <v>62</v>
       </c>
       <c r="M10" t="n">
-        <v>17</v>
+        <v>62.2</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -888,19 +888,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>53</v>
+        <v>134.7</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -909,27 +909,27 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>BRKR</t>
+          <t>AVY</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="J11" t="n">
-        <v>53.2</v>
+        <v>135.1</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="L11" t="n">
-        <v>54.2</v>
+        <v>136</v>
       </c>
       <c r="M11" t="n">
-        <v>53.9</v>
+        <v>136.4</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -941,16 +941,16 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>58.4</v>
+        <v>48.8</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -959,27 +959,27 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>BX</t>
+          <t>BERY</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="J12" t="n">
-        <v>58.6</v>
+        <v>48.9</v>
       </c>
       <c r="K12" t="n">
         <v>0.6</v>
       </c>
       <c r="L12" t="n">
-        <v>59.7</v>
+        <v>49.4</v>
       </c>
       <c r="M12" t="n">
-        <v>59.4</v>
+        <v>49.6</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -988,19 +988,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>143.3</v>
+        <v>36.8</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1009,27 +1009,27 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>BHE</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="J13" t="n">
-        <v>143.7</v>
+        <v>37</v>
       </c>
       <c r="K13" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="L13" t="n">
-        <v>145.5</v>
+        <v>37.2</v>
       </c>
       <c r="M13" t="n">
-        <v>145</v>
+        <v>37.4</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -1038,19 +1038,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
         <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>71.09999999999999</v>
+        <v>145.2</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1059,27 +1059,27 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>CCOI</t>
+          <t>CCI</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="J14" t="n">
-        <v>71.40000000000001</v>
+        <v>145.6</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="L14" t="n">
-        <v>72.8</v>
+        <v>146.6</v>
       </c>
       <c r="M14" t="n">
-        <v>72.40000000000001</v>
+        <v>147</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -1088,19 +1088,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
         <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>73.40000000000001</v>
+        <v>51.9</v>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1109,27 +1109,27 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>CCL</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="J15" t="n">
-        <v>73.59999999999999</v>
+        <v>52.1</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="L15" t="n">
-        <v>74.90000000000001</v>
+        <v>52.5</v>
       </c>
       <c r="M15" t="n">
-        <v>74.5</v>
+        <v>52.6</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -1138,19 +1138,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>37</v>
+        <v>154.7</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1159,27 +1159,27 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>CMTL</t>
+          <t>CCMP</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="J16" t="n">
-        <v>37.1</v>
+        <v>155.3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="L16" t="n">
-        <v>37.8</v>
+        <v>156.8</v>
       </c>
       <c r="M16" t="n">
-        <v>37.6</v>
+        <v>157.4</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -1188,19 +1188,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>96.3</v>
+        <v>40.9</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1209,27 +1209,27 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>CPRT</t>
+          <t>CFG</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="J17" t="n">
-        <v>96.5</v>
+        <v>41.1</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="L17" t="n">
-        <v>98</v>
+        <v>41.5</v>
       </c>
       <c r="M17" t="n">
-        <v>97.59999999999999</v>
+        <v>41.7</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -1238,19 +1238,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>62.2</v>
+        <v>58.6</v>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1259,27 +1259,27 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>CSOD</t>
+          <t>CGNX</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J18" t="n">
-        <v>62.4</v>
+        <v>58.9</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="L18" t="n">
-        <v>63.7</v>
+        <v>59.5</v>
       </c>
       <c r="M18" t="n">
-        <v>63.3</v>
+        <v>59.8</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -1288,19 +1288,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
         <v>5</v>
       </c>
-      <c r="C19" t="n">
-        <v>8</v>
-      </c>
       <c r="D19" t="n">
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>282.8</v>
+        <v>22.7</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1309,27 +1309,27 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>CLW</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="J19" t="n">
-        <v>283.9</v>
+        <v>22.9</v>
       </c>
       <c r="K19" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="L19" t="n">
-        <v>288.9</v>
+        <v>23.4</v>
       </c>
       <c r="M19" t="n">
-        <v>287.4</v>
+        <v>23.6</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -1338,19 +1338,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>115.1</v>
+        <v>164</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1359,27 +1359,27 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>CTXS</t>
+          <t>CSL</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J20" t="n">
-        <v>115.5</v>
+        <v>164.4</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="L20" t="n">
-        <v>117.1</v>
+        <v>165.6</v>
       </c>
       <c r="M20" t="n">
-        <v>116.6</v>
+        <v>166</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -1388,19 +1388,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>19.1</v>
+        <v>41.7</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1409,27 +1409,27 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>CUZ</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>157</v>
+        <v>72</v>
       </c>
       <c r="J21" t="n">
-        <v>19.2</v>
+        <v>41.8</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L21" t="n">
-        <v>19.5</v>
+        <v>42.1</v>
       </c>
       <c r="M21" t="n">
-        <v>19.4</v>
+        <v>42.2</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -1438,19 +1438,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22" t="n">
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>76.7</v>
+        <v>84</v>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1459,27 +1459,27 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>EHC</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J22" t="n">
-        <v>77.09999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="K22" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="L22" t="n">
-        <v>79.3</v>
+        <v>84.7</v>
       </c>
       <c r="M22" t="n">
-        <v>78.7</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -1488,19 +1488,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>53.4</v>
+        <v>55.7</v>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1509,27 +1509,27 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>ENTG</t>
+          <t>DHI</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J23" t="n">
-        <v>53.6</v>
+        <v>55.9</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L23" t="n">
-        <v>54.6</v>
+        <v>56.3</v>
       </c>
       <c r="M23" t="n">
-        <v>54.3</v>
+        <v>56.5</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -1538,16 +1538,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="C24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24" t="n">
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>26</v>
+        <v>77.8</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
@@ -1559,27 +1559,27 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>EPRT</t>
+          <t>DOOR</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="J24" t="n">
-        <v>26.1</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="L24" t="n">
-        <v>26.6</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="M24" t="n">
-        <v>26.4</v>
+        <v>79.2</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -1588,19 +1588,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25" t="n">
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>26.1</v>
+        <v>56.2</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1609,27 +1609,27 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>EQH</t>
+          <t>ENTG</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="J25" t="n">
-        <v>26.2</v>
+        <v>56.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="L25" t="n">
-        <v>26.7</v>
+        <v>57</v>
       </c>
       <c r="M25" t="n">
-        <v>26.6</v>
+        <v>57.3</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -1638,7 +1638,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="C26" t="n">
         <v>7</v>
@@ -1647,7 +1647,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>97.59999999999999</v>
+        <v>47.4</v>
       </c>
       <c r="F26" t="n">
         <v>3</v>
@@ -1659,27 +1659,27 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>ESE</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="J26" t="n">
-        <v>97.90000000000001</v>
+        <v>47.5</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="L26" t="n">
-        <v>99.59999999999999</v>
+        <v>47.8</v>
       </c>
       <c r="M26" t="n">
-        <v>99.09999999999999</v>
+        <v>48</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -1688,19 +1688,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="C27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
         <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>71.8</v>
+        <v>93.2</v>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1709,27 +1709,27 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>EXLS</t>
+          <t>EXP</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="J27" t="n">
-        <v>72</v>
+        <v>93.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="L27" t="n">
-        <v>73.09999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="M27" t="n">
-        <v>72.8</v>
+        <v>94.5</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C28" t="n">
         <v>8</v>
@@ -1747,7 +1747,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>68.09999999999999</v>
+        <v>49.1</v>
       </c>
       <c r="F28" t="n">
         <v>2</v>
@@ -1759,27 +1759,27 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>FBHS</t>
+          <t>FE</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="J28" t="n">
-        <v>68.3</v>
+        <v>49.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="L28" t="n">
-        <v>69.3</v>
+        <v>49.5</v>
       </c>
       <c r="M28" t="n">
-        <v>69</v>
+        <v>49.6</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -1788,19 +1788,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D29" t="n">
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>10.6</v>
+        <v>120.7</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1809,27 +1809,27 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>FPAC</t>
+          <t>FISV</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>284</v>
+        <v>25</v>
       </c>
       <c r="J29" t="n">
-        <v>10.6</v>
+        <v>121</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="L29" t="n">
-        <v>10.6</v>
+        <v>121.7</v>
       </c>
       <c r="M29" t="n">
-        <v>10.6</v>
+        <v>122.1</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -1841,16 +1841,16 @@
         <v>0.6</v>
       </c>
       <c r="C30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>42.2</v>
+        <v>27.5</v>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1859,27 +1859,27 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>FORM</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="J30" t="n">
-        <v>42.3</v>
+        <v>27.6</v>
       </c>
       <c r="K30" t="n">
         <v>0.3</v>
       </c>
       <c r="L30" t="n">
-        <v>42.9</v>
+        <v>27.9</v>
       </c>
       <c r="M30" t="n">
-        <v>42.7</v>
+        <v>28</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -1888,19 +1888,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D31" t="n">
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>72.7</v>
+        <v>34.8</v>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1909,27 +1909,27 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>GDDY</t>
+          <t>FSS</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="J31" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K31" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="L31" t="n">
-        <v>74.40000000000001</v>
+        <v>35.3</v>
       </c>
       <c r="M31" t="n">
-        <v>74</v>
+        <v>35.5</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -1941,16 +1941,16 @@
         <v>0.7</v>
       </c>
       <c r="C32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32" t="n">
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>53.2</v>
+        <v>45.6</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1959,27 +1959,27 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>GGG</t>
+          <t>GLPI</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="J32" t="n">
-        <v>53.3</v>
+        <v>45.7</v>
       </c>
       <c r="K32" t="n">
         <v>0.4</v>
       </c>
       <c r="L32" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="M32" t="n">
-        <v>53.8</v>
+        <v>46.1</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -1988,48 +1988,48 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4</v>
+        <v>18.8</v>
       </c>
       <c r="C33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" t="n">
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>30.4</v>
+        <v>1480.4</v>
       </c>
       <c r="F33" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
         <v>2</v>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>GLW</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>99</v>
-      </c>
       <c r="J33" t="n">
-        <v>30.5</v>
+        <v>1484.2</v>
       </c>
       <c r="K33" t="n">
-        <v>0.3</v>
+        <v>11.3</v>
       </c>
       <c r="L33" t="n">
-        <v>30.9</v>
+        <v>1493.6</v>
       </c>
       <c r="M33" t="n">
-        <v>30.8</v>
+        <v>1497.3</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2038,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5</v>
+        <v>18.8</v>
       </c>
       <c r="C34" t="n">
         <v>6</v>
@@ -2047,7 +2047,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>30.2</v>
+        <v>1479.5</v>
       </c>
       <c r="F34" t="n">
         <v>4</v>
@@ -2059,27 +2059,27 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>GNTX</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>30.3</v>
+        <v>1483.3</v>
       </c>
       <c r="K34" t="n">
-        <v>0.3</v>
+        <v>11.3</v>
       </c>
       <c r="L34" t="n">
-        <v>30.8</v>
+        <v>1492.7</v>
       </c>
       <c r="M34" t="n">
-        <v>30.6</v>
+        <v>1496.4</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -2088,7 +2088,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>19.7</v>
+        <v>3.2</v>
       </c>
       <c r="C35" t="n">
         <v>7</v>
@@ -2097,7 +2097,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>1439.2</v>
+        <v>198.6</v>
       </c>
       <c r="F35" t="n">
         <v>3</v>
@@ -2109,27 +2109,27 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>GPN</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J35" t="n">
-        <v>1443.2</v>
+        <v>199.3</v>
       </c>
       <c r="K35" t="n">
-        <v>11.8</v>
+        <v>1.9</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.9</v>
+        <v>200.9</v>
       </c>
       <c r="M35" t="n">
-        <v>1456.9</v>
+        <v>201.5</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19.6</v>
+        <v>1.6</v>
       </c>
       <c r="C36" t="n">
         <v>6</v>
@@ -2147,7 +2147,7 @@
         <v>10</v>
       </c>
       <c r="E36" t="n">
-        <v>1440</v>
+        <v>113.9</v>
       </c>
       <c r="F36" t="n">
         <v>4</v>
@@ -2159,27 +2159,27 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>HLT</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="J36" t="n">
-        <v>1444</v>
+        <v>114.2</v>
       </c>
       <c r="K36" t="n">
-        <v>11.8</v>
+        <v>1</v>
       </c>
       <c r="L36" t="n">
-        <v>1463.6</v>
+        <v>115</v>
       </c>
       <c r="M36" t="n">
-        <v>1457.7</v>
+        <v>115.4</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -2188,19 +2188,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="C37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>193.3</v>
+        <v>54.3</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2209,27 +2209,27 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>HOLX</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="J37" t="n">
-        <v>193.9</v>
+        <v>54.5</v>
       </c>
       <c r="K37" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="L37" t="n">
-        <v>197</v>
+        <v>54.9</v>
       </c>
       <c r="M37" t="n">
-        <v>196.1</v>
+        <v>55</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -2238,19 +2238,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="C38" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D38" t="n">
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>25</v>
+        <v>20.4</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2259,27 +2259,27 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>HESM</t>
+          <t>HOMB</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="J38" t="n">
-        <v>25.1</v>
+        <v>20.5</v>
       </c>
       <c r="K38" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="L38" t="n">
-        <v>25.8</v>
+        <v>20.7</v>
       </c>
       <c r="M38" t="n">
-        <v>25.6</v>
+        <v>20.8</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -2288,19 +2288,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39" t="n">
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>33.7</v>
+        <v>183.2</v>
       </c>
       <c r="F39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2309,27 +2309,27 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>HON</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="J39" t="n">
-        <v>33.8</v>
+        <v>183.6</v>
       </c>
       <c r="K39" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="L39" t="n">
-        <v>34.3</v>
+        <v>184.7</v>
       </c>
       <c r="M39" t="n">
-        <v>34.1</v>
+        <v>185.1</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -2338,20 +2338,20 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="C40" t="n">
+        <v>6</v>
+      </c>
+      <c r="D40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E40" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="F40" t="n">
         <v>4</v>
       </c>
-      <c r="D40" t="n">
-        <v>10</v>
-      </c>
-      <c r="E40" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="F40" t="n">
-        <v>6</v>
-      </c>
       <c r="G40" t="inlineStr">
         <is>
           <t>BUY</t>
@@ -2359,27 +2359,27 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>HUBG</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="J40" t="n">
-        <v>54</v>
+        <v>34.6</v>
       </c>
       <c r="K40" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="L40" t="n">
-        <v>55.3</v>
+        <v>34.9</v>
       </c>
       <c r="M40" t="n">
-        <v>54.9</v>
+        <v>35</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -2388,19 +2388,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41" t="n">
         <v>10</v>
       </c>
       <c r="E41" t="n">
-        <v>5.4</v>
+        <v>149.2</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2409,27 +2409,27 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>HUBB</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>552</v>
+        <v>20</v>
       </c>
       <c r="J41" t="n">
-        <v>5.5</v>
+        <v>149.6</v>
       </c>
       <c r="K41" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="L41" t="n">
-        <v>5.6</v>
+        <v>150.5</v>
       </c>
       <c r="M41" t="n">
-        <v>5.6</v>
+        <v>150.9</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -2438,19 +2438,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="C42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42" t="n">
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>10.4</v>
+        <v>78.2</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2459,27 +2459,27 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>KIN</t>
+          <t>IBKC</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>288</v>
+        <v>38</v>
       </c>
       <c r="J42" t="n">
-        <v>10.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K42" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="L42" t="n">
-        <v>11</v>
+        <v>79.5</v>
       </c>
       <c r="M42" t="n">
-        <v>10.9</v>
+        <v>79.8</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -2488,19 +2488,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="C43" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D43" t="n">
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>56.1</v>
+        <v>26</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2509,27 +2509,27 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>IIIN</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="J43" t="n">
-        <v>56.3</v>
+        <v>26.3</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="L43" t="n">
-        <v>56.9</v>
+        <v>27</v>
       </c>
       <c r="M43" t="n">
-        <v>56.7</v>
+        <v>27.3</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -2538,19 +2538,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D44" t="n">
         <v>10</v>
       </c>
       <c r="E44" t="n">
-        <v>18.5</v>
+        <v>89</v>
       </c>
       <c r="F44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2559,27 +2559,27 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>LADR</t>
+          <t>ITGR</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>162</v>
+        <v>34</v>
       </c>
       <c r="J44" t="n">
-        <v>18.6</v>
+        <v>89.3</v>
       </c>
       <c r="K44" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>18.8</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="M44" t="n">
-        <v>18.7</v>
+        <v>90.5</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -2588,16 +2588,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>90.2</v>
+        <v>40.6</v>
       </c>
       <c r="F45" t="n">
         <v>2</v>
@@ -2609,27 +2609,27 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>JBGS</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="J45" t="n">
-        <v>90.5</v>
+        <v>40.7</v>
       </c>
       <c r="K45" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="L45" t="n">
-        <v>91.5</v>
+        <v>40.9</v>
       </c>
       <c r="M45" t="n">
-        <v>91.2</v>
+        <v>41</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -2638,19 +2638,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D46" t="n">
         <v>10</v>
       </c>
       <c r="E46" t="n">
-        <v>60.6</v>
+        <v>56.9</v>
       </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2659,27 +2659,27 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>LEN</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J46" t="n">
-        <v>60.9</v>
+        <v>57.1</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="L46" t="n">
-        <v>62.5</v>
+        <v>57.3</v>
       </c>
       <c r="M46" t="n">
-        <v>62</v>
+        <v>57.5</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -2688,19 +2688,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2.1</v>
+        <v>0.2</v>
       </c>
       <c r="C47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D47" t="n">
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>138.9</v>
+        <v>18.6</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2709,27 +2709,27 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>LADR</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="J47" t="n">
-        <v>139.4</v>
+        <v>18.6</v>
       </c>
       <c r="K47" t="n">
-        <v>1.3</v>
+        <v>0.1</v>
       </c>
       <c r="L47" t="n">
-        <v>141.5</v>
+        <v>18.7</v>
       </c>
       <c r="M47" t="n">
-        <v>140.8</v>
+        <v>18.8</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -2738,19 +2738,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.9</v>
+        <v>0.7</v>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D48" t="n">
         <v>10</v>
       </c>
       <c r="E48" t="n">
-        <v>419</v>
+        <v>57.2</v>
       </c>
       <c r="F48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2759,27 +2759,27 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>LMT</t>
+          <t>LNT</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="J48" t="n">
-        <v>420.4</v>
+        <v>57.3</v>
       </c>
       <c r="K48" t="n">
-        <v>4.1</v>
+        <v>0.4</v>
       </c>
       <c r="L48" t="n">
-        <v>427.3</v>
+        <v>57.6</v>
       </c>
       <c r="M48" t="n">
-        <v>425.2</v>
+        <v>57.8</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -2788,19 +2788,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="C49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49" t="n">
         <v>10</v>
       </c>
       <c r="E49" t="n">
-        <v>55.6</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2809,27 +2809,27 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>LNT</t>
+          <t>LOGM</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="J49" t="n">
-        <v>55.7</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K49" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="L49" t="n">
-        <v>56.4</v>
+        <v>86.8</v>
       </c>
       <c r="M49" t="n">
-        <v>56.2</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -2838,19 +2838,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.3</v>
+        <v>6.8</v>
       </c>
       <c r="C50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50" t="n">
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>8</v>
+        <v>308</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2859,27 +2859,27 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>LUNA</t>
+          <t>LRCX</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>374</v>
+        <v>10</v>
       </c>
       <c r="J50" t="n">
-        <v>8.1</v>
+        <v>309.4</v>
       </c>
       <c r="K50" t="n">
-        <v>0.2</v>
+        <v>4.1</v>
       </c>
       <c r="L50" t="n">
-        <v>8.300000000000001</v>
+        <v>312.8</v>
       </c>
       <c r="M50" t="n">
-        <v>8.300000000000001</v>
+        <v>314.2</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -2888,19 +2888,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="C51" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>10.8</v>
+        <v>49.1</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2909,27 +2909,27 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>LXP</t>
+          <t>MAS</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>279</v>
+        <v>61</v>
       </c>
       <c r="J51" t="n">
-        <v>10.8</v>
+        <v>49.2</v>
       </c>
       <c r="K51" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="L51" t="n">
-        <v>11</v>
+        <v>49.5</v>
       </c>
       <c r="M51" t="n">
-        <v>10.9</v>
+        <v>49.7</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -2938,7 +2938,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
         <v>7</v>
@@ -2947,7 +2947,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F52" t="n">
         <v>3</v>
@@ -2959,27 +2959,27 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>MAIN</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="J52" t="n">
-        <v>44.1</v>
+        <v>35.2</v>
       </c>
       <c r="K52" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="L52" t="n">
-        <v>44.5</v>
+        <v>35.7</v>
       </c>
       <c r="M52" t="n">
-        <v>44.4</v>
+        <v>35.9</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -2988,19 +2988,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="C53" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D53" t="n">
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>251.5</v>
+        <v>156.3</v>
       </c>
       <c r="F53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3009,27 +3009,27 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>MCK</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J53" t="n">
-        <v>252.2</v>
+        <v>157</v>
       </c>
       <c r="K53" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L53" t="n">
-        <v>256</v>
+        <v>158.7</v>
       </c>
       <c r="M53" t="n">
-        <v>254.9</v>
+        <v>159.4</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -3038,19 +3038,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="C54" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D54" t="n">
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>45.6</v>
+        <v>257.6</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3059,27 +3059,27 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>MIC</t>
+          <t>MCO</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="J54" t="n">
-        <v>45.8</v>
+        <v>258.3</v>
       </c>
       <c r="K54" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="L54" t="n">
-        <v>46.4</v>
+        <v>260.1</v>
       </c>
       <c r="M54" t="n">
-        <v>46.2</v>
+        <v>260.9</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -3088,19 +3088,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="C55" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D55" t="n">
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>38.8</v>
+        <v>119</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3109,27 +3109,27 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>MINI</t>
+          <t>MDT</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="J55" t="n">
-        <v>38.9</v>
+        <v>119.4</v>
       </c>
       <c r="K55" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>39.5</v>
+        <v>120.2</v>
       </c>
       <c r="M55" t="n">
-        <v>39.3</v>
+        <v>120.5</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -3138,19 +3138,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D56" t="n">
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>180.9</v>
+        <v>34.5</v>
       </c>
       <c r="F56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3159,27 +3159,27 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>MGM</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="J56" t="n">
-        <v>181.4</v>
+        <v>34.6</v>
       </c>
       <c r="K56" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="L56" t="n">
-        <v>183.8</v>
+        <v>34.9</v>
       </c>
       <c r="M56" t="n">
-        <v>183.1</v>
+        <v>35</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -3188,48 +3188,48 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C57" t="n">
+        <v>6</v>
+      </c>
+      <c r="D57" t="n">
+        <v>10</v>
+      </c>
+      <c r="E57" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="F57" t="n">
+        <v>4</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>MGP</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>93</v>
+      </c>
+      <c r="J57" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K57" t="n">
         <v>0.4</v>
       </c>
-      <c r="C57" t="n">
-        <v>8</v>
-      </c>
-      <c r="D57" t="n">
-        <v>10</v>
-      </c>
-      <c r="E57" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F57" t="n">
-        <v>2</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>MPW</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>138</v>
-      </c>
-      <c r="J57" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.2</v>
-      </c>
       <c r="L57" t="n">
-        <v>22.1</v>
+        <v>32.8</v>
       </c>
       <c r="M57" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -3238,19 +3238,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5.3</v>
+        <v>0.4</v>
       </c>
       <c r="C58" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D58" t="n">
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>254.8</v>
+        <v>22.3</v>
       </c>
       <c r="F58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3259,27 +3259,27 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>MTN</t>
+          <t>MPW</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="J58" t="n">
-        <v>255.8</v>
+        <v>22.4</v>
       </c>
       <c r="K58" t="n">
-        <v>3.2</v>
+        <v>0.2</v>
       </c>
       <c r="L58" t="n">
-        <v>261.1</v>
+        <v>22.5</v>
       </c>
       <c r="M58" t="n">
-        <v>259.5</v>
+        <v>22.6</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -3288,19 +3288,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="C59" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D59" t="n">
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>54.2</v>
+        <v>12.1</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3309,27 +3309,27 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>NEP</t>
+          <t>MWA</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>55</v>
+        <v>247</v>
       </c>
       <c r="J59" t="n">
-        <v>54.3</v>
+        <v>12.2</v>
       </c>
       <c r="K59" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L59" t="n">
-        <v>55.2</v>
+        <v>12.3</v>
       </c>
       <c r="M59" t="n">
-        <v>55</v>
+        <v>12.3</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -3338,19 +3338,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>96.3</v>
+        <v>109.3</v>
       </c>
       <c r="F60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3359,27 +3359,27 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>NOVT</t>
+          <t>NDAQ</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J60" t="n">
-        <v>96.8</v>
+        <v>109.6</v>
       </c>
       <c r="K60" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="L60" t="n">
-        <v>99.09999999999999</v>
+        <v>110.2</v>
       </c>
       <c r="M60" t="n">
-        <v>98.40000000000001</v>
+        <v>110.4</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -3388,19 +3388,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5.8</v>
+        <v>2.1</v>
       </c>
       <c r="C61" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
         <v>10</v>
       </c>
       <c r="E61" t="n">
-        <v>252</v>
+        <v>169.5</v>
       </c>
       <c r="F61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3409,27 +3409,27 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>NDSN</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J61" t="n">
-        <v>253.1</v>
+        <v>169.9</v>
       </c>
       <c r="K61" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="L61" t="n">
-        <v>259</v>
+        <v>171</v>
       </c>
       <c r="M61" t="n">
-        <v>257.2</v>
+        <v>171.4</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -3438,19 +3438,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="C62" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D62" t="n">
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>200.6</v>
+        <v>104.5</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3459,27 +3459,27 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>ODFL</t>
+          <t>NKE</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="J62" t="n">
-        <v>201.3</v>
+        <v>104.8</v>
       </c>
       <c r="K62" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="L62" t="n">
-        <v>204.7</v>
+        <v>105.4</v>
       </c>
       <c r="M62" t="n">
-        <v>203.7</v>
+        <v>105.6</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="C63" t="n">
         <v>6</v>
@@ -3497,10 +3497,10 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>6.1</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3509,27 +3509,27 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>ORC</t>
+          <t>NOVT</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>492</v>
+        <v>31</v>
       </c>
       <c r="J63" t="n">
-        <v>6.1</v>
+        <v>98</v>
       </c>
       <c r="K63" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="L63" t="n">
-        <v>6.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="M63" t="n">
-        <v>6.2</v>
+        <v>99.5</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -3538,19 +3538,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D64" t="n">
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>5</v>
+        <v>16.7</v>
       </c>
       <c r="F64" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3559,27 +3559,27 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>ORGO</t>
+          <t>NRZ</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>600</v>
+        <v>180</v>
       </c>
       <c r="J64" t="n">
-        <v>5.1</v>
+        <v>16.7</v>
       </c>
       <c r="K64" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L64" t="n">
-        <v>5.3</v>
+        <v>16.8</v>
       </c>
       <c r="M64" t="n">
-        <v>5.3</v>
+        <v>16.8</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -3588,16 +3588,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.3</v>
+        <v>3.6</v>
       </c>
       <c r="C65" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D65" t="n">
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>5.6</v>
+        <v>209.3</v>
       </c>
       <c r="F65" t="n">
         <v>2</v>
@@ -3609,27 +3609,27 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>ORN</t>
+          <t>NSC</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>535</v>
+        <v>14</v>
       </c>
       <c r="J65" t="n">
-        <v>5.7</v>
+        <v>210</v>
       </c>
       <c r="K65" t="n">
-        <v>0.2</v>
+        <v>2.2</v>
       </c>
       <c r="L65" t="n">
-        <v>6</v>
+        <v>211.8</v>
       </c>
       <c r="M65" t="n">
-        <v>5.9</v>
+        <v>212.6</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -3638,19 +3638,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D66" t="n">
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>5.9</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3659,27 +3659,27 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>OXSQ</t>
+          <t>O</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>510</v>
+        <v>39</v>
       </c>
       <c r="J66" t="n">
-        <v>5.9</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="K66" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="L66" t="n">
-        <v>6</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="M66" t="n">
-        <v>6</v>
+        <v>77.3</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -3688,19 +3688,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>7.2</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>295.4</v>
+        <v>77.2</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3709,27 +3709,27 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>PAYC</t>
+          <t>OKE</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="J67" t="n">
-        <v>296.9</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K67" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="L67" t="n">
-        <v>304</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="M67" t="n">
-        <v>301.9</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -3738,7 +3738,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="C68" t="n">
         <v>7</v>
@@ -3747,10 +3747,10 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>82.7</v>
+        <v>6.2</v>
       </c>
       <c r="F68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3759,27 +3759,27 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>PEGA</t>
+          <t>ORC</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>36</v>
+        <v>482</v>
       </c>
       <c r="J68" t="n">
-        <v>83</v>
+        <v>6.2</v>
       </c>
       <c r="K68" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>84.59999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="M68" t="n">
-        <v>84.09999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -3788,16 +3788,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D69" t="n">
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>14</v>
+        <v>88.2</v>
       </c>
       <c r="F69" t="n">
         <v>4</v>
@@ -3809,27 +3809,27 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>PGRE</t>
+          <t>PAYX</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>214</v>
+        <v>34</v>
       </c>
       <c r="J69" t="n">
-        <v>14</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="K69" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L69" t="n">
-        <v>14.2</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="M69" t="n">
-        <v>14.2</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -3838,19 +3838,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="C70" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D70" t="n">
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>91.8</v>
+        <v>141.6</v>
       </c>
       <c r="F70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3859,27 +3859,27 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>PLD</t>
+          <t>PCTY</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J70" t="n">
-        <v>92.09999999999999</v>
+        <v>142.3</v>
       </c>
       <c r="K70" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="L70" t="n">
-        <v>93.40000000000001</v>
+        <v>143.9</v>
       </c>
       <c r="M70" t="n">
-        <v>93</v>
+        <v>144.6</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -3888,20 +3888,20 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C71" t="n">
+        <v>8</v>
+      </c>
+      <c r="D71" t="n">
+        <v>10</v>
+      </c>
+      <c r="E71" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="F71" t="n">
         <v>2</v>
       </c>
-      <c r="C71" t="n">
-        <v>9</v>
-      </c>
-      <c r="D71" t="n">
-        <v>10</v>
-      </c>
-      <c r="E71" t="n">
-        <v>105.6</v>
-      </c>
-      <c r="F71" t="n">
-        <v>1</v>
-      </c>
       <c r="G71" t="inlineStr">
         <is>
           <t>BUY</t>
@@ -3909,27 +3909,27 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>POWI</t>
+          <t>PDM</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="J71" t="n">
-        <v>106</v>
+        <v>23.3</v>
       </c>
       <c r="K71" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="L71" t="n">
-        <v>108</v>
+        <v>23.5</v>
       </c>
       <c r="M71" t="n">
-        <v>107.4</v>
+        <v>23.6</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="C72" t="n">
         <v>7</v>
@@ -3947,7 +3947,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>44.2</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="F72" t="n">
         <v>3</v>
@@ -3959,27 +3959,27 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>PRGS</t>
+          <t>PEGA</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="J72" t="n">
-        <v>44.4</v>
+        <v>86.7</v>
       </c>
       <c r="K72" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="L72" t="n">
-        <v>45.1</v>
+        <v>87.5</v>
       </c>
       <c r="M72" t="n">
-        <v>44.8</v>
+        <v>87.8</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -3988,19 +3988,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D73" t="n">
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>115.3</v>
+        <v>141.3</v>
       </c>
       <c r="F73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -4009,27 +4009,27 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J73" t="n">
-        <v>115.7</v>
+        <v>141.6</v>
       </c>
       <c r="K73" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="L73" t="n">
-        <v>117.9</v>
+        <v>142.4</v>
       </c>
       <c r="M73" t="n">
-        <v>117.3</v>
+        <v>142.7</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -4038,19 +4038,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D74" t="n">
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>91</v>
+        <v>57.1</v>
       </c>
       <c r="F74" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -4059,27 +4059,27 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>PFG</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="J74" t="n">
-        <v>91.40000000000001</v>
+        <v>57.3</v>
       </c>
       <c r="K74" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="L74" t="n">
-        <v>93.40000000000001</v>
+        <v>57.7</v>
       </c>
       <c r="M74" t="n">
-        <v>92.8</v>
+        <v>57.9</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -4088,19 +4088,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="C75" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D75" t="n">
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>49.5</v>
+        <v>126.4</v>
       </c>
       <c r="F75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -4109,27 +4109,27 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>RGR</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="J75" t="n">
-        <v>49.7</v>
+        <v>126.6</v>
       </c>
       <c r="K75" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="L75" t="n">
-        <v>50.6</v>
+        <v>127.2</v>
       </c>
       <c r="M75" t="n">
-        <v>50.4</v>
+        <v>127.5</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -4138,19 +4138,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="C76" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>93.8</v>
+        <v>27.8</v>
       </c>
       <c r="F76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4159,27 +4159,27 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>PHR</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="J76" t="n">
-        <v>94.09999999999999</v>
+        <v>28</v>
       </c>
       <c r="K76" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="L76" t="n">
-        <v>95.40000000000001</v>
+        <v>28.5</v>
       </c>
       <c r="M76" t="n">
-        <v>95</v>
+        <v>28.7</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -4188,7 +4188,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="C77" t="n">
         <v>6</v>
@@ -4197,7 +4197,7 @@
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>14.5</v>
+        <v>94.3</v>
       </c>
       <c r="F77" t="n">
         <v>4</v>
@@ -4209,27 +4209,27 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>RMBS</t>
+          <t>PLD</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="J77" t="n">
-        <v>14.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="K77" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="L77" t="n">
-        <v>15</v>
+        <v>95.3</v>
       </c>
       <c r="M77" t="n">
-        <v>14.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -4238,7 +4238,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="C78" t="n">
         <v>7</v>
@@ -4247,7 +4247,7 @@
         <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>64.2</v>
+        <v>49.1</v>
       </c>
       <c r="F78" t="n">
         <v>3</v>
@@ -4259,27 +4259,27 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>PRGS</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="J78" t="n">
-        <v>64.40000000000001</v>
+        <v>49.5</v>
       </c>
       <c r="K78" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="L78" t="n">
-        <v>65.7</v>
+        <v>50.4</v>
       </c>
       <c r="M78" t="n">
-        <v>65.3</v>
+        <v>50.8</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -4288,19 +4288,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="C79" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>34.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4309,27 +4309,27 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>SKY</t>
+          <t>QCOM</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="J79" t="n">
-        <v>35</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="K79" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="L79" t="n">
-        <v>36.1</v>
+        <v>97.7</v>
       </c>
       <c r="M79" t="n">
-        <v>35.8</v>
+        <v>98.2</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -4338,19 +4338,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="C80" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4359,27 +4359,27 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>SNDR</t>
+          <t>RCL</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="J80" t="n">
-        <v>23.1</v>
+        <v>135.4</v>
       </c>
       <c r="K80" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="L80" t="n">
-        <v>23.5</v>
+        <v>136.3</v>
       </c>
       <c r="M80" t="n">
-        <v>23.4</v>
+        <v>136.7</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -4388,19 +4388,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="C81" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D81" t="n">
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>64.5</v>
+        <v>96.3</v>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4409,27 +4409,27 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>RJF</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J81" t="n">
-        <v>64.7</v>
+        <v>96.5</v>
       </c>
       <c r="K81" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="L81" t="n">
-        <v>65.40000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="M81" t="n">
-        <v>65.2</v>
+        <v>97.5</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -4438,19 +4438,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="C82" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D82" t="n">
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>83</v>
+        <v>28.1</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4459,27 +4459,27 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>SAR</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="J82" t="n">
-        <v>83.3</v>
+        <v>28.3</v>
       </c>
       <c r="K82" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="L82" t="n">
-        <v>84.40000000000001</v>
+        <v>28.5</v>
       </c>
       <c r="M82" t="n">
-        <v>84.09999999999999</v>
+        <v>28.6</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -4488,19 +4488,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="C83" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D83" t="n">
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="F83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4509,27 +4509,27 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>STAG</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="J83" t="n">
-        <v>32.1</v>
+        <v>65.2</v>
       </c>
       <c r="K83" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="L83" t="n">
-        <v>32.6</v>
+        <v>65.8</v>
       </c>
       <c r="M83" t="n">
-        <v>32.4</v>
+        <v>66</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -4538,19 +4538,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5.8</v>
+        <v>1.1</v>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>369.9</v>
+        <v>55</v>
       </c>
       <c r="F84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4559,27 +4559,27 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>TDY</t>
+          <t>SMTC</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="J84" t="n">
-        <v>371</v>
+        <v>55.2</v>
       </c>
       <c r="K84" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="L84" t="n">
-        <v>376.9</v>
+        <v>55.8</v>
       </c>
       <c r="M84" t="n">
-        <v>375.1</v>
+        <v>56</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -4588,19 +4588,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="C85" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>332</v>
+        <v>40</v>
       </c>
       <c r="F85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4609,27 +4609,27 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>SNV</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="J85" t="n">
-        <v>332.9</v>
+        <v>40.1</v>
       </c>
       <c r="K85" t="n">
-        <v>2.7</v>
+        <v>0.3</v>
       </c>
       <c r="L85" t="n">
-        <v>337.5</v>
+        <v>40.4</v>
       </c>
       <c r="M85" t="n">
-        <v>336.1</v>
+        <v>40.5</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -4638,20 +4638,20 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C86" t="n">
+        <v>9</v>
+      </c>
+      <c r="D86" t="n">
+        <v>10</v>
+      </c>
+      <c r="E86" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="F86" t="n">
         <v>1</v>
       </c>
-      <c r="C86" t="n">
-        <v>8</v>
-      </c>
-      <c r="D86" t="n">
-        <v>10</v>
-      </c>
-      <c r="E86" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="F86" t="n">
-        <v>2</v>
-      </c>
       <c r="G86" t="inlineStr">
         <is>
           <t>BUY</t>
@@ -4659,27 +4659,27 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>SO</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J86" t="n">
-        <v>76.40000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="K86" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L86" t="n">
-        <v>77.40000000000001</v>
+        <v>67.8</v>
       </c>
       <c r="M86" t="n">
-        <v>77.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -4688,19 +4688,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D87" t="n">
         <v>10</v>
       </c>
       <c r="E87" t="n">
-        <v>42.8</v>
+        <v>157.2</v>
       </c>
       <c r="F87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4709,27 +4709,27 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>SRE</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="J87" t="n">
-        <v>42.9</v>
+        <v>157.6</v>
       </c>
       <c r="K87" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="L87" t="n">
-        <v>43.6</v>
+        <v>158.6</v>
       </c>
       <c r="M87" t="n">
-        <v>43.4</v>
+        <v>159</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -4738,7 +4738,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="C88" t="n">
         <v>8</v>
@@ -4747,7 +4747,7 @@
         <v>10</v>
       </c>
       <c r="E88" t="n">
-        <v>131</v>
+        <v>32.5</v>
       </c>
       <c r="F88" t="n">
         <v>2</v>
@@ -4759,27 +4759,27 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>TROW</t>
+          <t>STAG</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="J88" t="n">
-        <v>131.5</v>
+        <v>32.6</v>
       </c>
       <c r="K88" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="L88" t="n">
-        <v>133.6</v>
+        <v>32.8</v>
       </c>
       <c r="M88" t="n">
-        <v>133</v>
+        <v>32.9</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -4788,19 +4788,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D89" t="n">
         <v>10</v>
       </c>
       <c r="E89" t="n">
-        <v>93.5</v>
+        <v>139.3</v>
       </c>
       <c r="F89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4809,27 +4809,27 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>TSN</t>
+          <t>THG</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J89" t="n">
-        <v>93.8</v>
+        <v>139.6</v>
       </c>
       <c r="K89" t="n">
         <v>1.1</v>
       </c>
       <c r="L89" t="n">
-        <v>95.7</v>
+        <v>140.6</v>
       </c>
       <c r="M89" t="n">
-        <v>95.2</v>
+        <v>140.9</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -4838,19 +4838,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D90" t="n">
         <v>10</v>
       </c>
       <c r="E90" t="n">
-        <v>67</v>
+        <v>17.4</v>
       </c>
       <c r="F90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4859,27 +4859,27 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>VNO</t>
+          <t>TILE</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="J90" t="n">
-        <v>67.2</v>
+        <v>17.5</v>
       </c>
       <c r="K90" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="L90" t="n">
-        <v>68.09999999999999</v>
+        <v>17.7</v>
       </c>
       <c r="M90" t="n">
-        <v>67.8</v>
+        <v>17.8</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -4888,48 +4888,48 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="C91" t="n">
+        <v>8</v>
+      </c>
+      <c r="D91" t="n">
+        <v>10</v>
+      </c>
+      <c r="E91" t="n">
+        <v>339.2</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
         <v>9</v>
       </c>
-      <c r="D91" t="n">
-        <v>10</v>
-      </c>
-      <c r="E91" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1</v>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>WCN</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
-        <v>32</v>
-      </c>
       <c r="J91" t="n">
-        <v>95.3</v>
+        <v>340.1</v>
       </c>
       <c r="K91" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="L91" t="n">
-        <v>96.40000000000001</v>
+        <v>342.3</v>
       </c>
       <c r="M91" t="n">
-        <v>96.09999999999999</v>
+        <v>343.2</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -4938,19 +4938,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="n">
         <v>10</v>
       </c>
       <c r="E92" t="n">
-        <v>69.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="F92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4959,27 +4959,27 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>WDC</t>
+          <t>TRI</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J92" t="n">
-        <v>69.59999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="K92" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="L92" t="n">
-        <v>71.7</v>
+        <v>79.7</v>
       </c>
       <c r="M92" t="n">
-        <v>71</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -4991,16 +4991,16 @@
         <v>0.8</v>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D93" t="n">
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>40.6</v>
+        <v>44.1</v>
       </c>
       <c r="F93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -5009,27 +5009,27 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>WMS</t>
+          <t>TRMB</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J93" t="n">
-        <v>40.8</v>
+        <v>44.3</v>
       </c>
       <c r="K93" t="n">
         <v>0.5</v>
       </c>
       <c r="L93" t="n">
-        <v>41.6</v>
+        <v>44.7</v>
       </c>
       <c r="M93" t="n">
-        <v>41.4</v>
+        <v>44.8</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -5038,7 +5038,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="C94" t="n">
         <v>7</v>
@@ -5047,7 +5047,7 @@
         <v>10</v>
       </c>
       <c r="E94" t="n">
-        <v>155.9</v>
+        <v>132.3</v>
       </c>
       <c r="F94" t="n">
         <v>3</v>
@@ -5059,27 +5059,27 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>TROW</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J94" t="n">
-        <v>156.4</v>
+        <v>132.6</v>
       </c>
       <c r="K94" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="L94" t="n">
-        <v>159</v>
+        <v>133.5</v>
       </c>
       <c r="M94" t="n">
-        <v>158.2</v>
+        <v>133.9</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -5088,19 +5088,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="C95" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D95" t="n">
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>58.1</v>
+        <v>92.8</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -5109,27 +5109,27 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>XRAY</t>
+          <t>TRU</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="J95" t="n">
-        <v>58.3</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="K95" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="L95" t="n">
-        <v>59.1</v>
+        <v>93.7</v>
       </c>
       <c r="M95" t="n">
-        <v>58.8</v>
+        <v>94</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -5138,19 +5138,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D96" t="n">
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>81.3</v>
+        <v>47.4</v>
       </c>
       <c r="F96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -5159,27 +5159,27 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>XYL</t>
+          <t>UDR</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="J96" t="n">
-        <v>81.5</v>
+        <v>47.6</v>
       </c>
       <c r="K96" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="L96" t="n">
-        <v>82.7</v>
+        <v>47.8</v>
       </c>
       <c r="M96" t="n">
-        <v>82.3</v>
+        <v>48</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -5188,48 +5188,48 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12.6</v>
+        <v>2.6</v>
       </c>
       <c r="C97" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>168.1</v>
+        <v>185.3</v>
       </c>
       <c r="F97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>ABMD</t>
+          <t>UNP</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J97" t="n">
-        <v>165.6</v>
+        <v>185.8</v>
       </c>
       <c r="K97" t="n">
-        <v>7.6</v>
+        <v>1.6</v>
       </c>
       <c r="L97" t="n">
-        <v>153</v>
+        <v>187.1</v>
       </c>
       <c r="M97" t="n">
-        <v>156.8</v>
+        <v>187.7</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -5238,48 +5238,48 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D98" t="n">
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>5</v>
+        <v>154.4</v>
       </c>
       <c r="F98" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>APRN</t>
+          <t>UTX</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>595</v>
+        <v>19</v>
       </c>
       <c r="J98" t="n">
-        <v>5</v>
+        <v>154.8</v>
       </c>
       <c r="K98" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="L98" t="n">
-        <v>4.6</v>
+        <v>155.7</v>
       </c>
       <c r="M98" t="n">
-        <v>4.7</v>
+        <v>156</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -5288,48 +5288,48 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.2</v>
+        <v>4.4</v>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>18</v>
+        <v>235.8</v>
       </c>
       <c r="F99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>AVRO</t>
+          <t>VRTX</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="J99" t="n">
-        <v>17.7</v>
+        <v>236.7</v>
       </c>
       <c r="K99" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="L99" t="n">
-        <v>16.5</v>
+        <v>238.9</v>
       </c>
       <c r="M99" t="n">
-        <v>16.8</v>
+        <v>239.8</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -5338,48 +5338,48 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>9</v>
+      </c>
+      <c r="D100" t="n">
+        <v>10</v>
+      </c>
+      <c r="E100" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>WCN</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>31</v>
+      </c>
+      <c r="J100" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.7</v>
       </c>
-      <c r="C100" t="n">
-        <v>3</v>
-      </c>
-      <c r="D100" t="n">
-        <v>10</v>
-      </c>
-      <c r="E100" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="F100" t="n">
-        <v>7</v>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>CRC</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
-        <v>358</v>
-      </c>
-      <c r="J100" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.4</v>
-      </c>
       <c r="L100" t="n">
-        <v>7.5</v>
+        <v>99</v>
       </c>
       <c r="M100" t="n">
-        <v>7.7</v>
+        <v>99.2</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -5388,48 +5388,48 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D101" t="n">
         <v>10</v>
       </c>
       <c r="E101" t="n">
-        <v>27.6</v>
+        <v>41.8</v>
       </c>
       <c r="F101" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>CTB</t>
+          <t>WMS</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="J101" t="n">
-        <v>27.5</v>
+        <v>41.9</v>
       </c>
       <c r="K101" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L101" t="n">
-        <v>26.9</v>
+        <v>42.3</v>
       </c>
       <c r="M101" t="n">
-        <v>27.1</v>
+        <v>42.5</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -5438,48 +5438,48 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="C102" t="n">
+        <v>8</v>
+      </c>
+      <c r="D102" t="n">
+        <v>10</v>
+      </c>
+      <c r="E102" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="F102" t="n">
         <v>2</v>
       </c>
-      <c r="D102" t="n">
-        <v>10</v>
-      </c>
-      <c r="E102" t="n">
-        <v>81</v>
-      </c>
-      <c r="F102" t="n">
-        <v>8</v>
-      </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>CVGW</t>
+          <t>WRB</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J102" t="n">
-        <v>80.59999999999999</v>
+        <v>70.5</v>
       </c>
       <c r="K102" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="L102" t="n">
-        <v>78.3</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="M102" t="n">
-        <v>79</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -5488,48 +5488,48 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="C103" t="n">
+        <v>6</v>
+      </c>
+      <c r="D103" t="n">
+        <v>10</v>
+      </c>
+      <c r="E103" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="F103" t="n">
         <v>4</v>
       </c>
-      <c r="D103" t="n">
-        <v>10</v>
-      </c>
-      <c r="E103" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="F103" t="n">
-        <v>6</v>
-      </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>ENTA</t>
+          <t>XYL</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="J103" t="n">
-        <v>57.4</v>
+        <v>83.7</v>
       </c>
       <c r="K103" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="L103" t="n">
-        <v>55.9</v>
+        <v>84.2</v>
       </c>
       <c r="M103" t="n">
-        <v>56.4</v>
+        <v>84.5</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -5538,7 +5538,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="C104" t="n">
         <v>3</v>
@@ -5547,7 +5547,7 @@
         <v>10</v>
       </c>
       <c r="E104" t="n">
-        <v>10.7</v>
+        <v>66.3</v>
       </c>
       <c r="F104" t="n">
         <v>7</v>
@@ -5559,27 +5559,27 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>EOLS</t>
+          <t>ARCH</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>281</v>
+        <v>45</v>
       </c>
       <c r="J104" t="n">
-        <v>10.5</v>
+        <v>65.7</v>
       </c>
       <c r="K104" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="L104" t="n">
-        <v>9.6</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="M104" t="n">
-        <v>9.800000000000001</v>
+        <v>63.5</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -5588,19 +5588,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="C105" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
         <v>10</v>
       </c>
       <c r="E105" t="n">
-        <v>8.4</v>
+        <v>20</v>
       </c>
       <c r="F105" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5609,27 +5609,27 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>EQT</t>
+          <t>BCEI</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>358</v>
+        <v>150</v>
       </c>
       <c r="J105" t="n">
-        <v>8.199999999999999</v>
+        <v>19.8</v>
       </c>
       <c r="K105" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L105" t="n">
-        <v>7.6</v>
+        <v>19.4</v>
       </c>
       <c r="M105" t="n">
-        <v>7.8</v>
+        <v>19.3</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -5638,19 +5638,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106" t="n">
         <v>10</v>
       </c>
       <c r="E106" t="n">
-        <v>17.3</v>
+        <v>11.1</v>
       </c>
       <c r="F106" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5659,27 +5659,27 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>FIXX</t>
+          <t>CEIX</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>173</v>
+        <v>270</v>
       </c>
       <c r="J106" t="n">
-        <v>17.2</v>
+        <v>11</v>
       </c>
       <c r="K106" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="L106" t="n">
-        <v>16.3</v>
+        <v>10.7</v>
       </c>
       <c r="M106" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -5688,20 +5688,20 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="C107" t="n">
+        <v>5</v>
+      </c>
+      <c r="D107" t="n">
+        <v>10</v>
+      </c>
+      <c r="E107" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F107" t="n">
         <v>4</v>
       </c>
-      <c r="D107" t="n">
-        <v>10</v>
-      </c>
-      <c r="E107" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F107" t="n">
-        <v>6</v>
-      </c>
       <c r="G107" t="inlineStr">
         <is>
           <t>SELL</t>
@@ -5709,27 +5709,27 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>GVA</t>
+          <t>CLR</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="J107" t="n">
-        <v>25.9</v>
+        <v>32.4</v>
       </c>
       <c r="K107" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="L107" t="n">
-        <v>24.9</v>
+        <v>31.9</v>
       </c>
       <c r="M107" t="n">
-        <v>25.2</v>
+        <v>31.7</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -5738,19 +5738,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="C108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D108" t="n">
         <v>10</v>
       </c>
       <c r="E108" t="n">
-        <v>13.1</v>
+        <v>57.9</v>
       </c>
       <c r="F108" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5759,27 +5759,27 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>KURA</t>
+          <t>ENTA</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>229</v>
+        <v>52</v>
       </c>
       <c r="J108" t="n">
-        <v>13</v>
+        <v>57.6</v>
       </c>
       <c r="K108" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="L108" t="n">
-        <v>12.5</v>
+        <v>56.9</v>
       </c>
       <c r="M108" t="n">
-        <v>12.7</v>
+        <v>56.6</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -5788,48 +5788,48 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="C109" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D109" t="n">
         <v>10</v>
       </c>
       <c r="E109" t="n">
-        <v>19.4</v>
+        <v>5.3</v>
       </c>
       <c r="F109" t="n">
+        <v>7</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>KLXE</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>566</v>
+      </c>
+      <c r="J109" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L109" t="n">
         <v>5</v>
       </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>MOV</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
-        <v>155</v>
-      </c>
-      <c r="J109" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L109" t="n">
-        <v>18.7</v>
-      </c>
       <c r="M109" t="n">
-        <v>18.8</v>
+        <v>4.9</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>
@@ -5838,19 +5838,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="C110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D110" t="n">
         <v>10</v>
       </c>
       <c r="E110" t="n">
-        <v>35.6</v>
+        <v>12.8</v>
       </c>
       <c r="F110" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5859,277 +5859,27 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>SIX</t>
+          <t>KURA</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>84</v>
+        <v>235</v>
       </c>
       <c r="J110" t="n">
-        <v>35.1</v>
+        <v>12.7</v>
       </c>
       <c r="K110" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="L110" t="n">
-        <v>32.8</v>
+        <v>12.5</v>
       </c>
       <c r="M110" t="n">
-        <v>33.5</v>
+        <v>12.4</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>STP LMT</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C111" t="n">
-        <v>5</v>
-      </c>
-      <c r="D111" t="n">
-        <v>10</v>
-      </c>
-      <c r="E111" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="F111" t="n">
-        <v>4</v>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>TAST</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
-        <v>509</v>
-      </c>
-      <c r="J111" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L111" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="M111" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>STP LMT</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C112" t="n">
-        <v>5</v>
-      </c>
-      <c r="D112" t="n">
-        <v>10</v>
-      </c>
-      <c r="E112" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="F112" t="n">
-        <v>5</v>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>TWNK</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
-        <v>213</v>
-      </c>
-      <c r="J112" t="n">
-        <v>14</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L112" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="M112" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>STP LMT</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C113" t="n">
-        <v>3</v>
-      </c>
-      <c r="D113" t="n">
-        <v>10</v>
-      </c>
-      <c r="E113" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F113" t="n">
-        <v>7</v>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>VCEL</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
-        <v>185</v>
-      </c>
-      <c r="J113" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L113" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="M113" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>STP LMT</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C114" t="n">
-        <v>5</v>
-      </c>
-      <c r="D114" t="n">
-        <v>10</v>
-      </c>
-      <c r="E114" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="F114" t="n">
-        <v>5</v>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>WNC</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
-        <v>218</v>
-      </c>
-      <c r="J114" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L114" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="M114" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>STP LMT</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0</v>
-      </c>
-      <c r="D115" t="n">
-        <v>10</v>
-      </c>
-      <c r="E115" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F115" t="n">
-        <v>10</v>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>XERS</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
-        <v>541</v>
-      </c>
-      <c r="J115" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L115" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="M115" t="n">
-        <v>5</v>
-      </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>

--- a/app/data/Orders.xlsx
+++ b/app/data/Orders.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:N105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,19 +438,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>50.3</v>
+        <v>92</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -459,23 +459,23 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>50.6</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="L2" t="n">
-        <v>51.1</v>
+        <v>90.2</v>
       </c>
       <c r="M2" t="n">
-        <v>51.4</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -488,19 +488,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>16.2</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -509,23 +509,23 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ADX</t>
+          <t>ABT</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="J3" t="n">
-        <v>16.2</v>
+        <v>96.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="L3" t="n">
-        <v>16.2</v>
+        <v>90</v>
       </c>
       <c r="M3" t="n">
-        <v>16.2</v>
+        <v>93.7</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -538,19 +538,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>79.8</v>
+        <v>16.2</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -559,23 +559,23 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>AEE</t>
+          <t>ADX</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="J4" t="n">
-        <v>79.90000000000001</v>
+        <v>17</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L4" t="n">
-        <v>80.3</v>
+        <v>15.8</v>
       </c>
       <c r="M4" t="n">
-        <v>80.5</v>
+        <v>16.5</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -588,19 +588,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>111.3</v>
+        <v>18.9</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -609,23 +609,23 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>AHH</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="J5" t="n">
-        <v>111.5</v>
+        <v>19.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1</v>
+        <v>18.5</v>
       </c>
       <c r="M5" t="n">
-        <v>112.3</v>
+        <v>19.2</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -638,19 +638,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>117.6</v>
+        <v>63.9</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -659,23 +659,23 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ALL</t>
+          <t>AMAT</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="J6" t="n">
-        <v>117.8</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="K6" t="n">
         <v>0.9</v>
       </c>
       <c r="L6" t="n">
-        <v>118.6</v>
+        <v>62.6</v>
       </c>
       <c r="M6" t="n">
-        <v>118.9</v>
+        <v>65.2</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -688,19 +688,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.4</v>
+        <v>0.3</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>270.3</v>
+        <v>27.2</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -709,23 +709,23 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ANSS</t>
+          <t>AMH</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="J7" t="n">
-        <v>271</v>
+        <v>28.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>0.2</v>
       </c>
       <c r="L7" t="n">
-        <v>272.7</v>
+        <v>26.6</v>
       </c>
       <c r="M7" t="n">
-        <v>273.4</v>
+        <v>27.7</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -738,19 +738,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -766,16 +766,16 @@
         <v>13</v>
       </c>
       <c r="J8" t="n">
-        <v>237.6</v>
+        <v>249.9</v>
       </c>
       <c r="K8" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>239.2</v>
+        <v>233.3</v>
       </c>
       <c r="M8" t="n">
-        <v>239.8</v>
+        <v>242.8</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="C9" t="n">
         <v>6</v>
@@ -797,7 +797,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>50.4</v>
+        <v>52</v>
       </c>
       <c r="F9" t="n">
         <v>4</v>
@@ -813,19 +813,19 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J9" t="n">
-        <v>50.6</v>
+        <v>54.6</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="L9" t="n">
-        <v>51.2</v>
+        <v>51</v>
       </c>
       <c r="M9" t="n">
-        <v>51.4</v>
+        <v>53.1</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -838,16 +838,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>61.2</v>
+        <v>8.4</v>
       </c>
       <c r="F10" t="n">
         <v>4</v>
@@ -859,23 +859,23 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ATVI</t>
+          <t>ASPU</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>49</v>
+        <v>355</v>
       </c>
       <c r="J10" t="n">
-        <v>61.5</v>
+        <v>8.9</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="L10" t="n">
-        <v>62</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M10" t="n">
-        <v>62.2</v>
+        <v>8.6</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -888,19 +888,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>134.7</v>
+        <v>42.4</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -909,23 +909,23 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>AVY</t>
+          <t>ATKR</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="J11" t="n">
-        <v>135.1</v>
+        <v>44.6</v>
       </c>
       <c r="K11" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="L11" t="n">
-        <v>136</v>
+        <v>41.6</v>
       </c>
       <c r="M11" t="n">
-        <v>136.4</v>
+        <v>43.3</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C12" t="n">
         <v>6</v>
@@ -947,7 +947,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>48.8</v>
+        <v>6.1</v>
       </c>
       <c r="F12" t="n">
         <v>4</v>
@@ -959,23 +959,23 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>BERY</t>
+          <t>BGCP</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>62</v>
+        <v>494</v>
       </c>
       <c r="J12" t="n">
-        <v>48.9</v>
+        <v>6.4</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="L12" t="n">
-        <v>49.4</v>
+        <v>5.9</v>
       </c>
       <c r="M12" t="n">
-        <v>49.6</v>
+        <v>6.2</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -991,16 +991,16 @@
         <v>0.6</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
         <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>36.8</v>
+        <v>37</v>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1016,16 +1016,16 @@
         <v>81</v>
       </c>
       <c r="J13" t="n">
-        <v>37</v>
+        <v>38.9</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="L13" t="n">
-        <v>37.2</v>
+        <v>36.3</v>
       </c>
       <c r="M13" t="n">
-        <v>37.4</v>
+        <v>37.8</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1038,19 +1038,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
         <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>145.2</v>
+        <v>31.4</v>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1059,23 +1059,23 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>BMCH</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="J14" t="n">
-        <v>145.6</v>
+        <v>33</v>
       </c>
       <c r="K14" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="L14" t="n">
-        <v>146.6</v>
+        <v>30.8</v>
       </c>
       <c r="M14" t="n">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1088,19 +1088,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" t="n">
         <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>51.9</v>
+        <v>55.3</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1109,23 +1109,23 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>CCL</t>
+          <t>CAH</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J15" t="n">
-        <v>52.1</v>
+        <v>58.1</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="L15" t="n">
-        <v>52.5</v>
+        <v>54.2</v>
       </c>
       <c r="M15" t="n">
-        <v>52.6</v>
+        <v>56.4</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1138,19 +1138,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>154.7</v>
+        <v>74.8</v>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1159,23 +1159,23 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>CCMP</t>
+          <t>CDNS</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J16" t="n">
-        <v>155.3</v>
+        <v>78.5</v>
       </c>
       <c r="K16" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="L16" t="n">
-        <v>156.8</v>
+        <v>73.3</v>
       </c>
       <c r="M16" t="n">
-        <v>157.4</v>
+        <v>76.3</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1188,19 +1188,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>40.9</v>
+        <v>34.3</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1209,23 +1209,23 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>CFG</t>
+          <t>CG</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="J17" t="n">
-        <v>41.1</v>
+        <v>36</v>
       </c>
       <c r="K17" t="n">
         <v>0.5</v>
       </c>
       <c r="L17" t="n">
-        <v>41.5</v>
+        <v>33.6</v>
       </c>
       <c r="M17" t="n">
-        <v>41.7</v>
+        <v>35</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="C18" t="n">
         <v>7</v>
@@ -1247,7 +1247,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>58.6</v>
+        <v>47.1</v>
       </c>
       <c r="F18" t="n">
         <v>3</v>
@@ -1259,23 +1259,23 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>CGNX</t>
+          <t>CIT</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="J18" t="n">
-        <v>58.9</v>
+        <v>49.4</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="L18" t="n">
-        <v>59.5</v>
+        <v>46.1</v>
       </c>
       <c r="M18" t="n">
-        <v>59.8</v>
+        <v>48</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1288,19 +1288,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>22.7</v>
+        <v>106.8</v>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1309,23 +1309,23 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>CLW</t>
+          <t>COF</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="J19" t="n">
-        <v>22.9</v>
+        <v>112.1</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="L19" t="n">
-        <v>23.4</v>
+        <v>104.6</v>
       </c>
       <c r="M19" t="n">
-        <v>23.6</v>
+        <v>108.9</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="C20" t="n">
         <v>6</v>
@@ -1347,7 +1347,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>164</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F20" t="n">
         <v>4</v>
@@ -1359,23 +1359,23 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>CSL</t>
+          <t>CPRT</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J20" t="n">
-        <v>164.4</v>
+        <v>104.6</v>
       </c>
       <c r="K20" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="L20" t="n">
-        <v>165.6</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="M20" t="n">
-        <v>166</v>
+        <v>101.6</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1388,19 +1388,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" t="n">
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>41.7</v>
+        <v>21.6</v>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1409,23 +1409,23 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>CUZ</t>
+          <t>CSWC</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="J21" t="n">
-        <v>41.8</v>
+        <v>22.6</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="L21" t="n">
-        <v>42.1</v>
+        <v>21.1</v>
       </c>
       <c r="M21" t="n">
-        <v>42.2</v>
+        <v>22</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1438,19 +1438,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22" t="n">
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>84</v>
+        <v>119.2</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1459,23 +1459,23 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>CTXS</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J22" t="n">
-        <v>84.2</v>
+        <v>125.2</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="L22" t="n">
-        <v>84.7</v>
+        <v>116.8</v>
       </c>
       <c r="M22" t="n">
-        <v>84.90000000000001</v>
+        <v>121.6</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1488,44 +1488,44 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C23" t="n">
+        <v>9</v>
+      </c>
+      <c r="D23" t="n">
+        <v>10</v>
+      </c>
+      <c r="E23" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>DGX</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>28</v>
+      </c>
+      <c r="J23" t="n">
+        <v>114</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.9</v>
       </c>
-      <c r="C23" t="n">
-        <v>5</v>
-      </c>
-      <c r="D23" t="n">
-        <v>10</v>
-      </c>
-      <c r="E23" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="F23" t="n">
-        <v>4</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>DHI</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>54</v>
-      </c>
-      <c r="J23" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.5</v>
-      </c>
       <c r="L23" t="n">
-        <v>56.3</v>
+        <v>106.4</v>
       </c>
       <c r="M23" t="n">
-        <v>56.5</v>
+        <v>110.7</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -1538,19 +1538,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>77.8</v>
+        <v>57.4</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1559,23 +1559,23 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>DOOR</t>
+          <t>DHI</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="J24" t="n">
-        <v>78.09999999999999</v>
+        <v>60.3</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="L24" t="n">
-        <v>78.90000000000001</v>
+        <v>56.3</v>
       </c>
       <c r="M24" t="n">
-        <v>79.2</v>
+        <v>58.6</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -1588,19 +1588,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="C25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="n">
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>56.2</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1609,23 +1609,23 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>ENTG</t>
+          <t>DOOR</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="J25" t="n">
-        <v>56.5</v>
+        <v>82.8</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>57</v>
+        <v>77.3</v>
       </c>
       <c r="M25" t="n">
-        <v>57.3</v>
+        <v>80.5</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -1638,19 +1638,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="C26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>47.4</v>
+        <v>32.2</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1659,23 +1659,23 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>ELAN</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="J26" t="n">
-        <v>47.5</v>
+        <v>33.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="L26" t="n">
-        <v>47.8</v>
+        <v>31.6</v>
       </c>
       <c r="M26" t="n">
-        <v>48</v>
+        <v>32.9</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -1688,19 +1688,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>93.2</v>
+        <v>77.7</v>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1709,23 +1709,23 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>EXP</t>
+          <t>EVR</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J27" t="n">
-        <v>93.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="L27" t="n">
-        <v>94.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="M27" t="n">
-        <v>94.5</v>
+        <v>79.3</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -1738,19 +1738,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" t="n">
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>49.1</v>
+        <v>47.7</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1759,23 +1759,23 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>FE</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J28" t="n">
-        <v>49.2</v>
+        <v>50</v>
       </c>
       <c r="K28" t="n">
         <v>0.4</v>
       </c>
       <c r="L28" t="n">
-        <v>49.5</v>
+        <v>46.7</v>
       </c>
       <c r="M28" t="n">
-        <v>49.6</v>
+        <v>48.6</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="C29" t="n">
         <v>7</v>
@@ -1797,7 +1797,7 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>120.7</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="F29" t="n">
         <v>3</v>
@@ -1809,23 +1809,23 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>FISV</t>
+          <t>EXLS</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="J29" t="n">
-        <v>121</v>
+        <v>76.8</v>
       </c>
       <c r="K29" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="L29" t="n">
-        <v>121.7</v>
+        <v>71.7</v>
       </c>
       <c r="M29" t="n">
-        <v>122.1</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="C30" t="n">
         <v>6</v>
@@ -1847,7 +1847,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>27.5</v>
+        <v>93.5</v>
       </c>
       <c r="F30" t="n">
         <v>4</v>
@@ -1859,23 +1859,23 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>FORM</t>
+          <t>EXP</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="J30" t="n">
-        <v>27.6</v>
+        <v>98.2</v>
       </c>
       <c r="K30" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>27.9</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="M30" t="n">
-        <v>28</v>
+        <v>95.3</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="C31" t="n">
         <v>8</v>
@@ -1897,7 +1897,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>34.8</v>
+        <v>49.9</v>
       </c>
       <c r="F31" t="n">
         <v>2</v>
@@ -1909,23 +1909,23 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>FSS</t>
+          <t>FE</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="J31" t="n">
-        <v>35</v>
+        <v>52.4</v>
       </c>
       <c r="K31" t="n">
         <v>0.4</v>
       </c>
       <c r="L31" t="n">
-        <v>35.3</v>
+        <v>48.9</v>
       </c>
       <c r="M31" t="n">
-        <v>35.5</v>
+        <v>50.9</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -1938,44 +1938,44 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7</v>
+        <v>19.1</v>
       </c>
       <c r="C32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" t="n">
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>45.6</v>
+        <v>1486</v>
       </c>
       <c r="F32" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
         <v>2</v>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>GLPI</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>66</v>
-      </c>
       <c r="J32" t="n">
-        <v>45.7</v>
+        <v>1560.2</v>
       </c>
       <c r="K32" t="n">
-        <v>0.4</v>
+        <v>13.8</v>
       </c>
       <c r="L32" t="n">
-        <v>46</v>
+        <v>1456.2</v>
       </c>
       <c r="M32" t="n">
-        <v>46.1</v>
+        <v>1515.7</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -1991,16 +1991,16 @@
         <v>18.8</v>
       </c>
       <c r="C33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>1480.4</v>
+        <v>1484.2</v>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2009,23 +2009,23 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>1484.2</v>
+        <v>1558.4</v>
       </c>
       <c r="K33" t="n">
-        <v>11.3</v>
+        <v>13.6</v>
       </c>
       <c r="L33" t="n">
-        <v>1493.6</v>
+        <v>1454.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1497.3</v>
+        <v>1513.9</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2038,19 +2038,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>18.8</v>
+        <v>3.1</v>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D34" t="n">
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>1479.5</v>
+        <v>200.1</v>
       </c>
       <c r="F34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2059,23 +2059,23 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>GPN</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J34" t="n">
-        <v>1483.3</v>
+        <v>210.1</v>
       </c>
       <c r="K34" t="n">
-        <v>11.3</v>
+        <v>2.3</v>
       </c>
       <c r="L34" t="n">
-        <v>1492.7</v>
+        <v>196.1</v>
       </c>
       <c r="M34" t="n">
-        <v>1496.4</v>
+        <v>204.1</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2088,19 +2088,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.2</v>
+        <v>0.2</v>
       </c>
       <c r="C35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>198.6</v>
+        <v>12.2</v>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2109,23 +2109,23 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>GRBK</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>15</v>
+        <v>247</v>
       </c>
       <c r="J35" t="n">
-        <v>199.3</v>
+        <v>12.8</v>
       </c>
       <c r="K35" t="n">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
       <c r="L35" t="n">
-        <v>200.9</v>
+        <v>11.9</v>
       </c>
       <c r="M35" t="n">
-        <v>201.5</v>
+        <v>12.4</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2138,19 +2138,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D36" t="n">
         <v>10</v>
       </c>
       <c r="E36" t="n">
-        <v>113.9</v>
+        <v>47.8</v>
       </c>
       <c r="F36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2159,23 +2159,23 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>HLT</t>
+          <t>HE</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2</v>
+        <v>50.2</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="L36" t="n">
-        <v>115</v>
+        <v>46.9</v>
       </c>
       <c r="M36" t="n">
-        <v>115.4</v>
+        <v>48.8</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="C37" t="n">
         <v>6</v>
@@ -2197,7 +2197,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>54.3</v>
+        <v>149</v>
       </c>
       <c r="F37" t="n">
         <v>4</v>
@@ -2209,23 +2209,23 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>HOLX</t>
+          <t>HUBB</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="J37" t="n">
-        <v>54.5</v>
+        <v>156.5</v>
       </c>
       <c r="K37" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="L37" t="n">
-        <v>54.9</v>
+        <v>146.1</v>
       </c>
       <c r="M37" t="n">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C38" t="n">
         <v>6</v>
@@ -2247,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>20.4</v>
+        <v>76.5</v>
       </c>
       <c r="F38" t="n">
         <v>4</v>
@@ -2259,23 +2259,23 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>HOMB</t>
+          <t>IBP</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="J38" t="n">
-        <v>20.5</v>
+        <v>80.3</v>
       </c>
       <c r="K38" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="L38" t="n">
-        <v>20.7</v>
+        <v>75</v>
       </c>
       <c r="M38" t="n">
-        <v>20.8</v>
+        <v>78</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -2288,19 +2288,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>183.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2309,23 +2309,23 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>HON</t>
+          <t>ICAD</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>16</v>
+        <v>308</v>
       </c>
       <c r="J39" t="n">
-        <v>183.6</v>
+        <v>10.2</v>
       </c>
       <c r="K39" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="L39" t="n">
-        <v>184.7</v>
+        <v>9.5</v>
       </c>
       <c r="M39" t="n">
-        <v>185.1</v>
+        <v>9.9</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -2338,44 +2338,44 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C40" t="n">
+        <v>9</v>
+      </c>
+      <c r="D40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E40" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>IIIV</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>91</v>
+      </c>
+      <c r="J40" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.5</v>
       </c>
-      <c r="C40" t="n">
-        <v>6</v>
-      </c>
-      <c r="D40" t="n">
-        <v>10</v>
-      </c>
-      <c r="E40" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="F40" t="n">
-        <v>4</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>87</v>
-      </c>
-      <c r="J40" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3</v>
-      </c>
       <c r="L40" t="n">
-        <v>34.9</v>
+        <v>32.4</v>
       </c>
       <c r="M40" t="n">
-        <v>35</v>
+        <v>33.7</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -2388,19 +2388,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="C41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41" t="n">
         <v>10</v>
       </c>
       <c r="E41" t="n">
-        <v>149.2</v>
+        <v>62.7</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2409,23 +2409,23 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>HUBB</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="J41" t="n">
-        <v>149.6</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="K41" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="L41" t="n">
-        <v>150.5</v>
+        <v>61.5</v>
       </c>
       <c r="M41" t="n">
-        <v>150.9</v>
+        <v>64</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="C42" t="n">
         <v>8</v>
@@ -2447,7 +2447,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>78.2</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="F42" t="n">
         <v>2</v>
@@ -2459,23 +2459,23 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>IBKC</t>
+          <t>ITGR</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J42" t="n">
-        <v>78.59999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="K42" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="L42" t="n">
-        <v>79.5</v>
+        <v>89.2</v>
       </c>
       <c r="M42" t="n">
-        <v>79.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -2488,19 +2488,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="C43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D43" t="n">
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>26</v>
+        <v>17.3</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2509,23 +2509,23 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>IIIN</t>
+          <t>IVR</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="J43" t="n">
-        <v>26.3</v>
+        <v>18.2</v>
       </c>
       <c r="K43" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="L43" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M43" t="n">
-        <v>27.3</v>
+        <v>17.7</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -2538,19 +2538,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="C44" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>10</v>
       </c>
       <c r="E44" t="n">
-        <v>89</v>
+        <v>149.6</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2559,23 +2559,23 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>ITGR</t>
+          <t>JKHY</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J44" t="n">
-        <v>89.3</v>
+        <v>157.1</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="L44" t="n">
-        <v>90.09999999999999</v>
+        <v>146.6</v>
       </c>
       <c r="M44" t="n">
-        <v>90.5</v>
+        <v>152.6</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="C45" t="n">
         <v>6</v>
@@ -2597,10 +2597,10 @@
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>40.6</v>
+        <v>38.3</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2609,23 +2609,23 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>JBGS</t>
+          <t>KBH</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J45" t="n">
-        <v>40.7</v>
+        <v>40.2</v>
       </c>
       <c r="K45" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="L45" t="n">
-        <v>40.9</v>
+        <v>37.5</v>
       </c>
       <c r="M45" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="C46" t="n">
         <v>7</v>
@@ -2647,7 +2647,7 @@
         <v>10</v>
       </c>
       <c r="E46" t="n">
-        <v>56.9</v>
+        <v>180.1</v>
       </c>
       <c r="F46" t="n">
         <v>3</v>
@@ -2659,23 +2659,23 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>KLAC</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="J46" t="n">
-        <v>57.1</v>
+        <v>189.1</v>
       </c>
       <c r="K46" t="n">
-        <v>0.3</v>
+        <v>2.6</v>
       </c>
       <c r="L46" t="n">
-        <v>57.3</v>
+        <v>176.5</v>
       </c>
       <c r="M46" t="n">
-        <v>57.5</v>
+        <v>183.7</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="C47" t="n">
         <v>8</v>
@@ -2697,7 +2697,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>18.6</v>
+        <v>57.6</v>
       </c>
       <c r="F47" t="n">
         <v>2</v>
@@ -2709,23 +2709,23 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>LADR</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="J47" t="n">
-        <v>18.6</v>
+        <v>60.5</v>
       </c>
       <c r="K47" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="L47" t="n">
-        <v>18.7</v>
+        <v>56.5</v>
       </c>
       <c r="M47" t="n">
-        <v>18.8</v>
+        <v>58.8</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="C48" t="n">
         <v>8</v>
@@ -2747,10 +2747,10 @@
         <v>10</v>
       </c>
       <c r="E48" t="n">
-        <v>57.2</v>
+        <v>94</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2759,23 +2759,23 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>LNT</t>
+          <t>LAMR</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="J48" t="n">
-        <v>57.3</v>
+        <v>98.7</v>
       </c>
       <c r="K48" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="L48" t="n">
-        <v>57.6</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="M48" t="n">
-        <v>57.8</v>
+        <v>95.8</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="C49" t="n">
         <v>7</v>
@@ -2797,7 +2797,7 @@
         <v>10</v>
       </c>
       <c r="E49" t="n">
-        <v>86.59999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="F49" t="n">
         <v>3</v>
@@ -2809,23 +2809,23 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>LOGM</t>
+          <t>LEN</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="J49" t="n">
-        <v>86.59999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="K49" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="L49" t="n">
-        <v>86.8</v>
+        <v>64.5</v>
       </c>
       <c r="M49" t="n">
-        <v>86.90000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -2838,19 +2838,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.8</v>
+        <v>2.2</v>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D50" t="n">
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>308</v>
+        <v>141.6</v>
       </c>
       <c r="F50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2859,23 +2859,23 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>LRCX</t>
+          <t>LLY</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J50" t="n">
-        <v>309.4</v>
+        <v>148.6</v>
       </c>
       <c r="K50" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="L50" t="n">
-        <v>312.8</v>
+        <v>138.7</v>
       </c>
       <c r="M50" t="n">
-        <v>314.2</v>
+        <v>144.4</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -2888,19 +2888,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D51" t="n">
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>49.1</v>
+        <v>57.8</v>
       </c>
       <c r="F51" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2909,23 +2909,23 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>MAS</t>
+          <t>LNT</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J51" t="n">
-        <v>49.2</v>
+        <v>60.6</v>
       </c>
       <c r="K51" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L51" t="n">
-        <v>49.5</v>
+        <v>56.6</v>
       </c>
       <c r="M51" t="n">
-        <v>49.7</v>
+        <v>58.9</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -2938,19 +2938,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="C52" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>35</v>
+        <v>121.9</v>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2959,23 +2959,23 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>MC</t>
+          <t>LOW</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="J52" t="n">
-        <v>35.2</v>
+        <v>128</v>
       </c>
       <c r="K52" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="L52" t="n">
-        <v>35.7</v>
+        <v>119.5</v>
       </c>
       <c r="M52" t="n">
-        <v>35.9</v>
+        <v>124.3</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -2988,19 +2988,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="C53" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>156.3</v>
+        <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3009,23 +3009,23 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>MCK</t>
+          <t>LQDA</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>19</v>
+        <v>429</v>
       </c>
       <c r="J53" t="n">
-        <v>157</v>
+        <v>7.4</v>
       </c>
       <c r="K53" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="L53" t="n">
-        <v>158.7</v>
+        <v>6.9</v>
       </c>
       <c r="M53" t="n">
-        <v>159.4</v>
+        <v>7.1</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -3038,19 +3038,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="C54" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>257.6</v>
+        <v>121.1</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3059,23 +3059,23 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>MDT</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J54" t="n">
-        <v>258.3</v>
+        <v>127.1</v>
       </c>
       <c r="K54" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="L54" t="n">
-        <v>260.1</v>
+        <v>118.7</v>
       </c>
       <c r="M54" t="n">
-        <v>260.9</v>
+        <v>123.5</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="C55" t="n">
         <v>7</v>
@@ -3097,10 +3097,10 @@
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>119</v>
+        <v>11.9</v>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3109,23 +3109,23 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>MDT</t>
+          <t>MRCC</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="J55" t="n">
-        <v>119.4</v>
+        <v>12.5</v>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L55" t="n">
-        <v>120.2</v>
+        <v>11.7</v>
       </c>
       <c r="M55" t="n">
-        <v>120.5</v>
+        <v>12.2</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -3138,19 +3138,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="C56" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>34.5</v>
+        <v>59.2</v>
       </c>
       <c r="F56" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3159,23 +3159,23 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="J56" t="n">
-        <v>34.6</v>
+        <v>62.1</v>
       </c>
       <c r="K56" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="L56" t="n">
-        <v>34.9</v>
+        <v>58</v>
       </c>
       <c r="M56" t="n">
-        <v>35</v>
+        <v>60.4</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -3188,19 +3188,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D57" t="n">
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>32.3</v>
+        <v>12.2</v>
       </c>
       <c r="F57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3209,23 +3209,23 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>MGP</t>
+          <t>MWA</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>93</v>
+        <v>246</v>
       </c>
       <c r="J57" t="n">
-        <v>32.5</v>
+        <v>12.8</v>
       </c>
       <c r="K57" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="L57" t="n">
-        <v>32.8</v>
+        <v>11.9</v>
       </c>
       <c r="M57" t="n">
-        <v>33</v>
+        <v>12.4</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -3238,44 +3238,44 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C58" t="n">
+        <v>6</v>
+      </c>
+      <c r="D58" t="n">
+        <v>10</v>
+      </c>
+      <c r="E58" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F58" t="n">
+        <v>3</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>MXL</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>139</v>
+      </c>
+      <c r="J58" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="K58" t="n">
         <v>0.4</v>
       </c>
-      <c r="C58" t="n">
-        <v>8</v>
-      </c>
-      <c r="D58" t="n">
-        <v>10</v>
-      </c>
-      <c r="E58" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="F58" t="n">
-        <v>2</v>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>MPW</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>135</v>
-      </c>
-      <c r="J58" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.2</v>
-      </c>
       <c r="L58" t="n">
-        <v>22.5</v>
+        <v>21.1</v>
       </c>
       <c r="M58" t="n">
-        <v>22.6</v>
+        <v>22</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.2</v>
+        <v>2.3</v>
       </c>
       <c r="C59" t="n">
         <v>6</v>
@@ -3297,7 +3297,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>12.1</v>
+        <v>170.3</v>
       </c>
       <c r="F59" t="n">
         <v>4</v>
@@ -3309,23 +3309,23 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>MWA</t>
+          <t>NDSN</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>247</v>
+        <v>18</v>
       </c>
       <c r="J59" t="n">
-        <v>12.2</v>
+        <v>178.9</v>
       </c>
       <c r="K59" t="n">
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
       <c r="L59" t="n">
-        <v>12.3</v>
+        <v>166.9</v>
       </c>
       <c r="M59" t="n">
-        <v>12.3</v>
+        <v>173.7</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -3338,19 +3338,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>109.3</v>
+        <v>12.9</v>
       </c>
       <c r="F60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3359,23 +3359,23 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>NDAQ</t>
+          <t>NOVA</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="J60" t="n">
-        <v>109.6</v>
+        <v>13.5</v>
       </c>
       <c r="K60" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="L60" t="n">
-        <v>110.2</v>
+        <v>12.6</v>
       </c>
       <c r="M60" t="n">
-        <v>110.4</v>
+        <v>13.1</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -3388,19 +3388,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="C61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>10</v>
       </c>
       <c r="E61" t="n">
-        <v>169.5</v>
+        <v>250</v>
       </c>
       <c r="F61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3409,23 +3409,23 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>NDSN</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J61" t="n">
-        <v>169.9</v>
+        <v>262.6</v>
       </c>
       <c r="K61" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="L61" t="n">
-        <v>171</v>
+        <v>245</v>
       </c>
       <c r="M61" t="n">
-        <v>171.4</v>
+        <v>255.1</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -3438,19 +3438,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="C62" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D62" t="n">
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>104.5</v>
+        <v>6.4</v>
       </c>
       <c r="F62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3459,23 +3459,23 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>NYMT</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>29</v>
+        <v>472</v>
       </c>
       <c r="J62" t="n">
-        <v>104.8</v>
+        <v>6.7</v>
       </c>
       <c r="K62" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>105.4</v>
+        <v>6.2</v>
       </c>
       <c r="M62" t="n">
-        <v>105.6</v>
+        <v>6.5</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -3488,19 +3488,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="C63" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D63" t="n">
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>97.59999999999999</v>
+        <v>5</v>
       </c>
       <c r="F63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3509,23 +3509,23 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>NOVT</t>
+          <t>OESX</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>31</v>
+        <v>596</v>
       </c>
       <c r="J63" t="n">
-        <v>98</v>
+        <v>5.3</v>
       </c>
       <c r="K63" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="L63" t="n">
-        <v>99.09999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="M63" t="n">
-        <v>99.5</v>
+        <v>5.1</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -3538,19 +3538,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="C64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D64" t="n">
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>16.7</v>
+        <v>35.1</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3559,23 +3559,23 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>NRZ</t>
+          <t>OPI</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>180</v>
+        <v>86</v>
       </c>
       <c r="J64" t="n">
-        <v>16.7</v>
+        <v>36.8</v>
       </c>
       <c r="K64" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="L64" t="n">
-        <v>16.8</v>
+        <v>34.4</v>
       </c>
       <c r="M64" t="n">
-        <v>16.8</v>
+        <v>35.8</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -3588,19 +3588,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="C65" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>209.3</v>
+        <v>243.7</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3609,23 +3609,23 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>NSC</t>
+          <t>PANW</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J65" t="n">
-        <v>210</v>
+        <v>255.9</v>
       </c>
       <c r="K65" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L65" t="n">
-        <v>211.8</v>
+        <v>238.9</v>
       </c>
       <c r="M65" t="n">
-        <v>212.6</v>
+        <v>248.6</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -3641,16 +3641,16 @@
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D66" t="n">
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>76.40000000000001</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3659,23 +3659,23 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>PAYX</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J66" t="n">
-        <v>76.59999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="K66" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="L66" t="n">
-        <v>77.09999999999999</v>
+        <v>87.8</v>
       </c>
       <c r="M66" t="n">
-        <v>77.3</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -3688,19 +3688,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D67" t="n">
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>77.2</v>
+        <v>60.3</v>
       </c>
       <c r="F67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3709,23 +3709,23 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>OKE</t>
+          <t>PEG</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J67" t="n">
-        <v>77.40000000000001</v>
+        <v>63.3</v>
       </c>
       <c r="K67" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L67" t="n">
-        <v>77.90000000000001</v>
+        <v>59.1</v>
       </c>
       <c r="M67" t="n">
-        <v>78.09999999999999</v>
+        <v>61.5</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
       <c r="C68" t="n">
         <v>7</v>
@@ -3747,10 +3747,10 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>6.2</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3759,23 +3759,23 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>ORC</t>
+          <t>PEGA</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>482</v>
+        <v>34</v>
       </c>
       <c r="J68" t="n">
-        <v>6.2</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="L68" t="n">
-        <v>6.3</v>
+        <v>86.7</v>
       </c>
       <c r="M68" t="n">
-        <v>6.3</v>
+        <v>90.2</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -3788,19 +3788,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D69" t="n">
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>88.2</v>
+        <v>143.4</v>
       </c>
       <c r="F69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3809,23 +3809,23 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J69" t="n">
-        <v>88.40000000000001</v>
+        <v>150.5</v>
       </c>
       <c r="K69" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="L69" t="n">
-        <v>88.90000000000001</v>
+        <v>140.5</v>
       </c>
       <c r="M69" t="n">
-        <v>89.09999999999999</v>
+        <v>146.2</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="C70" t="n">
         <v>7</v>
@@ -3847,7 +3847,7 @@
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>141.6</v>
+        <v>126.7</v>
       </c>
       <c r="F70" t="n">
         <v>3</v>
@@ -3859,23 +3859,23 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>PCTY</t>
+          <t>PFPT</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J70" t="n">
-        <v>142.3</v>
+        <v>133</v>
       </c>
       <c r="K70" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L70" t="n">
-        <v>143.9</v>
+        <v>124.2</v>
       </c>
       <c r="M70" t="n">
-        <v>144.6</v>
+        <v>129.2</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -3888,19 +3888,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>23.3</v>
+        <v>28.5</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3909,23 +3909,23 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>PDM</t>
+          <t>PHR</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="J71" t="n">
-        <v>23.3</v>
+        <v>29.9</v>
       </c>
       <c r="K71" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="L71" t="n">
-        <v>23.5</v>
+        <v>27.9</v>
       </c>
       <c r="M71" t="n">
-        <v>23.6</v>
+        <v>29.1</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="C72" t="n">
         <v>7</v>
@@ -3947,7 +3947,7 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>86.40000000000001</v>
+        <v>23.2</v>
       </c>
       <c r="F72" t="n">
         <v>3</v>
@@ -3959,23 +3959,23 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>PEGA</t>
+          <t>PMT</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="J72" t="n">
-        <v>86.7</v>
+        <v>24.4</v>
       </c>
       <c r="K72" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="L72" t="n">
-        <v>87.5</v>
+        <v>22.7</v>
       </c>
       <c r="M72" t="n">
-        <v>87.8</v>
+        <v>23.7</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -3988,19 +3988,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="C73" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D73" t="n">
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>141.3</v>
+        <v>97.2</v>
       </c>
       <c r="F73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -4009,23 +4009,23 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>RJF</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J73" t="n">
-        <v>141.6</v>
+        <v>102.1</v>
       </c>
       <c r="K73" t="n">
         <v>1</v>
       </c>
       <c r="L73" t="n">
-        <v>142.4</v>
+        <v>95.3</v>
       </c>
       <c r="M73" t="n">
-        <v>142.7</v>
+        <v>99.2</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -4038,19 +4038,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="C74" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D74" t="n">
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>57.1</v>
+        <v>164.4</v>
       </c>
       <c r="F74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -4059,23 +4059,23 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>PFG</t>
+          <t>RMD</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="J74" t="n">
-        <v>57.3</v>
+        <v>172.6</v>
       </c>
       <c r="K74" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="L74" t="n">
-        <v>57.7</v>
+        <v>161.1</v>
       </c>
       <c r="M74" t="n">
-        <v>57.9</v>
+        <v>167.7</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -4088,19 +4088,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="C75" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>126.4</v>
+        <v>22</v>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -4109,23 +4109,23 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="J75" t="n">
-        <v>126.6</v>
+        <v>23.1</v>
       </c>
       <c r="K75" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="L75" t="n">
-        <v>127.2</v>
+        <v>21.6</v>
       </c>
       <c r="M75" t="n">
-        <v>127.5</v>
+        <v>22.5</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -4138,19 +4138,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>27.8</v>
+        <v>54.4</v>
       </c>
       <c r="F76" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4159,23 +4159,23 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>PHR</t>
+          <t>SMTC</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="J76" t="n">
-        <v>28</v>
+        <v>57.2</v>
       </c>
       <c r="K76" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="L76" t="n">
-        <v>28.5</v>
+        <v>53.4</v>
       </c>
       <c r="M76" t="n">
-        <v>28.7</v>
+        <v>55.5</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -4188,19 +4188,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D77" t="n">
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>94.3</v>
+        <v>68.3</v>
       </c>
       <c r="F77" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4209,23 +4209,23 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>PLD</t>
+          <t>SO</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="J77" t="n">
-        <v>94.59999999999999</v>
+        <v>71.7</v>
       </c>
       <c r="K77" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="L77" t="n">
-        <v>95.3</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="M77" t="n">
-        <v>95.59999999999999</v>
+        <v>69.7</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -4238,20 +4238,20 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C78" t="n">
+        <v>8</v>
+      </c>
+      <c r="D78" t="n">
+        <v>10</v>
+      </c>
+      <c r="E78" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="F78" t="n">
         <v>2</v>
       </c>
-      <c r="C78" t="n">
-        <v>7</v>
-      </c>
-      <c r="D78" t="n">
-        <v>10</v>
-      </c>
-      <c r="E78" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="F78" t="n">
-        <v>3</v>
-      </c>
       <c r="G78" t="inlineStr">
         <is>
           <t>BUY</t>
@@ -4259,23 +4259,23 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>PRGS</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="J78" t="n">
-        <v>49.5</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="K78" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="L78" t="n">
-        <v>50.4</v>
+        <v>83</v>
       </c>
       <c r="M78" t="n">
-        <v>50.8</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -4288,19 +4288,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D79" t="n">
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>95.90000000000001</v>
+        <v>25.6</v>
       </c>
       <c r="F79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4309,23 +4309,23 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>STWD</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="J79" t="n">
-        <v>96.40000000000001</v>
+        <v>26.8</v>
       </c>
       <c r="K79" t="n">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="L79" t="n">
-        <v>97.7</v>
+        <v>25.1</v>
       </c>
       <c r="M79" t="n">
-        <v>98.2</v>
+        <v>26.1</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -4338,19 +4338,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D80" t="n">
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>135</v>
+        <v>14.3</v>
       </c>
       <c r="F80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4359,23 +4359,23 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>RCL</t>
+          <t>TCPC</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="J80" t="n">
-        <v>135.4</v>
+        <v>15</v>
       </c>
       <c r="K80" t="n">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="L80" t="n">
-        <v>136.3</v>
+        <v>14</v>
       </c>
       <c r="M80" t="n">
-        <v>136.7</v>
+        <v>14.5</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -4388,19 +4388,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="C81" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>96.3</v>
+        <v>26.8</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4409,23 +4409,23 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>TENB</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="J81" t="n">
-        <v>96.5</v>
+        <v>28.1</v>
       </c>
       <c r="K81" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="L81" t="n">
-        <v>97.2</v>
+        <v>26.2</v>
       </c>
       <c r="M81" t="n">
-        <v>97.5</v>
+        <v>27.3</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -4438,19 +4438,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6</v>
+        <v>4.6</v>
       </c>
       <c r="C82" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D82" t="n">
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>28.1</v>
+        <v>340</v>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4459,23 +4459,23 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>SAR</t>
+          <t>TMO</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="J82" t="n">
-        <v>28.3</v>
+        <v>357.1</v>
       </c>
       <c r="K82" t="n">
-        <v>0.3</v>
+        <v>3.3</v>
       </c>
       <c r="L82" t="n">
-        <v>28.5</v>
+        <v>333.2</v>
       </c>
       <c r="M82" t="n">
-        <v>28.6</v>
+        <v>346.9</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -4488,19 +4488,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="C83" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D83" t="n">
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>65</v>
+        <v>44.2</v>
       </c>
       <c r="F83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4509,23 +4509,23 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>TRMB</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="J83" t="n">
-        <v>65.2</v>
+        <v>46.5</v>
       </c>
       <c r="K83" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="L83" t="n">
-        <v>65.8</v>
+        <v>43.4</v>
       </c>
       <c r="M83" t="n">
-        <v>66</v>
+        <v>45.1</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -4538,19 +4538,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D84" t="n">
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>55</v>
+        <v>15.3</v>
       </c>
       <c r="F84" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4559,23 +4559,23 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>SMTC</t>
+          <t>TWO</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>55</v>
+        <v>197</v>
       </c>
       <c r="J84" t="n">
-        <v>55.2</v>
+        <v>16</v>
       </c>
       <c r="K84" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="L84" t="n">
-        <v>55.8</v>
+        <v>15</v>
       </c>
       <c r="M84" t="n">
-        <v>56</v>
+        <v>15.6</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -4588,19 +4588,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="C85" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D85" t="n">
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>40</v>
+        <v>16.5</v>
       </c>
       <c r="F85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4609,23 +4609,23 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>UMH</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="J85" t="n">
-        <v>40.1</v>
+        <v>17.3</v>
       </c>
       <c r="K85" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L85" t="n">
-        <v>40.4</v>
+        <v>16.2</v>
       </c>
       <c r="M85" t="n">
-        <v>40.5</v>
+        <v>16.8</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -4638,19 +4638,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C86" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D86" t="n">
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>67.3</v>
+        <v>71.2</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4659,23 +4659,23 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>WRB</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J86" t="n">
-        <v>67.40000000000001</v>
+        <v>74.8</v>
       </c>
       <c r="K86" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="L86" t="n">
-        <v>67.8</v>
+        <v>69.8</v>
       </c>
       <c r="M86" t="n">
-        <v>68</v>
+        <v>72.7</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -4688,19 +4688,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="C87" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="n">
         <v>10</v>
       </c>
       <c r="E87" t="n">
-        <v>157.2</v>
+        <v>60.7</v>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4709,23 +4709,23 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>XRAY</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="J87" t="n">
-        <v>157.6</v>
+        <v>63.7</v>
       </c>
       <c r="K87" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="L87" t="n">
-        <v>158.6</v>
+        <v>59.5</v>
       </c>
       <c r="M87" t="n">
-        <v>159</v>
+        <v>61.9</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -4738,19 +4738,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="C88" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>10</v>
       </c>
       <c r="E88" t="n">
-        <v>32.5</v>
+        <v>34.6</v>
       </c>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4759,23 +4759,23 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>STAG</t>
+          <t>YMAB</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J88" t="n">
-        <v>32.6</v>
+        <v>36.4</v>
       </c>
       <c r="K88" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="L88" t="n">
-        <v>32.8</v>
+        <v>33.9</v>
       </c>
       <c r="M88" t="n">
-        <v>32.9</v>
+        <v>35.3</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -4788,19 +4788,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="C89" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D89" t="n">
         <v>10</v>
       </c>
       <c r="E89" t="n">
-        <v>139.3</v>
+        <v>151</v>
       </c>
       <c r="F89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4809,23 +4809,23 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>THG</t>
+          <t>ZBH</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J89" t="n">
-        <v>139.6</v>
+        <v>158.5</v>
       </c>
       <c r="K89" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="L89" t="n">
-        <v>140.6</v>
+        <v>148</v>
       </c>
       <c r="M89" t="n">
-        <v>140.9</v>
+        <v>154</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -4838,44 +4838,44 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="C90" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
         <v>10</v>
       </c>
       <c r="E90" t="n">
-        <v>17.4</v>
+        <v>18</v>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>TILE</t>
+          <t>BCEI</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="J90" t="n">
-        <v>17.5</v>
+        <v>17.1</v>
       </c>
       <c r="K90" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="L90" t="n">
-        <v>17.7</v>
+        <v>18.9</v>
       </c>
       <c r="M90" t="n">
-        <v>17.8</v>
+        <v>17.1</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -4888,44 +4888,44 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="C91" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>339.2</v>
+        <v>15.2</v>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>BLFS</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>9</v>
+        <v>197</v>
       </c>
       <c r="J91" t="n">
-        <v>340.1</v>
+        <v>14.4</v>
       </c>
       <c r="K91" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="L91" t="n">
-        <v>342.3</v>
+        <v>16</v>
       </c>
       <c r="M91" t="n">
-        <v>343.2</v>
+        <v>14.4</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -4938,44 +4938,44 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C92" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>10</v>
       </c>
       <c r="E92" t="n">
-        <v>79</v>
+        <v>7.9</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>BTU</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>38</v>
+        <v>378</v>
       </c>
       <c r="J92" t="n">
-        <v>79.2</v>
+        <v>7.5</v>
       </c>
       <c r="K92" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="L92" t="n">
-        <v>79.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M92" t="n">
-        <v>79.90000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -4988,44 +4988,44 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="C93" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>44.1</v>
+        <v>10</v>
       </c>
       <c r="F93" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>CEIX</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>68</v>
+        <v>300</v>
       </c>
       <c r="J93" t="n">
-        <v>44.3</v>
+        <v>9.5</v>
       </c>
       <c r="K93" t="n">
         <v>0.5</v>
       </c>
       <c r="L93" t="n">
-        <v>44.7</v>
+        <v>10.5</v>
       </c>
       <c r="M93" t="n">
-        <v>44.8</v>
+        <v>9.5</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -5038,44 +5038,44 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="C94" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>10</v>
       </c>
       <c r="E94" t="n">
-        <v>132.3</v>
+        <v>30.4</v>
       </c>
       <c r="F94" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>TROW</t>
+          <t>CLR</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="J94" t="n">
-        <v>132.6</v>
+        <v>28.9</v>
       </c>
       <c r="K94" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="L94" t="n">
-        <v>133.5</v>
+        <v>31.9</v>
       </c>
       <c r="M94" t="n">
-        <v>133.9</v>
+        <v>28.9</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -5088,44 +5088,44 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="C95" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>92.8</v>
+        <v>15.4</v>
       </c>
       <c r="F95" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>COG</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>32</v>
+        <v>194</v>
       </c>
       <c r="J95" t="n">
-        <v>93.09999999999999</v>
+        <v>14.7</v>
       </c>
       <c r="K95" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="L95" t="n">
-        <v>93.7</v>
+        <v>16.2</v>
       </c>
       <c r="M95" t="n">
-        <v>94</v>
+        <v>14.7</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -5138,44 +5138,44 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="C96" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>47.4</v>
+        <v>10</v>
       </c>
       <c r="F96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>DFIN</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>63</v>
+        <v>301</v>
       </c>
       <c r="J96" t="n">
-        <v>47.6</v>
+        <v>9.5</v>
       </c>
       <c r="K96" t="n">
         <v>0.3</v>
       </c>
       <c r="L96" t="n">
-        <v>47.8</v>
+        <v>10.5</v>
       </c>
       <c r="M96" t="n">
-        <v>48</v>
+        <v>9.5</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -5188,44 +5188,44 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>185.3</v>
+        <v>5.7</v>
       </c>
       <c r="F97" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>UNP</t>
+          <t>DO</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>16</v>
+        <v>530</v>
       </c>
       <c r="J97" t="n">
-        <v>185.8</v>
+        <v>5.4</v>
       </c>
       <c r="K97" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="L97" t="n">
-        <v>187.1</v>
+        <v>5.9</v>
       </c>
       <c r="M97" t="n">
-        <v>187.7</v>
+        <v>5.4</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -5238,44 +5238,44 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="C98" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>154.4</v>
+        <v>57</v>
       </c>
       <c r="F98" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>UTX</t>
+          <t>ENTA</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="J98" t="n">
-        <v>154.8</v>
+        <v>54.1</v>
       </c>
       <c r="K98" t="n">
         <v>1.1</v>
       </c>
       <c r="L98" t="n">
-        <v>155.7</v>
+        <v>59.8</v>
       </c>
       <c r="M98" t="n">
-        <v>156</v>
+        <v>54.1</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -5288,44 +5288,44 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.4</v>
+        <v>0.5</v>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>235.8</v>
+        <v>7.4</v>
       </c>
       <c r="F99" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>VRTX</t>
+          <t>EQT</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>13</v>
+        <v>405</v>
       </c>
       <c r="J99" t="n">
-        <v>236.7</v>
+        <v>7</v>
       </c>
       <c r="K99" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="L99" t="n">
-        <v>238.9</v>
+        <v>7.8</v>
       </c>
       <c r="M99" t="n">
-        <v>239.8</v>
+        <v>7</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -5338,44 +5338,44 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="C100" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>10</v>
       </c>
       <c r="E100" t="n">
-        <v>98.2</v>
+        <v>16.2</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>FIXX</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="J100" t="n">
-        <v>98.40000000000001</v>
+        <v>15.4</v>
       </c>
       <c r="K100" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="L100" t="n">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="M100" t="n">
-        <v>99.2</v>
+        <v>15.4</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -5388,44 +5388,44 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="C101" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>10</v>
       </c>
       <c r="E101" t="n">
-        <v>41.8</v>
+        <v>5.2</v>
       </c>
       <c r="F101" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>WMS</t>
+          <t>GOGO</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>72</v>
+        <v>571</v>
       </c>
       <c r="J101" t="n">
-        <v>41.9</v>
+        <v>5</v>
       </c>
       <c r="K101" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="L101" t="n">
-        <v>42.3</v>
+        <v>5.5</v>
       </c>
       <c r="M101" t="n">
-        <v>42.5</v>
+        <v>5</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -5438,44 +5438,44 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="C102" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D102" t="n">
         <v>10</v>
       </c>
       <c r="E102" t="n">
-        <v>70.40000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="F102" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>WRB</t>
+          <t>LBRT</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>43</v>
+        <v>312</v>
       </c>
       <c r="J102" t="n">
-        <v>70.5</v>
+        <v>9.1</v>
       </c>
       <c r="K102" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="L102" t="n">
-        <v>70.90000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="M102" t="n">
-        <v>71.09999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -5488,44 +5488,44 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="C103" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
         <v>10</v>
       </c>
       <c r="E103" t="n">
-        <v>83.5</v>
+        <v>21.5</v>
       </c>
       <c r="F103" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>XYL</t>
+          <t>PDCE</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="J103" t="n">
-        <v>83.7</v>
+        <v>20.4</v>
       </c>
       <c r="K103" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="L103" t="n">
-        <v>84.2</v>
+        <v>22.6</v>
       </c>
       <c r="M103" t="n">
-        <v>84.5</v>
+        <v>20.4</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -5538,19 +5538,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="C104" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D104" t="n">
         <v>10</v>
       </c>
       <c r="E104" t="n">
-        <v>66.3</v>
+        <v>19.7</v>
       </c>
       <c r="F104" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5559,23 +5559,23 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>ARCH</t>
+          <t>SCHN</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="J104" t="n">
-        <v>65.7</v>
+        <v>18.7</v>
       </c>
       <c r="K104" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="L104" t="n">
-        <v>64.09999999999999</v>
+        <v>20.7</v>
       </c>
       <c r="M104" t="n">
-        <v>63.5</v>
+        <v>18.7</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -5588,296 +5588,46 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C105" t="n">
+        <v>7</v>
+      </c>
+      <c r="D105" t="n">
+        <v>10</v>
+      </c>
+      <c r="E105" t="n">
+        <v>23</v>
+      </c>
+      <c r="F105" t="n">
+        <v>3</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>SFIX</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>130</v>
+      </c>
+      <c r="J105" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.8</v>
       </c>
-      <c r="C105" t="n">
-        <v>1</v>
-      </c>
-      <c r="D105" t="n">
-        <v>10</v>
-      </c>
-      <c r="E105" t="n">
-        <v>20</v>
-      </c>
-      <c r="F105" t="n">
-        <v>9</v>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>BCEI</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
-        <v>150</v>
-      </c>
-      <c r="J105" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.5</v>
-      </c>
       <c r="L105" t="n">
-        <v>19.4</v>
+        <v>24.2</v>
       </c>
       <c r="M105" t="n">
-        <v>19.3</v>
+        <v>21.8</v>
       </c>
       <c r="N105" t="inlineStr">
-        <is>
-          <t>TRAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C106" t="n">
-        <v>2</v>
-      </c>
-      <c r="D106" t="n">
-        <v>10</v>
-      </c>
-      <c r="E106" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F106" t="n">
-        <v>8</v>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>CEIX</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
-        <v>270</v>
-      </c>
-      <c r="J106" t="n">
-        <v>11</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L106" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="M106" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>TRAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C107" t="n">
-        <v>5</v>
-      </c>
-      <c r="D107" t="n">
-        <v>10</v>
-      </c>
-      <c r="E107" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F107" t="n">
-        <v>4</v>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>CLR</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
-        <v>92</v>
-      </c>
-      <c r="J107" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="L107" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="M107" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>TRAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C108" t="n">
-        <v>4</v>
-      </c>
-      <c r="D108" t="n">
-        <v>10</v>
-      </c>
-      <c r="E108" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="F108" t="n">
-        <v>6</v>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>ENTA</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
-        <v>52</v>
-      </c>
-      <c r="J108" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="L108" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="M108" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>TRAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C109" t="n">
-        <v>2</v>
-      </c>
-      <c r="D109" t="n">
-        <v>10</v>
-      </c>
-      <c r="E109" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="F109" t="n">
-        <v>7</v>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>KLXE</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
-        <v>566</v>
-      </c>
-      <c r="J109" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L109" t="n">
-        <v>5</v>
-      </c>
-      <c r="M109" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>TRAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C110" t="n">
-        <v>3</v>
-      </c>
-      <c r="D110" t="n">
-        <v>10</v>
-      </c>
-      <c r="E110" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F110" t="n">
-        <v>7</v>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>KURA</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
-        <v>235</v>
-      </c>
-      <c r="J110" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L110" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="M110" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="N110" t="inlineStr">
         <is>
           <t>TRAIL</t>
         </is>

--- a/app/data/Orders.xlsx
+++ b/app/data/Orders.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:N89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,7 +438,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.6</v>
+        <v>0.12</v>
       </c>
       <c r="C2" t="n">
         <v>7</v>
@@ -447,7 +447,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>92</v>
+        <v>16.3</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
@@ -459,23 +459,23 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>ADX</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="J2" t="n">
-        <v>96.59999999999999</v>
+        <v>16.87</v>
       </c>
       <c r="K2" t="n">
-        <v>1.1</v>
+        <v>0.08</v>
       </c>
       <c r="L2" t="n">
-        <v>90.2</v>
+        <v>15.97</v>
       </c>
       <c r="M2" t="n">
-        <v>93.90000000000001</v>
+        <v>16.63</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.6</v>
+        <v>0.32</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
@@ -497,7 +497,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>91.90000000000001</v>
+        <v>27.35</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
@@ -509,23 +509,23 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>AMH</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="J3" t="n">
-        <v>96.5</v>
+        <v>28.31</v>
       </c>
       <c r="K3" t="n">
-        <v>1.1</v>
+        <v>0.23</v>
       </c>
       <c r="L3" t="n">
-        <v>90</v>
+        <v>26.8</v>
       </c>
       <c r="M3" t="n">
-        <v>93.7</v>
+        <v>27.9</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -538,19 +538,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>16.2</v>
+        <v>52.14</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -559,23 +559,23 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ADX</t>
+          <t>APO</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>186</v>
+        <v>58</v>
       </c>
       <c r="J4" t="n">
-        <v>17</v>
+        <v>53.96</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="L4" t="n">
-        <v>15.8</v>
+        <v>51.1</v>
       </c>
       <c r="M4" t="n">
-        <v>16.5</v>
+        <v>53.18</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -588,19 +588,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>18.9</v>
+        <v>62.81</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -609,23 +609,23 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>AHH</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="J5" t="n">
-        <v>19.8</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2</v>
+        <v>1.08</v>
       </c>
       <c r="L5" t="n">
-        <v>18.5</v>
+        <v>61.55</v>
       </c>
       <c r="M5" t="n">
-        <v>19.2</v>
+        <v>64.06999999999999</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -638,19 +638,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>63.9</v>
+        <v>15.98</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -659,23 +659,23 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>AMAT</t>
+          <t>BDN</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>47</v>
+        <v>188</v>
       </c>
       <c r="J6" t="n">
-        <v>67.09999999999999</v>
+        <v>16.54</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9</v>
+        <v>0.14</v>
       </c>
       <c r="L6" t="n">
-        <v>62.6</v>
+        <v>15.66</v>
       </c>
       <c r="M6" t="n">
-        <v>65.2</v>
+        <v>16.3</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -688,19 +688,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3</v>
+        <v>0.96</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>27.2</v>
+        <v>41.5</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -709,23 +709,23 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>BHF</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="J7" t="n">
-        <v>28.5</v>
+        <v>42.95</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L7" t="n">
-        <v>26.6</v>
+        <v>40.67</v>
       </c>
       <c r="M7" t="n">
-        <v>27.7</v>
+        <v>42.33</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -738,19 +738,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>238</v>
+        <v>75.42</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -759,23 +759,23 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>APD</t>
+          <t>CDNS</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="J8" t="n">
-        <v>249.9</v>
+        <v>78.06</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="L8" t="n">
-        <v>233.3</v>
+        <v>73.91</v>
       </c>
       <c r="M8" t="n">
-        <v>242.8</v>
+        <v>76.93000000000001</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -788,19 +788,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>52</v>
+        <v>34.45</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -809,23 +809,23 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>CG</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="J9" t="n">
-        <v>54.6</v>
+        <v>35.66</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="L9" t="n">
-        <v>51</v>
+        <v>33.76</v>
       </c>
       <c r="M9" t="n">
-        <v>53.1</v>
+        <v>35.14</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -838,19 +838,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5</v>
+        <v>0.98</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>8.4</v>
+        <v>23.02</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -859,23 +859,23 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ASPU</t>
+          <t>CLW</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>355</v>
+        <v>130</v>
       </c>
       <c r="J10" t="n">
-        <v>8.9</v>
+        <v>23.83</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="L10" t="n">
-        <v>8.300000000000001</v>
+        <v>22.56</v>
       </c>
       <c r="M10" t="n">
-        <v>8.6</v>
+        <v>23.48</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -888,19 +888,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9</v>
+        <v>3.55</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>42.4</v>
+        <v>128.48</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -909,23 +909,23 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>ATKR</t>
+          <t>CTXS</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="J11" t="n">
-        <v>44.6</v>
+        <v>132.98</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6</v>
+        <v>2.56</v>
       </c>
       <c r="L11" t="n">
-        <v>41.6</v>
+        <v>125.91</v>
       </c>
       <c r="M11" t="n">
-        <v>43.3</v>
+        <v>131.05</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -938,19 +938,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1</v>
+        <v>1.15</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>6.1</v>
+        <v>58.99</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -959,23 +959,23 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>BGCP</t>
+          <t>DHI</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>494</v>
+        <v>51</v>
       </c>
       <c r="J12" t="n">
-        <v>6.4</v>
+        <v>61.05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1</v>
+        <v>0.83</v>
       </c>
       <c r="L12" t="n">
-        <v>5.9</v>
+        <v>57.81</v>
       </c>
       <c r="M12" t="n">
-        <v>6.2</v>
+        <v>60.17</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -988,19 +988,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
         <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>37</v>
+        <v>79.45999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1009,23 +1009,23 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>BHE</t>
+          <t>DOOR</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="J13" t="n">
-        <v>38.9</v>
+        <v>82.23999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4</v>
+        <v>1.08</v>
       </c>
       <c r="L13" t="n">
-        <v>36.3</v>
+        <v>77.87</v>
       </c>
       <c r="M13" t="n">
-        <v>37.8</v>
+        <v>81.05</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1038,19 +1038,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
         <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>31.4</v>
+        <v>137.55</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1059,23 +1059,23 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>BMCH</t>
+          <t>EGP</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="J14" t="n">
-        <v>33</v>
+        <v>142.36</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4</v>
+        <v>1.44</v>
       </c>
       <c r="L14" t="n">
-        <v>30.8</v>
+        <v>134.8</v>
       </c>
       <c r="M14" t="n">
-        <v>32</v>
+        <v>140.3</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1088,19 +1088,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.2</v>
+        <v>0.98</v>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>55.3</v>
+        <v>32.25</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1109,23 +1109,23 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>CAH</t>
+          <t>ELAN</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="J15" t="n">
-        <v>58.1</v>
+        <v>33.38</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9</v>
+        <v>0.71</v>
       </c>
       <c r="L15" t="n">
-        <v>54.2</v>
+        <v>31.6</v>
       </c>
       <c r="M15" t="n">
-        <v>56.4</v>
+        <v>32.9</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1138,19 +1138,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.2</v>
+        <v>1.59</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>74.8</v>
+        <v>50.93</v>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1159,23 +1159,23 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>EWBC</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="J16" t="n">
-        <v>78.5</v>
+        <v>52.71</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9</v>
+        <v>1.15</v>
       </c>
       <c r="L16" t="n">
-        <v>73.3</v>
+        <v>49.91</v>
       </c>
       <c r="M16" t="n">
-        <v>76.3</v>
+        <v>51.95</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
       <c r="C17" t="n">
         <v>7</v>
@@ -1197,7 +1197,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>34.3</v>
+        <v>47.95</v>
       </c>
       <c r="F17" t="n">
         <v>3</v>
@@ -1209,23 +1209,23 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="J17" t="n">
-        <v>36</v>
+        <v>49.63</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5</v>
+        <v>0.39</v>
       </c>
       <c r="L17" t="n">
-        <v>33.6</v>
+        <v>46.99</v>
       </c>
       <c r="M17" t="n">
-        <v>35</v>
+        <v>48.91</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.3</v>
+        <v>1.07</v>
       </c>
       <c r="C18" t="n">
         <v>7</v>
@@ -1247,7 +1247,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>47.1</v>
+        <v>73.75</v>
       </c>
       <c r="F18" t="n">
         <v>3</v>
@@ -1259,23 +1259,23 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>CIT</t>
+          <t>EXLS</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="J18" t="n">
-        <v>49.4</v>
+        <v>76.33</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9</v>
+        <v>0.77</v>
       </c>
       <c r="L18" t="n">
-        <v>46.1</v>
+        <v>72.28</v>
       </c>
       <c r="M18" t="n">
-        <v>48</v>
+        <v>75.22</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1288,19 +1288,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.3</v>
+        <v>0.59</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>106.8</v>
+        <v>50.35</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1309,23 +1309,23 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>FE</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="J19" t="n">
-        <v>112.1</v>
+        <v>52.11</v>
       </c>
       <c r="K19" t="n">
-        <v>1.6</v>
+        <v>0.42</v>
       </c>
       <c r="L19" t="n">
-        <v>104.6</v>
+        <v>49.34</v>
       </c>
       <c r="M19" t="n">
-        <v>108.9</v>
+        <v>51.36</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.6</v>
+        <v>0.68</v>
       </c>
       <c r="C20" t="n">
         <v>6</v>
@@ -1347,7 +1347,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>99.59999999999999</v>
+        <v>43.51</v>
       </c>
       <c r="F20" t="n">
         <v>4</v>
@@ -1359,23 +1359,23 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>CPRT</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="J20" t="n">
-        <v>104.6</v>
+        <v>45.03</v>
       </c>
       <c r="K20" t="n">
-        <v>1.2</v>
+        <v>0.49</v>
       </c>
       <c r="L20" t="n">
-        <v>97.59999999999999</v>
+        <v>42.64</v>
       </c>
       <c r="M20" t="n">
-        <v>101.6</v>
+        <v>44.38</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1388,19 +1388,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>21.6</v>
+        <v>12.26</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1409,23 +1409,23 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>CSWC</t>
+          <t>GRBK</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>139</v>
+        <v>245</v>
       </c>
       <c r="J21" t="n">
-        <v>22.6</v>
+        <v>12.69</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="L21" t="n">
-        <v>21.1</v>
+        <v>12.01</v>
       </c>
       <c r="M21" t="n">
-        <v>22</v>
+        <v>12.51</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1438,19 +1438,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.6</v>
+        <v>0.59</v>
       </c>
       <c r="C22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D22" t="n">
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>119.2</v>
+        <v>48.28</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1459,23 +1459,23 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>CTXS</t>
+          <t>HE</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="J22" t="n">
-        <v>125.2</v>
+        <v>49.97</v>
       </c>
       <c r="K22" t="n">
-        <v>1.2</v>
+        <v>0.43</v>
       </c>
       <c r="L22" t="n">
-        <v>116.8</v>
+        <v>47.31</v>
       </c>
       <c r="M22" t="n">
-        <v>121.6</v>
+        <v>49.25</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1488,19 +1488,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.3</v>
+        <v>0.54</v>
       </c>
       <c r="C23" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D23" t="n">
         <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>108.5</v>
+        <v>35.55</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1509,23 +1509,23 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>DGX</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="J23" t="n">
-        <v>114</v>
+        <v>36.79</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9</v>
+        <v>0.39</v>
       </c>
       <c r="L23" t="n">
-        <v>106.4</v>
+        <v>34.84</v>
       </c>
       <c r="M23" t="n">
-        <v>110.7</v>
+        <v>36.26</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="C24" t="n">
         <v>6</v>
@@ -1547,10 +1547,10 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>57.4</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1559,23 +1559,23 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>IBP</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="J24" t="n">
-        <v>60.3</v>
+        <v>81.87</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="L24" t="n">
-        <v>56.3</v>
+        <v>77.52</v>
       </c>
       <c r="M24" t="n">
-        <v>58.6</v>
+        <v>80.68000000000001</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -1588,19 +1588,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="C25" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>78.90000000000001</v>
+        <v>63.32</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1609,23 +1609,23 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>DOOR</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J25" t="n">
-        <v>82.8</v>
+        <v>65.54000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="L25" t="n">
-        <v>77.3</v>
+        <v>62.05</v>
       </c>
       <c r="M25" t="n">
-        <v>80.5</v>
+        <v>64.59</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -1638,19 +1638,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.1</v>
+        <v>1.63</v>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D26" t="n">
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>32.2</v>
+        <v>91.18000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1659,23 +1659,23 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>ELAN</t>
+          <t>ITGR</t>
         </is>
       </c>
       <c r="I26" t="n">
+        <v>33</v>
+      </c>
+      <c r="J26" t="n">
+        <v>94.37</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="L26" t="n">
+        <v>89.36</v>
+      </c>
+      <c r="M26" t="n">
         <v>93</v>
-      </c>
-      <c r="J26" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L26" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="M26" t="n">
-        <v>32.9</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -1688,19 +1688,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.6</v>
+        <v>0.16</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D27" t="n">
         <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>77.7</v>
+        <v>17.4</v>
       </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1709,23 +1709,23 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>EVR</t>
+          <t>IVR</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="J27" t="n">
-        <v>81.59999999999999</v>
+        <v>18.01</v>
       </c>
       <c r="K27" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="L27" t="n">
-        <v>76.09999999999999</v>
+        <v>17.05</v>
       </c>
       <c r="M27" t="n">
-        <v>79.3</v>
+        <v>17.75</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -1738,16 +1738,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>47.7</v>
+        <v>40.92</v>
       </c>
       <c r="F28" t="n">
         <v>3</v>
@@ -1759,23 +1759,23 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>JBGS</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="J28" t="n">
-        <v>50</v>
+        <v>42.35</v>
       </c>
       <c r="K28" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="L28" t="n">
-        <v>46.7</v>
+        <v>40.1</v>
       </c>
       <c r="M28" t="n">
-        <v>48.6</v>
+        <v>41.74</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -1788,19 +1788,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.1</v>
+        <v>2.24</v>
       </c>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>73.09999999999999</v>
+        <v>152.41</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1809,23 +1809,23 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>EXLS</t>
+          <t>JKHY</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J29" t="n">
-        <v>76.8</v>
+        <v>157.74</v>
       </c>
       <c r="K29" t="n">
-        <v>0.8</v>
+        <v>1.62</v>
       </c>
       <c r="L29" t="n">
-        <v>71.7</v>
+        <v>149.36</v>
       </c>
       <c r="M29" t="n">
-        <v>74.59999999999999</v>
+        <v>155.46</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.4</v>
+        <v>0.95</v>
       </c>
       <c r="C30" t="n">
         <v>6</v>
@@ -1847,7 +1847,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>93.5</v>
+        <v>38.89</v>
       </c>
       <c r="F30" t="n">
         <v>4</v>
@@ -1859,23 +1859,23 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>EXP</t>
+          <t>KBH</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="J30" t="n">
-        <v>98.2</v>
+        <v>40.25</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="L30" t="n">
-        <v>91.59999999999999</v>
+        <v>38.11</v>
       </c>
       <c r="M30" t="n">
-        <v>95.3</v>
+        <v>39.67</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="C31" t="n">
         <v>8</v>
@@ -1897,7 +1897,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>49.9</v>
+        <v>57.83</v>
       </c>
       <c r="F31" t="n">
         <v>2</v>
@@ -1909,23 +1909,23 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>FE</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J31" t="n">
-        <v>52.4</v>
+        <v>59.85</v>
       </c>
       <c r="K31" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="L31" t="n">
-        <v>48.9</v>
+        <v>56.67</v>
       </c>
       <c r="M31" t="n">
-        <v>50.9</v>
+        <v>58.99</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -1938,19 +1938,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>19.1</v>
+        <v>1.64</v>
       </c>
       <c r="C32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32" t="n">
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>1486</v>
+        <v>67.27</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1959,23 +1959,23 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>LEN</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="J32" t="n">
-        <v>1560.2</v>
+        <v>69.62</v>
       </c>
       <c r="K32" t="n">
-        <v>13.8</v>
+        <v>1.18</v>
       </c>
       <c r="L32" t="n">
-        <v>1456.2</v>
+        <v>65.92</v>
       </c>
       <c r="M32" t="n">
-        <v>1515.7</v>
+        <v>68.62</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>18.8</v>
+        <v>5.11</v>
       </c>
       <c r="C33" t="n">
         <v>6</v>
@@ -1997,7 +1997,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>1484.2</v>
+        <v>428.78</v>
       </c>
       <c r="F33" t="n">
         <v>4</v>
@@ -2009,23 +2009,23 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>LMT</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J33" t="n">
-        <v>1558.4</v>
+        <v>443.79</v>
       </c>
       <c r="K33" t="n">
-        <v>13.6</v>
+        <v>3.68</v>
       </c>
       <c r="L33" t="n">
-        <v>1454.5</v>
+        <v>420.2</v>
       </c>
       <c r="M33" t="n">
-        <v>1513.9</v>
+        <v>437.36</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2038,19 +2038,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="C34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="n">
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>200.1</v>
+        <v>58.46</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2059,23 +2059,23 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>LNT</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="J34" t="n">
-        <v>210.1</v>
+        <v>60.51</v>
       </c>
       <c r="K34" t="n">
-        <v>2.3</v>
+        <v>0.51</v>
       </c>
       <c r="L34" t="n">
-        <v>196.1</v>
+        <v>57.29</v>
       </c>
       <c r="M34" t="n">
-        <v>204.1</v>
+        <v>59.63</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2088,19 +2088,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35" t="n">
         <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>12.2</v>
+        <v>7.15</v>
       </c>
       <c r="F35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2109,23 +2109,23 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>GRBK</t>
+          <t>LQDA</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>247</v>
+        <v>420</v>
       </c>
       <c r="J35" t="n">
-        <v>12.8</v>
+        <v>7.4</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2</v>
+        <v>0.57</v>
       </c>
       <c r="L35" t="n">
-        <v>11.9</v>
+        <v>7.01</v>
       </c>
       <c r="M35" t="n">
-        <v>12.4</v>
+        <v>7.29</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2138,19 +2138,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5</v>
+        <v>0.34</v>
       </c>
       <c r="C36" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D36" t="n">
         <v>10</v>
       </c>
       <c r="E36" t="n">
-        <v>47.8</v>
+        <v>30.08</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2159,23 +2159,23 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>HE</t>
+          <t>MDU</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="J36" t="n">
-        <v>50.2</v>
+        <v>31.13</v>
       </c>
       <c r="K36" t="n">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
       <c r="L36" t="n">
-        <v>46.9</v>
+        <v>29.48</v>
       </c>
       <c r="M36" t="n">
-        <v>48.8</v>
+        <v>30.68</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2188,19 +2188,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.9</v>
+        <v>0.21</v>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D37" t="n">
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>149</v>
+        <v>12.07</v>
       </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2209,23 +2209,23 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>HUBB</t>
+          <t>MRCC</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>20</v>
+        <v>249</v>
       </c>
       <c r="J37" t="n">
-        <v>156.5</v>
+        <v>12.49</v>
       </c>
       <c r="K37" t="n">
-        <v>1.4</v>
+        <v>0.15</v>
       </c>
       <c r="L37" t="n">
-        <v>146.1</v>
+        <v>11.83</v>
       </c>
       <c r="M37" t="n">
-        <v>152</v>
+        <v>12.31</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -2238,19 +2238,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="C38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>76.5</v>
+        <v>59.2</v>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2259,23 +2259,23 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>IBP</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J38" t="n">
-        <v>80.3</v>
+        <v>61.27</v>
       </c>
       <c r="K38" t="n">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="L38" t="n">
-        <v>75</v>
+        <v>58.02</v>
       </c>
       <c r="M38" t="n">
-        <v>78</v>
+        <v>60.38</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -2288,19 +2288,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D39" t="n">
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>9.699999999999999</v>
+        <v>17.35</v>
       </c>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2309,23 +2309,23 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>ICAD</t>
+          <t>MYE</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>308</v>
+        <v>173</v>
       </c>
       <c r="J39" t="n">
-        <v>10.2</v>
+        <v>17.96</v>
       </c>
       <c r="K39" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="L39" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="M39" t="n">
-        <v>9.9</v>
+        <v>17.7</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -2338,19 +2338,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8</v>
+        <v>2.64</v>
       </c>
       <c r="C40" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D40" t="n">
         <v>10</v>
       </c>
       <c r="E40" t="n">
-        <v>33.1</v>
+        <v>172.29</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2359,23 +2359,23 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>IIIV</t>
+          <t>NDSN</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="J40" t="n">
-        <v>34.7</v>
+        <v>178.32</v>
       </c>
       <c r="K40" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="L40" t="n">
-        <v>32.4</v>
+        <v>168.84</v>
       </c>
       <c r="M40" t="n">
-        <v>33.7</v>
+        <v>175.74</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.3</v>
+        <v>0.49</v>
       </c>
       <c r="C41" t="n">
         <v>6</v>
@@ -2397,7 +2397,7 @@
         <v>10</v>
       </c>
       <c r="E41" t="n">
-        <v>62.7</v>
+        <v>13.04</v>
       </c>
       <c r="F41" t="n">
         <v>4</v>
@@ -2409,23 +2409,23 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>NOVA</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>48</v>
+        <v>230</v>
       </c>
       <c r="J41" t="n">
-        <v>65.90000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="K41" t="n">
-        <v>0.9</v>
+        <v>0.35</v>
       </c>
       <c r="L41" t="n">
-        <v>61.5</v>
+        <v>12.78</v>
       </c>
       <c r="M41" t="n">
-        <v>64</v>
+        <v>13.3</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -2438,19 +2438,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="C42" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D42" t="n">
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>91.09999999999999</v>
+        <v>18.08</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2459,23 +2459,23 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>ITGR</t>
+          <t>NX</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="J42" t="n">
-        <v>95.59999999999999</v>
+        <v>18.71</v>
       </c>
       <c r="K42" t="n">
-        <v>1.2</v>
+        <v>0.28</v>
       </c>
       <c r="L42" t="n">
-        <v>89.2</v>
+        <v>17.72</v>
       </c>
       <c r="M42" t="n">
-        <v>92.90000000000001</v>
+        <v>18.44</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -2488,16 +2488,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2</v>
+        <v>0.77</v>
       </c>
       <c r="C43" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D43" t="n">
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>17.3</v>
+        <v>35.55</v>
       </c>
       <c r="F43" t="n">
         <v>2</v>
@@ -2509,23 +2509,23 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>IVR</t>
+          <t>OPI</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="J43" t="n">
-        <v>18.2</v>
+        <v>36.79</v>
       </c>
       <c r="K43" t="n">
-        <v>0.1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L43" t="n">
-        <v>17</v>
+        <v>34.84</v>
       </c>
       <c r="M43" t="n">
-        <v>17.7</v>
+        <v>36.26</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -2538,19 +2538,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.9</v>
+        <v>0.09</v>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D44" t="n">
         <v>10</v>
       </c>
       <c r="E44" t="n">
-        <v>149.6</v>
+        <v>6.35</v>
       </c>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2559,23 +2559,23 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>ORC</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>20</v>
+        <v>472</v>
       </c>
       <c r="J44" t="n">
-        <v>157.1</v>
+        <v>6.57</v>
       </c>
       <c r="K44" t="n">
-        <v>1.3</v>
+        <v>0.06</v>
       </c>
       <c r="L44" t="n">
-        <v>146.6</v>
+        <v>6.22</v>
       </c>
       <c r="M44" t="n">
-        <v>152.6</v>
+        <v>6.48</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -2588,19 +2588,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9</v>
+        <v>0.34</v>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D45" t="n">
         <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>38.3</v>
+        <v>23.3</v>
       </c>
       <c r="F45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2609,23 +2609,23 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>KBH</t>
+          <t>PDM</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="J45" t="n">
-        <v>40.2</v>
+        <v>24.12</v>
       </c>
       <c r="K45" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="L45" t="n">
-        <v>37.5</v>
+        <v>22.83</v>
       </c>
       <c r="M45" t="n">
-        <v>39</v>
+        <v>23.77</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -2638,19 +2638,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3.7</v>
+        <v>0.87</v>
       </c>
       <c r="C46" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D46" t="n">
         <v>10</v>
       </c>
       <c r="E46" t="n">
-        <v>180.1</v>
+        <v>61.74</v>
       </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2659,23 +2659,23 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>PEG</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="J46" t="n">
-        <v>189.1</v>
+        <v>63.9</v>
       </c>
       <c r="K46" t="n">
-        <v>2.6</v>
+        <v>0.63</v>
       </c>
       <c r="L46" t="n">
-        <v>176.5</v>
+        <v>60.51</v>
       </c>
       <c r="M46" t="n">
-        <v>183.7</v>
+        <v>62.97</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6</v>
+        <v>1.66</v>
       </c>
       <c r="C47" t="n">
         <v>8</v>
@@ -2697,7 +2697,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>57.6</v>
+        <v>143.65</v>
       </c>
       <c r="F47" t="n">
         <v>2</v>
@@ -2709,23 +2709,23 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="J47" t="n">
-        <v>60.5</v>
+        <v>148.68</v>
       </c>
       <c r="K47" t="n">
-        <v>0.4</v>
+        <v>1.19</v>
       </c>
       <c r="L47" t="n">
-        <v>56.5</v>
+        <v>140.78</v>
       </c>
       <c r="M47" t="n">
-        <v>58.8</v>
+        <v>146.52</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -2738,19 +2738,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.5</v>
+        <v>0.17</v>
       </c>
       <c r="C48" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
         <v>10</v>
       </c>
       <c r="E48" t="n">
-        <v>94</v>
+        <v>14.22</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2759,23 +2759,23 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>PGRE</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>32</v>
+        <v>211</v>
       </c>
       <c r="J48" t="n">
-        <v>98.7</v>
+        <v>14.72</v>
       </c>
       <c r="K48" t="n">
-        <v>1.1</v>
+        <v>0.12</v>
       </c>
       <c r="L48" t="n">
-        <v>92.09999999999999</v>
+        <v>13.94</v>
       </c>
       <c r="M48" t="n">
-        <v>95.8</v>
+        <v>14.5</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -2788,19 +2788,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.5</v>
+        <v>1.03</v>
       </c>
       <c r="C49" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D49" t="n">
         <v>10</v>
       </c>
       <c r="E49" t="n">
-        <v>65.8</v>
+        <v>29</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2809,23 +2809,23 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>LEN</t>
+          <t>PHR</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="J49" t="n">
-        <v>69.09999999999999</v>
+        <v>30.01</v>
       </c>
       <c r="K49" t="n">
-        <v>1.1</v>
+        <v>0.74</v>
       </c>
       <c r="L49" t="n">
-        <v>64.5</v>
+        <v>28.42</v>
       </c>
       <c r="M49" t="n">
-        <v>67.09999999999999</v>
+        <v>29.58</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -2838,19 +2838,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2.2</v>
+        <v>2.52</v>
       </c>
       <c r="C50" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>141.6</v>
+        <v>80.48999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2859,23 +2859,23 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>PLXS</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J50" t="n">
-        <v>148.6</v>
+        <v>83.31</v>
       </c>
       <c r="K50" t="n">
-        <v>1.6</v>
+        <v>1.81</v>
       </c>
       <c r="L50" t="n">
-        <v>138.7</v>
+        <v>78.88</v>
       </c>
       <c r="M50" t="n">
-        <v>144.4</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -2888,19 +2888,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="C51" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D51" t="n">
         <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>57.8</v>
+        <v>22.76</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2909,23 +2909,23 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>LNT</t>
+          <t>PRIM</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="J51" t="n">
-        <v>60.6</v>
+        <v>23.56</v>
       </c>
       <c r="K51" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="L51" t="n">
-        <v>56.6</v>
+        <v>22.3</v>
       </c>
       <c r="M51" t="n">
-        <v>58.9</v>
+        <v>23.22</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.9</v>
+        <v>3.15</v>
       </c>
       <c r="C52" t="n">
         <v>5</v>
@@ -2947,7 +2947,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>121.9</v>
+        <v>85.06999999999999</v>
       </c>
       <c r="F52" t="n">
         <v>5</v>
@@ -2959,23 +2959,23 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>PTC</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J52" t="n">
-        <v>128</v>
+        <v>88.05</v>
       </c>
       <c r="K52" t="n">
-        <v>1.4</v>
+        <v>2.27</v>
       </c>
       <c r="L52" t="n">
-        <v>119.5</v>
+        <v>83.37</v>
       </c>
       <c r="M52" t="n">
-        <v>124.3</v>
+        <v>86.77</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -2988,19 +2988,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7</v>
+        <v>0.37</v>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>7</v>
+        <v>14.78</v>
       </c>
       <c r="F53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3009,23 +3009,23 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>LQDA</t>
+          <t>RMBS</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>429</v>
+        <v>203</v>
       </c>
       <c r="J53" t="n">
-        <v>7.4</v>
+        <v>15.3</v>
       </c>
       <c r="K53" t="n">
-        <v>0.5</v>
+        <v>0.27</v>
       </c>
       <c r="L53" t="n">
-        <v>6.9</v>
+        <v>14.48</v>
       </c>
       <c r="M53" t="n">
-        <v>7.1</v>
+        <v>15.08</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.7</v>
+        <v>1.96</v>
       </c>
       <c r="C54" t="n">
         <v>6</v>
@@ -3047,7 +3047,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>121.1</v>
+        <v>94.06999999999999</v>
       </c>
       <c r="F54" t="n">
         <v>4</v>
@@ -3059,23 +3059,23 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>MDT</t>
+          <t>SLG</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J54" t="n">
-        <v>127.1</v>
+        <v>97.36</v>
       </c>
       <c r="K54" t="n">
-        <v>1.2</v>
+        <v>1.41</v>
       </c>
       <c r="L54" t="n">
-        <v>118.7</v>
+        <v>92.19</v>
       </c>
       <c r="M54" t="n">
-        <v>123.5</v>
+        <v>95.95</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -3088,19 +3088,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.2</v>
+        <v>0.83</v>
       </c>
       <c r="C55" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D55" t="n">
         <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>11.9</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3109,23 +3109,23 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>MRCC</t>
+          <t>SO</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>251</v>
+        <v>44</v>
       </c>
       <c r="J55" t="n">
-        <v>12.5</v>
+        <v>71.37</v>
       </c>
       <c r="K55" t="n">
-        <v>0.1</v>
+        <v>0.59</v>
       </c>
       <c r="L55" t="n">
-        <v>11.7</v>
+        <v>67.58</v>
       </c>
       <c r="M55" t="n">
-        <v>12.2</v>
+        <v>70.34</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -3138,20 +3138,20 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.6</v>
+        <v>2.14</v>
       </c>
       <c r="C56" t="n">
+        <v>7</v>
+      </c>
+      <c r="D56" t="n">
+        <v>10</v>
+      </c>
+      <c r="E56" t="n">
+        <v>160.06</v>
+      </c>
+      <c r="F56" t="n">
         <v>3</v>
       </c>
-      <c r="D56" t="n">
-        <v>10</v>
-      </c>
-      <c r="E56" t="n">
-        <v>59.2</v>
-      </c>
-      <c r="F56" t="n">
-        <v>7</v>
-      </c>
       <c r="G56" t="inlineStr">
         <is>
           <t>BUY</t>
@@ -3159,23 +3159,23 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>SRE</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="J56" t="n">
-        <v>62.1</v>
+        <v>165.66</v>
       </c>
       <c r="K56" t="n">
-        <v>1.1</v>
+        <v>1.54</v>
       </c>
       <c r="L56" t="n">
-        <v>58</v>
+        <v>156.86</v>
       </c>
       <c r="M56" t="n">
-        <v>60.4</v>
+        <v>163.26</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -3188,19 +3188,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.2</v>
+        <v>1.34</v>
       </c>
       <c r="C57" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D57" t="n">
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>12.2</v>
+        <v>85.56999999999999</v>
       </c>
       <c r="F57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3209,23 +3209,23 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>MWA</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>246</v>
+        <v>35</v>
       </c>
       <c r="J57" t="n">
-        <v>12.8</v>
+        <v>88.56</v>
       </c>
       <c r="K57" t="n">
-        <v>0.2</v>
+        <v>0.96</v>
       </c>
       <c r="L57" t="n">
-        <v>11.9</v>
+        <v>83.86</v>
       </c>
       <c r="M57" t="n">
-        <v>12.4</v>
+        <v>87.28</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -3238,19 +3238,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6</v>
+        <v>0.19</v>
       </c>
       <c r="C58" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D58" t="n">
         <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>21.5</v>
+        <v>25.62</v>
       </c>
       <c r="F58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3259,23 +3259,23 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>MXL</t>
+          <t>STWD</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="J58" t="n">
-        <v>22.6</v>
+        <v>26.52</v>
       </c>
       <c r="K58" t="n">
-        <v>0.4</v>
+        <v>0.14</v>
       </c>
       <c r="L58" t="n">
-        <v>21.1</v>
+        <v>25.11</v>
       </c>
       <c r="M58" t="n">
-        <v>22</v>
+        <v>26.13</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -3288,19 +3288,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2.3</v>
+        <v>0.14</v>
       </c>
       <c r="C59" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D59" t="n">
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>170.3</v>
+        <v>15.29</v>
       </c>
       <c r="F59" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3309,23 +3309,23 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>NDSN</t>
+          <t>TWO</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="J59" t="n">
-        <v>178.9</v>
+        <v>15.83</v>
       </c>
       <c r="K59" t="n">
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
       <c r="L59" t="n">
-        <v>166.9</v>
+        <v>14.98</v>
       </c>
       <c r="M59" t="n">
-        <v>173.7</v>
+        <v>15.6</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -3338,19 +3338,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5</v>
+        <v>0.23</v>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D60" t="n">
         <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>12.9</v>
+        <v>16.64</v>
       </c>
       <c r="F60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3359,23 +3359,23 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>NOVA</t>
+          <t>UMH</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>233</v>
+        <v>180</v>
       </c>
       <c r="J60" t="n">
-        <v>13.5</v>
+        <v>17.22</v>
       </c>
       <c r="K60" t="n">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="L60" t="n">
-        <v>12.6</v>
+        <v>16.31</v>
       </c>
       <c r="M60" t="n">
-        <v>13.1</v>
+        <v>16.97</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.5</v>
+        <v>3.69</v>
       </c>
       <c r="C61" t="n">
         <v>5</v>
@@ -3397,7 +3397,7 @@
         <v>10</v>
       </c>
       <c r="E61" t="n">
-        <v>250</v>
+        <v>187.19</v>
       </c>
       <c r="F61" t="n">
         <v>5</v>
@@ -3409,23 +3409,23 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>UNP</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J61" t="n">
-        <v>262.6</v>
+        <v>193.74</v>
       </c>
       <c r="K61" t="n">
-        <v>3.2</v>
+        <v>2.66</v>
       </c>
       <c r="L61" t="n">
-        <v>245</v>
+        <v>183.45</v>
       </c>
       <c r="M61" t="n">
-        <v>255.1</v>
+        <v>190.93</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1</v>
+        <v>0.86</v>
       </c>
       <c r="C62" t="n">
         <v>7</v>
@@ -3447,7 +3447,7 @@
         <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>6.4</v>
+        <v>68.61</v>
       </c>
       <c r="F62" t="n">
         <v>3</v>
@@ -3459,23 +3459,23 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>NYMT</t>
+          <t>VNO</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>472</v>
+        <v>44</v>
       </c>
       <c r="J62" t="n">
-        <v>6.7</v>
+        <v>71.01000000000001</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="L62" t="n">
-        <v>6.2</v>
+        <v>67.23999999999999</v>
       </c>
       <c r="M62" t="n">
-        <v>6.5</v>
+        <v>69.98</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -3488,20 +3488,20 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.3</v>
+        <v>2.23</v>
       </c>
       <c r="C63" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>10</v>
       </c>
       <c r="E63" t="n">
+        <v>70.93000000000001</v>
+      </c>
+      <c r="F63" t="n">
         <v>5</v>
       </c>
-      <c r="F63" t="n">
-        <v>3</v>
-      </c>
       <c r="G63" t="inlineStr">
         <is>
           <t>BUY</t>
@@ -3509,23 +3509,23 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>OESX</t>
+          <t>WDC</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>596</v>
+        <v>42</v>
       </c>
       <c r="J63" t="n">
-        <v>5.3</v>
+        <v>73.41</v>
       </c>
       <c r="K63" t="n">
-        <v>0.2</v>
+        <v>1.61</v>
       </c>
       <c r="L63" t="n">
-        <v>4.9</v>
+        <v>69.51000000000001</v>
       </c>
       <c r="M63" t="n">
-        <v>5.1</v>
+        <v>72.34999999999999</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
         <v>8</v>
@@ -3547,7 +3547,7 @@
         <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>35.1</v>
+        <v>71.38</v>
       </c>
       <c r="F64" t="n">
         <v>2</v>
@@ -3559,23 +3559,23 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>OPI</t>
+          <t>WRB</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="J64" t="n">
-        <v>36.8</v>
+        <v>73.88</v>
       </c>
       <c r="K64" t="n">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="L64" t="n">
-        <v>34.4</v>
+        <v>69.95</v>
       </c>
       <c r="M64" t="n">
-        <v>35.8</v>
+        <v>72.81</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -3588,19 +3588,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3.5</v>
+        <v>0.16</v>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>243.7</v>
+        <v>12.18</v>
       </c>
       <c r="F65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3609,23 +3609,23 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>XAN</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>12</v>
+        <v>246</v>
       </c>
       <c r="J65" t="n">
-        <v>255.9</v>
+        <v>12.61</v>
       </c>
       <c r="K65" t="n">
-        <v>2.5</v>
+        <v>0.11</v>
       </c>
       <c r="L65" t="n">
-        <v>238.9</v>
+        <v>11.94</v>
       </c>
       <c r="M65" t="n">
-        <v>248.6</v>
+        <v>12.42</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -3638,19 +3638,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="C66" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>89.59999999999999</v>
+        <v>34.96</v>
       </c>
       <c r="F66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3659,23 +3659,23 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>YMAB</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="J66" t="n">
-        <v>94.09999999999999</v>
+        <v>36.18</v>
       </c>
       <c r="K66" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="L66" t="n">
-        <v>87.8</v>
+        <v>34.26</v>
       </c>
       <c r="M66" t="n">
-        <v>91.40000000000001</v>
+        <v>35.66</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -3688,44 +3688,44 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7</v>
+        <v>1.14</v>
       </c>
       <c r="C67" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>60.3</v>
+        <v>25.62</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>PEG</t>
+          <t>AAWW</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="J67" t="n">
-        <v>63.3</v>
+        <v>25.11</v>
       </c>
       <c r="K67" t="n">
-        <v>0.5</v>
+        <v>0.82</v>
       </c>
       <c r="L67" t="n">
-        <v>59.1</v>
+        <v>26.52</v>
       </c>
       <c r="M67" t="n">
-        <v>61.5</v>
+        <v>24.72</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -3738,44 +3738,44 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.7</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>88.40000000000001</v>
+        <v>24.72</v>
       </c>
       <c r="F68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>PEGA</t>
+          <t>ALLO</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="J68" t="n">
-        <v>92.90000000000001</v>
+        <v>24.23</v>
       </c>
       <c r="K68" t="n">
-        <v>1.2</v>
+        <v>0.68</v>
       </c>
       <c r="L68" t="n">
-        <v>86.7</v>
+        <v>25.59</v>
       </c>
       <c r="M68" t="n">
-        <v>90.2</v>
+        <v>23.85</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -3788,44 +3788,44 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.7</v>
+        <v>0.79</v>
       </c>
       <c r="C69" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>143.4</v>
+        <v>17.76</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>BCEI</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="J69" t="n">
-        <v>150.5</v>
+        <v>17.4</v>
       </c>
       <c r="K69" t="n">
-        <v>1.2</v>
+        <v>0.57</v>
       </c>
       <c r="L69" t="n">
-        <v>140.5</v>
+        <v>18.38</v>
       </c>
       <c r="M69" t="n">
-        <v>146.2</v>
+        <v>17.14</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -3838,44 +3838,44 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3.4</v>
+        <v>4.83</v>
       </c>
       <c r="C70" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>126.7</v>
+        <v>67.19</v>
       </c>
       <c r="F70" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>PFPT</t>
+          <t>BPMC</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="J70" t="n">
-        <v>133</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="K70" t="n">
-        <v>2.4</v>
+        <v>3.48</v>
       </c>
       <c r="L70" t="n">
-        <v>124.2</v>
+        <v>69.54000000000001</v>
       </c>
       <c r="M70" t="n">
-        <v>129.2</v>
+        <v>64.84</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -3888,44 +3888,44 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>28.5</v>
+        <v>7.62</v>
       </c>
       <c r="F71" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>PHR</t>
+          <t>BTU</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>105</v>
+        <v>394</v>
       </c>
       <c r="J71" t="n">
-        <v>29.9</v>
+        <v>7.47</v>
       </c>
       <c r="K71" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="L71" t="n">
-        <v>27.9</v>
+        <v>7.89</v>
       </c>
       <c r="M71" t="n">
-        <v>29.1</v>
+        <v>7.35</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -3938,44 +3938,44 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.2</v>
+        <v>0.64</v>
       </c>
       <c r="C72" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>23.2</v>
+        <v>9.84</v>
       </c>
       <c r="F72" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>PMT</t>
+          <t>CEIX</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>129</v>
+        <v>305</v>
       </c>
       <c r="J72" t="n">
-        <v>24.4</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="K72" t="n">
-        <v>0.1</v>
+        <v>0.46</v>
       </c>
       <c r="L72" t="n">
-        <v>22.7</v>
+        <v>10.18</v>
       </c>
       <c r="M72" t="n">
-        <v>23.7</v>
+        <v>9.5</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -3988,44 +3988,44 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>97.2</v>
+        <v>15.23</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>COG</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="J73" t="n">
-        <v>102.1</v>
+        <v>14.93</v>
       </c>
       <c r="K73" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="L73" t="n">
-        <v>95.3</v>
+        <v>15.76</v>
       </c>
       <c r="M73" t="n">
-        <v>99.2</v>
+        <v>14.7</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -4038,44 +4038,44 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2.3</v>
+        <v>0.59</v>
       </c>
       <c r="C74" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>164.4</v>
+        <v>7.88</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>RMD</t>
+          <t>CRC</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>18</v>
+        <v>381</v>
       </c>
       <c r="J74" t="n">
-        <v>172.6</v>
+        <v>7.72</v>
       </c>
       <c r="K74" t="n">
-        <v>1.7</v>
+        <v>0.42</v>
       </c>
       <c r="L74" t="n">
-        <v>161.1</v>
+        <v>8.16</v>
       </c>
       <c r="M74" t="n">
-        <v>167.7</v>
+        <v>7.6</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -4088,44 +4088,44 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.1</v>
+        <v>0.37</v>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>22</v>
+        <v>5.42</v>
       </c>
       <c r="F75" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>DO</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>136</v>
+        <v>554</v>
       </c>
       <c r="J75" t="n">
-        <v>23.1</v>
+        <v>5.31</v>
       </c>
       <c r="K75" t="n">
-        <v>0.8</v>
+        <v>0.26</v>
       </c>
       <c r="L75" t="n">
-        <v>21.6</v>
+        <v>5.61</v>
       </c>
       <c r="M75" t="n">
-        <v>22.5</v>
+        <v>5.23</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -4138,44 +4138,44 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.1</v>
+        <v>1.59</v>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>54.4</v>
+        <v>56</v>
       </c>
       <c r="F76" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>SMTC</t>
+          <t>ENTA</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J76" t="n">
-        <v>57.2</v>
+        <v>54.88</v>
       </c>
       <c r="K76" t="n">
-        <v>0.8</v>
+        <v>1.14</v>
       </c>
       <c r="L76" t="n">
-        <v>53.4</v>
+        <v>57.96</v>
       </c>
       <c r="M76" t="n">
-        <v>55.5</v>
+        <v>54.04</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -4188,44 +4188,44 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="C77" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>10</v>
       </c>
       <c r="E77" t="n">
-        <v>68.3</v>
+        <v>7.12</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>EQT</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>44</v>
+        <v>421</v>
       </c>
       <c r="J77" t="n">
-        <v>71.7</v>
+        <v>6.98</v>
       </c>
       <c r="K77" t="n">
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
       <c r="L77" t="n">
-        <v>66.90000000000001</v>
+        <v>7.37</v>
       </c>
       <c r="M77" t="n">
-        <v>69.7</v>
+        <v>6.87</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -4238,44 +4238,44 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="C78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D78" t="n">
+        <v>10</v>
+      </c>
+      <c r="E78" t="n">
+        <v>23.64</v>
+      </c>
+      <c r="F78" t="n">
         <v>8</v>
       </c>
-      <c r="D78" t="n">
-        <v>10</v>
-      </c>
-      <c r="E78" t="n">
-        <v>84.7</v>
-      </c>
-      <c r="F78" t="n">
-        <v>2</v>
-      </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>GTHX</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="J78" t="n">
-        <v>88.90000000000001</v>
+        <v>23.17</v>
       </c>
       <c r="K78" t="n">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="L78" t="n">
-        <v>83</v>
+        <v>24.47</v>
       </c>
       <c r="M78" t="n">
-        <v>86.40000000000001</v>
+        <v>22.81</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -4288,44 +4288,44 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.2</v>
+        <v>0.46</v>
       </c>
       <c r="C79" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>25.6</v>
+        <v>9.32</v>
       </c>
       <c r="F79" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>STWD</t>
+          <t>LBRT</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>117</v>
+        <v>322</v>
       </c>
       <c r="J79" t="n">
-        <v>26.8</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="K79" t="n">
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
       <c r="L79" t="n">
-        <v>25.1</v>
+        <v>9.65</v>
       </c>
       <c r="M79" t="n">
-        <v>26.1</v>
+        <v>8.99</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -4338,44 +4338,44 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1</v>
+        <v>0.43</v>
       </c>
       <c r="C80" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>14.3</v>
+        <v>25.08</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>TCPC</t>
+          <t>PEB</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="J80" t="n">
-        <v>15</v>
+        <v>24.58</v>
       </c>
       <c r="K80" t="n">
-        <v>0.1</v>
+        <v>0.31</v>
       </c>
       <c r="L80" t="n">
-        <v>14</v>
+        <v>25.96</v>
       </c>
       <c r="M80" t="n">
-        <v>14.5</v>
+        <v>24.2</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -4388,44 +4388,44 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7</v>
+        <v>0.61</v>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>26.8</v>
+        <v>10.29</v>
       </c>
       <c r="F81" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>TENB</t>
+          <t>PUMP</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>112</v>
+        <v>292</v>
       </c>
       <c r="J81" t="n">
-        <v>28.1</v>
+        <v>10.08</v>
       </c>
       <c r="K81" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="L81" t="n">
-        <v>26.2</v>
+        <v>10.65</v>
       </c>
       <c r="M81" t="n">
-        <v>27.3</v>
+        <v>9.93</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -4438,44 +4438,44 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.6</v>
+        <v>1.27</v>
       </c>
       <c r="C82" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>340</v>
+        <v>25.25</v>
       </c>
       <c r="F82" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>PVAC</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="J82" t="n">
-        <v>357.1</v>
+        <v>24.74</v>
       </c>
       <c r="K82" t="n">
-        <v>3.3</v>
+        <v>0.91</v>
       </c>
       <c r="L82" t="n">
-        <v>333.2</v>
+        <v>26.13</v>
       </c>
       <c r="M82" t="n">
-        <v>346.9</v>
+        <v>24.37</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -4488,44 +4488,44 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.7</v>
+        <v>2.17</v>
       </c>
       <c r="C83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D83" t="n">
         <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>44.2</v>
+        <v>92.43000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>RLI</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="J83" t="n">
-        <v>46.5</v>
+        <v>90.58</v>
       </c>
       <c r="K83" t="n">
-        <v>0.5</v>
+        <v>1.56</v>
       </c>
       <c r="L83" t="n">
-        <v>43.4</v>
+        <v>95.67</v>
       </c>
       <c r="M83" t="n">
-        <v>45.1</v>
+        <v>89.19</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -4538,44 +4538,44 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1</v>
+        <v>0.59</v>
       </c>
       <c r="C84" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>15.3</v>
+        <v>19.55</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>TWO</t>
+          <t>SCHN</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="J84" t="n">
-        <v>16</v>
+        <v>19.16</v>
       </c>
       <c r="K84" t="n">
-        <v>0.1</v>
+        <v>0.42</v>
       </c>
       <c r="L84" t="n">
-        <v>15</v>
+        <v>20.23</v>
       </c>
       <c r="M84" t="n">
-        <v>15.6</v>
+        <v>18.87</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -4588,44 +4588,44 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="C85" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>16.5</v>
+        <v>8.01</v>
       </c>
       <c r="F85" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>UMH</t>
+          <t>SGMO</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>182</v>
+        <v>375</v>
       </c>
       <c r="J85" t="n">
-        <v>17.3</v>
+        <v>7.85</v>
       </c>
       <c r="K85" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="L85" t="n">
-        <v>16.2</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="M85" t="n">
-        <v>16.8</v>
+        <v>7.73</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -4638,44 +4638,44 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9</v>
+        <v>0.58</v>
       </c>
       <c r="C86" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>71.2</v>
+        <v>7.41</v>
       </c>
       <c r="F86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>WRB</t>
+          <t>UNFI</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>42</v>
+        <v>405</v>
       </c>
       <c r="J86" t="n">
-        <v>74.8</v>
+        <v>7.26</v>
       </c>
       <c r="K86" t="n">
-        <v>0.7</v>
+        <v>0.42</v>
       </c>
       <c r="L86" t="n">
-        <v>69.8</v>
+        <v>7.67</v>
       </c>
       <c r="M86" t="n">
-        <v>72.7</v>
+        <v>7.15</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -4688,44 +4688,44 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9</v>
+        <v>0.59</v>
       </c>
       <c r="C87" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>10</v>
       </c>
       <c r="E87" t="n">
-        <v>60.7</v>
+        <v>15.19</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>XRAY</t>
+          <t>VIRT</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>49</v>
+        <v>197</v>
       </c>
       <c r="J87" t="n">
-        <v>63.7</v>
+        <v>14.89</v>
       </c>
       <c r="K87" t="n">
-        <v>0.6</v>
+        <v>0.42</v>
       </c>
       <c r="L87" t="n">
-        <v>59.5</v>
+        <v>15.72</v>
       </c>
       <c r="M87" t="n">
-        <v>61.9</v>
+        <v>14.66</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -4738,44 +4738,44 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.7</v>
+        <v>0.73</v>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>10</v>
       </c>
       <c r="E88" t="n">
-        <v>34.6</v>
+        <v>12.77</v>
       </c>
       <c r="F88" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>YMAB</t>
+          <t>VYGR</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>87</v>
+        <v>235</v>
       </c>
       <c r="J88" t="n">
-        <v>36.4</v>
+        <v>12.51</v>
       </c>
       <c r="K88" t="n">
-        <v>1.2</v>
+        <v>0.52</v>
       </c>
       <c r="L88" t="n">
-        <v>33.9</v>
+        <v>13.22</v>
       </c>
       <c r="M88" t="n">
-        <v>35.3</v>
+        <v>12.32</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -4788,846 +4788,46 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="C89" t="n">
         <v>2</v>
       </c>
-      <c r="C89" t="n">
-        <v>6</v>
-      </c>
       <c r="D89" t="n">
         <v>10</v>
       </c>
       <c r="E89" t="n">
-        <v>151</v>
+        <v>9.69</v>
       </c>
       <c r="F89" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>ZBH</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>20</v>
+        <v>310</v>
       </c>
       <c r="J89" t="n">
-        <v>158.5</v>
+        <v>9.5</v>
       </c>
       <c r="K89" t="n">
-        <v>1.4</v>
+        <v>0.31</v>
       </c>
       <c r="L89" t="n">
-        <v>148</v>
+        <v>10.03</v>
       </c>
       <c r="M89" t="n">
-        <v>154</v>
+        <v>9.35</v>
       </c>
       <c r="N89" t="inlineStr">
-        <is>
-          <t>TRAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0</v>
-      </c>
-      <c r="D90" t="n">
-        <v>10</v>
-      </c>
-      <c r="E90" t="n">
-        <v>18</v>
-      </c>
-      <c r="F90" t="n">
-        <v>10</v>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>BCEI</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
-        <v>166</v>
-      </c>
-      <c r="J90" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L90" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="M90" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>TRAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C91" t="n">
-        <v>4</v>
-      </c>
-      <c r="D91" t="n">
-        <v>10</v>
-      </c>
-      <c r="E91" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F91" t="n">
-        <v>6</v>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>BLFS</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
-        <v>197</v>
-      </c>
-      <c r="J91" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L91" t="n">
-        <v>16</v>
-      </c>
-      <c r="M91" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>TRAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C92" t="n">
-        <v>2</v>
-      </c>
-      <c r="D92" t="n">
-        <v>10</v>
-      </c>
-      <c r="E92" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="F92" t="n">
-        <v>7</v>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>BTU</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>378</v>
-      </c>
-      <c r="J92" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L92" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="M92" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>TRAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C93" t="n">
-        <v>2</v>
-      </c>
-      <c r="D93" t="n">
-        <v>10</v>
-      </c>
-      <c r="E93" t="n">
-        <v>10</v>
-      </c>
-      <c r="F93" t="n">
-        <v>8</v>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>CEIX</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>300</v>
-      </c>
-      <c r="J93" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L93" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="M93" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>TRAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C94" t="n">
-        <v>3</v>
-      </c>
-      <c r="D94" t="n">
-        <v>10</v>
-      </c>
-      <c r="E94" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F94" t="n">
-        <v>6</v>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>CLR</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>99</v>
-      </c>
-      <c r="J94" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L94" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="M94" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>TRAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C95" t="n">
-        <v>4</v>
-      </c>
-      <c r="D95" t="n">
-        <v>10</v>
-      </c>
-      <c r="E95" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="F95" t="n">
-        <v>6</v>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>COG</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
-        <v>194</v>
-      </c>
-      <c r="J95" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L95" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="M95" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>TRAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C96" t="n">
-        <v>5</v>
-      </c>
-      <c r="D96" t="n">
-        <v>10</v>
-      </c>
-      <c r="E96" t="n">
-        <v>10</v>
-      </c>
-      <c r="F96" t="n">
-        <v>5</v>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>DFIN</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>301</v>
-      </c>
-      <c r="J96" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L96" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="M96" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>TRAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C97" t="n">
-        <v>2</v>
-      </c>
-      <c r="D97" t="n">
-        <v>10</v>
-      </c>
-      <c r="E97" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="F97" t="n">
-        <v>8</v>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
-        <v>530</v>
-      </c>
-      <c r="J97" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L97" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="M97" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>TRAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="C98" t="n">
-        <v>4</v>
-      </c>
-      <c r="D98" t="n">
-        <v>10</v>
-      </c>
-      <c r="E98" t="n">
-        <v>57</v>
-      </c>
-      <c r="F98" t="n">
-        <v>6</v>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>ENTA</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
-        <v>53</v>
-      </c>
-      <c r="J98" t="n">
-        <v>54.1</v>
-      </c>
-      <c r="K98" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="L98" t="n">
-        <v>59.8</v>
-      </c>
-      <c r="M98" t="n">
-        <v>54.1</v>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>TRAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C99" t="n">
-        <v>2</v>
-      </c>
-      <c r="D99" t="n">
-        <v>10</v>
-      </c>
-      <c r="E99" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F99" t="n">
-        <v>8</v>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>EQT</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
-        <v>405</v>
-      </c>
-      <c r="J99" t="n">
-        <v>7</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L99" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="M99" t="n">
-        <v>7</v>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>TRAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C100" t="n">
-        <v>3</v>
-      </c>
-      <c r="D100" t="n">
-        <v>10</v>
-      </c>
-      <c r="E100" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F100" t="n">
-        <v>7</v>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>FIXX</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
-        <v>186</v>
-      </c>
-      <c r="J100" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L100" t="n">
-        <v>17</v>
-      </c>
-      <c r="M100" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>TRAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C101" t="n">
-        <v>2</v>
-      </c>
-      <c r="D101" t="n">
-        <v>10</v>
-      </c>
-      <c r="E101" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="F101" t="n">
-        <v>8</v>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>GOGO</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
-        <v>571</v>
-      </c>
-      <c r="J101" t="n">
-        <v>5</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L101" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M101" t="n">
-        <v>5</v>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>TRAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C102" t="n">
-        <v>4</v>
-      </c>
-      <c r="D102" t="n">
-        <v>10</v>
-      </c>
-      <c r="E102" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="F102" t="n">
-        <v>6</v>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>LBRT</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
-        <v>312</v>
-      </c>
-      <c r="J102" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L102" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="M102" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>TRAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="C103" t="n">
-        <v>1</v>
-      </c>
-      <c r="D103" t="n">
-        <v>10</v>
-      </c>
-      <c r="E103" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F103" t="n">
-        <v>9</v>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>PDCE</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
-        <v>140</v>
-      </c>
-      <c r="J103" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="L103" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="M103" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>TRAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C104" t="n">
-        <v>4</v>
-      </c>
-      <c r="D104" t="n">
-        <v>10</v>
-      </c>
-      <c r="E104" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="F104" t="n">
-        <v>6</v>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>SCHN</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
-        <v>152</v>
-      </c>
-      <c r="J104" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L104" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="M104" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>TRAIL</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="C105" t="n">
-        <v>7</v>
-      </c>
-      <c r="D105" t="n">
-        <v>10</v>
-      </c>
-      <c r="E105" t="n">
-        <v>23</v>
-      </c>
-      <c r="F105" t="n">
-        <v>3</v>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>SFIX</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
-        <v>130</v>
-      </c>
-      <c r="J105" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L105" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="M105" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="N105" t="inlineStr">
         <is>
           <t>TRAIL</t>
         </is>
